--- a/2 - Flow output Excel files - working drafts/Data Output 09_15_2019/Offsets and Clip times 09_15_2019.xlsx
+++ b/2 - Flow output Excel files - working drafts/Data Output 09_15_2019/Offsets and Clip times 09_15_2019.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.messina\Documents\GitHub\SD_County_LowFlow\2 - Flow output Excel files - working drafts\Data Output 08_31_2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jameson.newtson\Documents\GitHub\SD_County_LowFlow\2 - Flow output Excel files - working drafts\Data Output 09_15_2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9336" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Offsets" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="ESRI_MAPINFO_SHEET" sheetId="4" state="veryHidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Clips!$A$1:$F$497</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Offsets!$A$2:$H$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Clips!$A$1:$F$503</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Offsets!$A$1:$H$56</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="138">
   <si>
     <t>Site</t>
   </si>
@@ -420,13 +420,31 @@
     <t>Patching weir-pulled probe out</t>
   </si>
   <si>
-    <t>Weird red color 7/30</t>
-  </si>
-  <si>
-    <t>High flow 8/30 confirmed by game cam</t>
-  </si>
-  <si>
     <t>Large sustained flow 8/15 for about 8 hours, with increased TDS</t>
+  </si>
+  <si>
+    <t>A series of wet weather events in May. Two wet weather events in June. Data drop out from 7/26-7/30 due to battery failure. Last wet weather event 9/4.</t>
+  </si>
+  <si>
+    <t>A series of wet weather events in May. Two wet weather events in June.  Last wet weather event 9/4.</t>
+  </si>
+  <si>
+    <t>A series of wet weather events in May.  Last wet weather event 9/4. Data drop out between 7/28 and 7/30 due to battery failure.</t>
+  </si>
+  <si>
+    <t>A series of wet weather events in May.  Last wet weather event 9/4. Added overall offset -0.2" to entire data set.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Faulty probe replaced 6/17/19.High flow 8/30 confirmed by game cam. A series of wet weather events in May.  Last wet weather event 9/4. Data drop outs 8/1-8/5 due to battery failure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A series of wet weather events in May.  Data drop out 6/13 due to logging error. Data drop out 6/21-6/25 due to battery failure. </t>
+  </si>
+  <si>
+    <t>A series of wet weather events in May.  Data drop out 6/13 due to logging error. Data drop out 6/21-6/25 due to battery failure. Probe replaced 6/17</t>
+  </si>
+  <si>
+    <t>Weird red color 7/30. A series of wet weather events in May. Confirmed pool overflow 6/13-6/21 and 7/20-7/22. Field staff noted on 7/31 that SLR-045 level was lower than SLR-045A. Field staff suspected leak and added extra morter around weir seam. From 7/28 on, consistent negative level periods in raw data. Data processing team suspects a leak in the conveyance between SLR-045A and SLR-045B.</t>
   </si>
 </sst>
 </file>
@@ -939,24 +957,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H55"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -982,7 +1001,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
@@ -1006,7 +1025,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1030,7 +1049,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -1051,7 +1070,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1074,7 +1093,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1097,7 +1116,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1120,7 +1139,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1143,7 +1162,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -1160,7 +1179,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -1179,7 +1198,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -1203,7 +1222,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -1229,7 +1248,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
@@ -1243,7 +1262,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -1269,7 +1288,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>31</v>
       </c>
@@ -1290,7 +1309,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1316,7 +1335,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>49</v>
       </c>
@@ -1330,7 +1349,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
@@ -1344,7 +1363,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>50</v>
       </c>
@@ -1363,7 +1382,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>8</v>
       </c>
@@ -1386,7 +1405,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1409,7 +1428,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>9</v>
       </c>
@@ -1432,7 +1451,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>9</v>
       </c>
@@ -1453,7 +1472,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>10</v>
       </c>
@@ -1472,7 +1491,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>11</v>
       </c>
@@ -1486,7 +1505,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>12</v>
       </c>
@@ -1506,7 +1525,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>40</v>
       </c>
@@ -1520,7 +1539,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>41</v>
       </c>
@@ -1531,7 +1550,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>13</v>
       </c>
@@ -1554,7 +1573,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>27</v>
       </c>
@@ -1573,7 +1592,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>14</v>
       </c>
@@ -1587,7 +1606,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>15</v>
       </c>
@@ -1601,7 +1620,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>16</v>
       </c>
@@ -1620,7 +1639,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>32</v>
       </c>
@@ -1634,7 +1653,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>17</v>
       </c>
@@ -1645,7 +1664,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>33</v>
       </c>
@@ -1659,7 +1678,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>34</v>
       </c>
@@ -1673,7 +1692,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>35</v>
       </c>
@@ -1684,7 +1703,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>36</v>
       </c>
@@ -1695,7 +1714,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>37</v>
       </c>
@@ -1714,7 +1733,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>38</v>
       </c>
@@ -1728,7 +1747,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>39</v>
       </c>
@@ -1742,7 +1761,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>44</v>
       </c>
@@ -1763,7 +1782,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>45</v>
       </c>
@@ -1786,7 +1805,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>45</v>
       </c>
@@ -1805,7 +1824,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>45</v>
       </c>
@@ -1828,7 +1847,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>46</v>
       </c>
@@ -1846,7 +1865,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>18</v>
       </c>
@@ -1869,7 +1888,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
         <v>18</v>
       </c>
@@ -1892,7 +1911,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>26</v>
       </c>
@@ -1913,7 +1932,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>26</v>
       </c>
@@ -1934,23 +1953,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
-        <v>26</v>
-      </c>
+    <row r="52" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
-      <c r="E52" s="18">
-        <v>0.25</v>
-      </c>
-      <c r="F52" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="18"/>
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>19</v>
       </c>
@@ -1964,7 +1973,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>20</v>
       </c>
@@ -1978,7 +1987,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>25</v>
       </c>
@@ -1997,7 +2006,28 @@
         <v>65</v>
       </c>
     </row>
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56">
+        <v>-0.2</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H56" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:H56">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="SLR-045"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A1:H54">
     <sortCondition ref="A1:A54"/>
     <sortCondition ref="B1:B54"/>
@@ -2009,22 +2039,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F499"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F503"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A217" sqref="A217:XFD218"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E423" sqref="E423"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.6640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="56.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2044,7 +2075,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -2062,7 +2093,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2079,7 +2110,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -2097,7 +2128,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2114,7 +2145,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -2132,7 +2163,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -2150,7 +2181,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
@@ -2168,7 +2199,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
@@ -2186,7 +2217,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -2204,7 +2235,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -2224,7 +2255,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -2242,7 +2273,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
@@ -2259,7 +2290,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
@@ -2276,7 +2307,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
@@ -2293,7 +2324,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
@@ -2310,7 +2341,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
@@ -2327,7 +2358,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
@@ -2344,7 +2375,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
@@ -2362,7 +2393,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
@@ -2380,7 +2411,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
@@ -2398,7 +2429,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
@@ -2416,7 +2447,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
@@ -2433,7 +2464,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
@@ -2450,7 +2481,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>5</v>
       </c>
@@ -2467,7 +2498,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -2484,7 +2515,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
@@ -2501,7 +2532,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -2519,7 +2550,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
@@ -2539,7 +2570,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -2559,7 +2590,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
@@ -2579,7 +2610,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>29</v>
       </c>
@@ -2599,7 +2630,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>29</v>
       </c>
@@ -2616,7 +2647,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>29</v>
       </c>
@@ -2633,7 +2664,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>29</v>
       </c>
@@ -2650,7 +2681,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
@@ -2667,7 +2698,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>29</v>
       </c>
@@ -2684,7 +2715,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>24</v>
       </c>
@@ -2704,7 +2735,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>24</v>
       </c>
@@ -2724,7 +2755,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>24</v>
       </c>
@@ -2744,7 +2775,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>24</v>
       </c>
@@ -2764,7 +2795,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>24</v>
       </c>
@@ -2781,7 +2812,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>24</v>
       </c>
@@ -2798,7 +2829,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>24</v>
       </c>
@@ -2815,7 +2846,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>24</v>
       </c>
@@ -2832,7 +2863,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>24</v>
       </c>
@@ -2849,7 +2880,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>6</v>
       </c>
@@ -2866,7 +2897,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>6</v>
       </c>
@@ -2883,7 +2914,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>6</v>
       </c>
@@ -2900,7 +2931,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>6</v>
       </c>
@@ -2917,7 +2948,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>6</v>
       </c>
@@ -2934,7 +2965,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>6</v>
       </c>
@@ -2951,7 +2982,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>6</v>
       </c>
@@ -2968,7 +2999,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>6</v>
       </c>
@@ -2985,7 +3016,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>6</v>
       </c>
@@ -3002,7 +3033,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>6</v>
       </c>
@@ -3019,7 +3050,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>7</v>
       </c>
@@ -3036,7 +3067,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>7</v>
       </c>
@@ -3053,7 +3084,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>7</v>
       </c>
@@ -3070,7 +3101,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>7</v>
       </c>
@@ -3087,7 +3118,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>7</v>
       </c>
@@ -3104,7 +3135,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>7</v>
       </c>
@@ -3121,7 +3152,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>7</v>
       </c>
@@ -3138,7 +3169,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>7</v>
       </c>
@@ -3155,7 +3186,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>7</v>
       </c>
@@ -3172,7 +3203,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>7</v>
       </c>
@@ -3189,7 +3220,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>7</v>
       </c>
@@ -3206,7 +3237,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>7</v>
       </c>
@@ -3223,7 +3254,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>7</v>
       </c>
@@ -3240,7 +3271,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>7</v>
       </c>
@@ -3257,7 +3288,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>7</v>
       </c>
@@ -3274,7 +3305,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>7</v>
       </c>
@@ -3291,7 +3322,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>7</v>
       </c>
@@ -3308,7 +3339,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>7</v>
       </c>
@@ -3325,7 +3356,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="26" t="s">
         <v>7</v>
       </c>
@@ -3342,7 +3373,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="26" t="s">
         <v>7</v>
       </c>
@@ -3359,7 +3390,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>7</v>
       </c>
@@ -3376,7 +3407,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>7</v>
       </c>
@@ -3393,7 +3424,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>7</v>
       </c>
@@ -3410,7 +3441,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>7</v>
       </c>
@@ -3428,7 +3459,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="26" t="s">
         <v>7</v>
       </c>
@@ -3446,7 +3477,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="26" t="s">
         <v>7</v>
       </c>
@@ -3463,7 +3494,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>7</v>
       </c>
@@ -3480,7 +3511,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>7</v>
       </c>
@@ -3497,7 +3528,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>7</v>
       </c>
@@ -3514,7 +3545,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>7</v>
       </c>
@@ -3531,7 +3562,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>7</v>
       </c>
@@ -3548,7 +3579,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
         <v>7</v>
       </c>
@@ -3565,7 +3596,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
         <v>7</v>
       </c>
@@ -3582,7 +3613,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>7</v>
       </c>
@@ -3599,7 +3630,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>7</v>
       </c>
@@ -3616,7 +3647,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>7</v>
       </c>
@@ -3633,7 +3664,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>7</v>
       </c>
@@ -3650,7 +3681,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
         <v>7</v>
       </c>
@@ -3668,7 +3699,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
         <v>7</v>
       </c>
@@ -3686,7 +3717,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>7</v>
       </c>
@@ -3704,7 +3735,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>7</v>
       </c>
@@ -3722,7 +3753,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>7</v>
       </c>
@@ -3740,7 +3771,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>7</v>
       </c>
@@ -3758,7 +3789,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="26" t="s">
         <v>7</v>
       </c>
@@ -3776,7 +3807,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="26" t="s">
         <v>7</v>
       </c>
@@ -3794,7 +3825,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>7</v>
       </c>
@@ -3811,7 +3842,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>7</v>
       </c>
@@ -3828,7 +3859,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="26" t="s">
         <v>7</v>
       </c>
@@ -3845,7 +3876,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="26" t="s">
         <v>7</v>
       </c>
@@ -3862,7 +3893,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>7</v>
       </c>
@@ -3879,7 +3910,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>7</v>
       </c>
@@ -3896,7 +3927,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="108" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="26" t="s">
         <v>7</v>
       </c>
@@ -3913,7 +3944,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="26" t="s">
         <v>7</v>
       </c>
@@ -3930,7 +3961,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>7</v>
       </c>
@@ -3947,7 +3978,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="111" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>7</v>
       </c>
@@ -3964,7 +3995,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>7</v>
       </c>
@@ -3981,7 +4012,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="113" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>7</v>
       </c>
@@ -3998,7 +4029,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="114" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>7</v>
       </c>
@@ -4015,7 +4046,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="115" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>7</v>
       </c>
@@ -4032,7 +4063,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="116" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>28</v>
       </c>
@@ -4052,7 +4083,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="117" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>28</v>
       </c>
@@ -4072,7 +4103,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="118" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>28</v>
       </c>
@@ -4092,7 +4123,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="119" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>28</v>
       </c>
@@ -4112,7 +4143,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="120" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>28</v>
       </c>
@@ -4132,7 +4163,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="121" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>28</v>
       </c>
@@ -4149,7 +4180,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>28</v>
       </c>
@@ -4166,7 +4197,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>28</v>
       </c>
@@ -4186,7 +4217,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>28</v>
       </c>
@@ -4203,7 +4234,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>28</v>
       </c>
@@ -4220,7 +4251,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>28</v>
       </c>
@@ -4237,7 +4268,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>28</v>
       </c>
@@ -4254,7 +4285,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>28</v>
       </c>
@@ -4271,7 +4302,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>28</v>
       </c>
@@ -4288,7 +4319,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>28</v>
       </c>
@@ -4305,7 +4336,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>28</v>
       </c>
@@ -4322,7 +4353,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>28</v>
       </c>
@@ -4339,7 +4370,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="133" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>28</v>
       </c>
@@ -4356,7 +4387,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>28</v>
       </c>
@@ -4374,7 +4405,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>28</v>
       </c>
@@ -4391,7 +4422,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>28</v>
       </c>
@@ -4408,7 +4439,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>31</v>
       </c>
@@ -4426,7 +4457,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>31</v>
       </c>
@@ -4446,7 +4477,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>31</v>
       </c>
@@ -4464,7 +4495,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>31</v>
       </c>
@@ -4482,7 +4513,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="141" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>31</v>
       </c>
@@ -4499,7 +4530,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>31</v>
       </c>
@@ -4519,7 +4550,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>31</v>
       </c>
@@ -4536,7 +4567,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>49</v>
       </c>
@@ -4553,7 +4584,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>49</v>
       </c>
@@ -4570,7 +4601,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>49</v>
       </c>
@@ -4587,7 +4618,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="147" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>49</v>
       </c>
@@ -4604,7 +4635,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="148" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>49</v>
       </c>
@@ -4621,7 +4652,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="149" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>49</v>
       </c>
@@ -4638,7 +4669,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>49</v>
       </c>
@@ -4655,7 +4686,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>49</v>
       </c>
@@ -4672,7 +4703,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>49</v>
       </c>
@@ -4689,7 +4720,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>49</v>
       </c>
@@ -4706,7 +4737,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>49</v>
       </c>
@@ -4723,7 +4754,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>49</v>
       </c>
@@ -4740,7 +4771,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>49</v>
       </c>
@@ -4757,7 +4788,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>49</v>
       </c>
@@ -4774,7 +4805,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>49</v>
       </c>
@@ -4791,7 +4822,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>49</v>
       </c>
@@ -4808,7 +4839,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="160" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>42</v>
       </c>
@@ -4828,7 +4859,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="161" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>42</v>
       </c>
@@ -4848,7 +4879,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="162" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>42</v>
       </c>
@@ -4868,7 +4899,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="163" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>42</v>
       </c>
@@ -4885,7 +4916,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="164" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>42</v>
       </c>
@@ -4902,7 +4933,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="165" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>42</v>
       </c>
@@ -4919,7 +4950,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="166" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>42</v>
       </c>
@@ -4936,7 +4967,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="167" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>42</v>
       </c>
@@ -4953,7 +4984,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="168" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>50</v>
       </c>
@@ -4973,7 +5004,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="169" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>50</v>
       </c>
@@ -4990,7 +5021,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="170" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>50</v>
       </c>
@@ -5007,7 +5038,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="171" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>50</v>
       </c>
@@ -5024,7 +5055,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="172" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>50</v>
       </c>
@@ -5041,7 +5072,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="173" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>50</v>
       </c>
@@ -5058,7 +5089,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>50</v>
       </c>
@@ -5075,7 +5106,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>50</v>
       </c>
@@ -5092,7 +5123,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>50</v>
       </c>
@@ -5109,7 +5140,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>50</v>
       </c>
@@ -5126,7 +5157,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>50</v>
       </c>
@@ -5143,7 +5174,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>50</v>
       </c>
@@ -5160,7 +5191,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>50</v>
       </c>
@@ -5177,7 +5208,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>50</v>
       </c>
@@ -5194,7 +5225,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>50</v>
       </c>
@@ -5211,7 +5242,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>50</v>
       </c>
@@ -5228,7 +5259,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>50</v>
       </c>
@@ -5245,7 +5276,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>50</v>
       </c>
@@ -5263,7 +5294,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>50</v>
       </c>
@@ -5281,7 +5312,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>50</v>
       </c>
@@ -5299,7 +5330,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>50</v>
       </c>
@@ -5317,7 +5348,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>50</v>
       </c>
@@ -5335,7 +5366,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>50</v>
       </c>
@@ -5353,7 +5384,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>50</v>
       </c>
@@ -5371,7 +5402,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>8</v>
       </c>
@@ -5389,7 +5420,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>8</v>
       </c>
@@ -5407,7 +5438,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="194" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>8</v>
       </c>
@@ -5424,7 +5455,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="195" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>8</v>
       </c>
@@ -5441,7 +5472,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="196" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>8</v>
       </c>
@@ -5458,7 +5489,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="197" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>8</v>
       </c>
@@ -5475,7 +5506,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="198" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>8</v>
       </c>
@@ -5492,7 +5523,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="199" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>8</v>
       </c>
@@ -5509,7 +5540,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="200" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>8</v>
       </c>
@@ -5526,7 +5557,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="201" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>8</v>
       </c>
@@ -5543,7 +5574,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="202" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>8</v>
       </c>
@@ -5560,7 +5591,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="203" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>8</v>
       </c>
@@ -5577,7 +5608,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="204" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>9</v>
       </c>
@@ -5594,7 +5625,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="205" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>9</v>
       </c>
@@ -5611,7 +5642,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="206" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>9</v>
       </c>
@@ -5628,7 +5659,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="207" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>9</v>
       </c>
@@ -5645,7 +5676,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="208" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>9</v>
       </c>
@@ -5662,7 +5693,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="209" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>9</v>
       </c>
@@ -5679,7 +5710,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="210" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>9</v>
       </c>
@@ -5696,7 +5727,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="211" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>9</v>
       </c>
@@ -5713,7 +5744,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="212" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>9</v>
       </c>
@@ -5730,7 +5761,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="213" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>9</v>
       </c>
@@ -5747,7 +5778,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="214" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>9</v>
       </c>
@@ -5764,7 +5795,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="215" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>9</v>
       </c>
@@ -5781,7 +5812,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="216" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>9</v>
       </c>
@@ -5798,7 +5829,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="217" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>10</v>
       </c>
@@ -5815,7 +5846,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="218" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>10</v>
       </c>
@@ -5832,7 +5863,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="219" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>10</v>
       </c>
@@ -5849,7 +5880,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="220" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>10</v>
       </c>
@@ -5866,7 +5897,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="221" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>10</v>
       </c>
@@ -5883,7 +5914,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="222" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>10</v>
       </c>
@@ -5900,7 +5931,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="223" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>10</v>
       </c>
@@ -5917,7 +5948,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="224" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>10</v>
       </c>
@@ -5934,7 +5965,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="225" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>10</v>
       </c>
@@ -5951,7 +5982,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="226" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>10</v>
       </c>
@@ -5968,7 +5999,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="227" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>11</v>
       </c>
@@ -5985,7 +6016,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="228" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>11</v>
       </c>
@@ -6002,7 +6033,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="229" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>11</v>
       </c>
@@ -6019,7 +6050,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="230" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>11</v>
       </c>
@@ -6036,7 +6067,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="231" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>11</v>
       </c>
@@ -6053,7 +6084,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="232" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>11</v>
       </c>
@@ -6070,7 +6101,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="233" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>11</v>
       </c>
@@ -6087,7 +6118,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="234" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>11</v>
       </c>
@@ -6104,7 +6135,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="235" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>12</v>
       </c>
@@ -6121,7 +6152,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="236" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>12</v>
       </c>
@@ -6138,7 +6169,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="237" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>12</v>
       </c>
@@ -6155,7 +6186,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="238" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>12</v>
       </c>
@@ -6172,7 +6203,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="239" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>12</v>
       </c>
@@ -6189,7 +6220,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="240" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>12</v>
       </c>
@@ -6206,7 +6237,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="241" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>12</v>
       </c>
@@ -6223,7 +6254,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="242" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>12</v>
       </c>
@@ -6240,7 +6271,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="243" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>12</v>
       </c>
@@ -6257,7 +6288,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="244" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>12</v>
       </c>
@@ -6274,7 +6305,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="245" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>40</v>
       </c>
@@ -6291,7 +6322,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="246" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>40</v>
       </c>
@@ -6308,7 +6339,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="247" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>40</v>
       </c>
@@ -6325,7 +6356,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="248" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>40</v>
       </c>
@@ -6342,7 +6373,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="249" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>40</v>
       </c>
@@ -6359,7 +6390,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="250" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>40</v>
       </c>
@@ -6376,7 +6407,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="251" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>40</v>
       </c>
@@ -6393,7 +6424,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="252" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>40</v>
       </c>
@@ -6410,7 +6441,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="253" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>40</v>
       </c>
@@ -6427,7 +6458,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="254" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>40</v>
       </c>
@@ -6444,7 +6475,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="255" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>41</v>
       </c>
@@ -6461,7 +6492,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="256" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>41</v>
       </c>
@@ -6478,7 +6509,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="257" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>41</v>
       </c>
@@ -6495,7 +6526,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="258" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>41</v>
       </c>
@@ -6512,7 +6543,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>41</v>
       </c>
@@ -6530,7 +6561,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>41</v>
       </c>
@@ -6548,7 +6579,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>41</v>
       </c>
@@ -6566,7 +6597,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>41</v>
       </c>
@@ -6584,7 +6615,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>41</v>
       </c>
@@ -6602,7 +6633,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>41</v>
       </c>
@@ -6620,7 +6651,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>13</v>
       </c>
@@ -6638,7 +6669,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>13</v>
       </c>
@@ -6656,7 +6687,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>13</v>
       </c>
@@ -6674,7 +6705,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>13</v>
       </c>
@@ -6692,7 +6723,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>13</v>
       </c>
@@ -6710,7 +6741,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="270" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
         <v>13</v>
       </c>
@@ -6724,7 +6755,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="271" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
         <v>13</v>
       </c>
@@ -6738,7 +6769,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="272" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
         <v>13</v>
       </c>
@@ -6752,7 +6783,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="273" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
         <v>13</v>
       </c>
@@ -6766,7 +6797,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="274" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
         <v>13</v>
       </c>
@@ -6780,7 +6811,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>13</v>
       </c>
@@ -6798,7 +6829,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
         <v>13</v>
       </c>
@@ -6816,7 +6847,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
         <v>13</v>
       </c>
@@ -6834,7 +6865,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
         <v>13</v>
       </c>
@@ -6852,7 +6883,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="279" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
         <v>13</v>
       </c>
@@ -6869,7 +6900,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="280" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
         <v>13</v>
       </c>
@@ -6886,7 +6917,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="281" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
         <v>13</v>
       </c>
@@ -6903,7 +6934,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="282" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
         <v>13</v>
       </c>
@@ -6920,7 +6951,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="283" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
         <v>13</v>
       </c>
@@ -6937,7 +6968,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="284" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
         <v>13</v>
       </c>
@@ -6954,7 +6985,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>27</v>
       </c>
@@ -6972,7 +7003,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>27</v>
       </c>
@@ -6990,7 +7021,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>27</v>
       </c>
@@ -7008,7 +7039,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>27</v>
       </c>
@@ -7026,7 +7057,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>27</v>
       </c>
@@ -7044,7 +7075,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>27</v>
       </c>
@@ -7062,7 +7093,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>27</v>
       </c>
@@ -7080,7 +7111,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>27</v>
       </c>
@@ -7098,7 +7129,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>27</v>
       </c>
@@ -7116,7 +7147,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>27</v>
       </c>
@@ -7134,7 +7165,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>27</v>
       </c>
@@ -7152,7 +7183,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>14</v>
       </c>
@@ -7170,7 +7201,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>14</v>
       </c>
@@ -7188,7 +7219,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>14</v>
       </c>
@@ -7206,7 +7237,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>14</v>
       </c>
@@ -7224,7 +7255,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>14</v>
       </c>
@@ -7242,7 +7273,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>14</v>
       </c>
@@ -7260,7 +7291,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>14</v>
       </c>
@@ -7278,7 +7309,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>14</v>
       </c>
@@ -7296,7 +7327,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>14</v>
       </c>
@@ -7314,7 +7345,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>14</v>
       </c>
@@ -7332,7 +7363,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>15</v>
       </c>
@@ -7350,7 +7381,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>15</v>
       </c>
@@ -7368,7 +7399,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>15</v>
       </c>
@@ -7386,7 +7417,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>15</v>
       </c>
@@ -7404,7 +7435,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="310" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>15</v>
       </c>
@@ -7421,7 +7452,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="311" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>15</v>
       </c>
@@ -7438,7 +7469,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="312" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>15</v>
       </c>
@@ -7455,7 +7486,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="313" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>15</v>
       </c>
@@ -7472,7 +7503,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="314" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>15</v>
       </c>
@@ -7489,7 +7520,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="315" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>15</v>
       </c>
@@ -7506,7 +7537,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="316" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>15</v>
       </c>
@@ -7523,7 +7554,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>15</v>
       </c>
@@ -7541,7 +7572,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>15</v>
       </c>
@@ -7559,7 +7590,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>15</v>
       </c>
@@ -7577,7 +7608,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>15</v>
       </c>
@@ -7595,7 +7626,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
         <v>15</v>
       </c>
@@ -7613,7 +7644,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>15</v>
       </c>
@@ -7631,7 +7662,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>16</v>
       </c>
@@ -7649,7 +7680,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
         <v>16</v>
       </c>
@@ -7667,7 +7698,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>16</v>
       </c>
@@ -7685,7 +7716,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
         <v>16</v>
       </c>
@@ -7702,7 +7733,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
         <v>16</v>
       </c>
@@ -7719,7 +7750,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>16</v>
       </c>
@@ -7736,7 +7767,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>16</v>
       </c>
@@ -7753,7 +7784,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>16</v>
       </c>
@@ -7770,7 +7801,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>16</v>
       </c>
@@ -7787,7 +7818,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
         <v>16</v>
       </c>
@@ -7804,7 +7835,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
         <v>16</v>
       </c>
@@ -7821,7 +7852,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
         <v>16</v>
       </c>
@@ -7838,7 +7869,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>32</v>
       </c>
@@ -7855,7 +7886,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>32</v>
       </c>
@@ -7872,7 +7903,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>32</v>
       </c>
@@ -7889,7 +7920,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
         <v>32</v>
       </c>
@@ -7906,7 +7937,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>32</v>
       </c>
@@ -7923,7 +7954,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>32</v>
       </c>
@@ -7940,7 +7971,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="341" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="6" t="s">
         <v>17</v>
       </c>
@@ -7957,7 +7988,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="6" t="s">
         <v>17</v>
       </c>
@@ -7974,7 +8005,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="6" t="s">
         <v>17</v>
       </c>
@@ -7991,7 +8022,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="6" t="s">
         <v>17</v>
       </c>
@@ -8008,7 +8039,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="6" t="s">
         <v>17</v>
       </c>
@@ -8025,7 +8056,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="6" t="s">
         <v>17</v>
       </c>
@@ -8042,7 +8073,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="6" t="s">
         <v>17</v>
       </c>
@@ -8060,7 +8091,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="6" t="s">
         <v>17</v>
       </c>
@@ -8078,7 +8109,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="15" t="s">
         <v>33</v>
       </c>
@@ -8096,7 +8127,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="15" t="s">
         <v>33</v>
       </c>
@@ -8114,7 +8145,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="15" t="s">
         <v>33</v>
       </c>
@@ -8132,7 +8163,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="15" t="s">
         <v>33</v>
       </c>
@@ -8150,7 +8181,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="15" t="s">
         <v>33</v>
       </c>
@@ -8168,7 +8199,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="15" t="s">
         <v>33</v>
       </c>
@@ -8186,7 +8217,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
         <v>34</v>
       </c>
@@ -8204,7 +8235,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
         <v>34</v>
       </c>
@@ -8222,7 +8253,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
         <v>34</v>
       </c>
@@ -8240,7 +8271,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
         <v>34</v>
       </c>
@@ -8258,7 +8289,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
         <v>34</v>
       </c>
@@ -8276,7 +8307,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
         <v>34</v>
       </c>
@@ -8294,7 +8325,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
         <v>34</v>
       </c>
@@ -8312,7 +8343,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
         <v>34</v>
       </c>
@@ -8330,7 +8361,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
         <v>35</v>
       </c>
@@ -8348,7 +8379,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
         <v>35</v>
       </c>
@@ -8366,7 +8397,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
         <v>35</v>
       </c>
@@ -8384,7 +8415,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
         <v>35</v>
       </c>
@@ -8402,7 +8433,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
         <v>35</v>
       </c>
@@ -8420,7 +8451,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
         <v>35</v>
       </c>
@@ -8438,7 +8469,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
         <v>35</v>
       </c>
@@ -8456,7 +8487,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
         <v>35</v>
       </c>
@@ -8474,7 +8505,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
         <v>35</v>
       </c>
@@ -8492,7 +8523,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
         <v>36</v>
       </c>
@@ -8508,7 +8539,7 @@
       <c r="E372" s="6"/>
       <c r="F372" s="6"/>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
         <v>36</v>
       </c>
@@ -8524,7 +8555,7 @@
       <c r="E373" s="6"/>
       <c r="F373" s="6"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
         <v>36</v>
       </c>
@@ -8540,7 +8571,7 @@
       <c r="E374" s="6"/>
       <c r="F374" s="6"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
         <v>36</v>
       </c>
@@ -8556,7 +8587,7 @@
       <c r="E375" s="6"/>
       <c r="F375" s="6"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
         <v>36</v>
       </c>
@@ -8572,7 +8603,7 @@
       <c r="E376" s="6"/>
       <c r="F376" s="6"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
         <v>36</v>
       </c>
@@ -8588,7 +8619,7 @@
       <c r="E377" s="6"/>
       <c r="F377" s="6"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
         <v>36</v>
       </c>
@@ -8604,7 +8635,7 @@
       <c r="E378" s="6"/>
       <c r="F378" s="6"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
         <v>36</v>
       </c>
@@ -8620,7 +8651,7 @@
       <c r="E379" s="6"/>
       <c r="F379" s="6"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
         <v>36</v>
       </c>
@@ -8640,7 +8671,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
         <v>37</v>
       </c>
@@ -8658,7 +8689,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
         <v>37</v>
       </c>
@@ -8676,7 +8707,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
         <v>37</v>
       </c>
@@ -8694,7 +8725,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
         <v>37</v>
       </c>
@@ -8712,7 +8743,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
         <v>37</v>
       </c>
@@ -8730,7 +8761,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
         <v>37</v>
       </c>
@@ -8748,7 +8779,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
         <v>37</v>
       </c>
@@ -8766,7 +8797,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
         <v>37</v>
       </c>
@@ -8784,7 +8815,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
         <v>38</v>
       </c>
@@ -8802,7 +8833,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
         <v>38</v>
       </c>
@@ -8820,7 +8851,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
         <v>38</v>
       </c>
@@ -8838,7 +8869,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
         <v>38</v>
       </c>
@@ -8856,7 +8887,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
         <v>38</v>
       </c>
@@ -8874,7 +8905,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
         <v>38</v>
       </c>
@@ -8892,7 +8923,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
         <v>38</v>
       </c>
@@ -8912,7 +8943,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
         <v>39</v>
       </c>
@@ -8930,7 +8961,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
         <v>39</v>
       </c>
@@ -8948,7 +8979,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
         <v>39</v>
       </c>
@@ -8966,7 +8997,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
         <v>39</v>
       </c>
@@ -8984,7 +9015,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
         <v>39</v>
       </c>
@@ -9002,7 +9033,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
         <v>44</v>
       </c>
@@ -9020,7 +9051,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
         <v>44</v>
       </c>
@@ -9038,7 +9069,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
         <v>44</v>
       </c>
@@ -9056,7 +9087,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
         <v>44</v>
       </c>
@@ -9076,7 +9107,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
         <v>44</v>
       </c>
@@ -9094,7 +9125,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
         <v>44</v>
       </c>
@@ -9112,7 +9143,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
         <v>44</v>
       </c>
@@ -9130,7 +9161,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
         <v>44</v>
       </c>
@@ -9148,7 +9179,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
         <v>44</v>
       </c>
@@ -9166,7 +9197,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="7" t="s">
         <v>44</v>
       </c>
@@ -9184,7 +9215,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="411" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A411" s="7" t="s">
         <v>44</v>
       </c>
@@ -9201,7 +9232,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="412" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A412" s="7" t="s">
         <v>44</v>
       </c>
@@ -9218,7 +9249,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
         <v>45</v>
       </c>
@@ -9238,7 +9269,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
         <v>45</v>
       </c>
@@ -9256,7 +9287,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
         <v>45</v>
       </c>
@@ -9274,7 +9305,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
         <v>45</v>
       </c>
@@ -9292,7 +9323,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
         <v>45</v>
       </c>
@@ -9310,7 +9341,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
         <v>45</v>
       </c>
@@ -9328,7 +9359,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
         <v>45</v>
       </c>
@@ -9346,7 +9377,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
         <v>45</v>
       </c>
@@ -9364,7 +9395,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
         <v>45</v>
       </c>
@@ -9382,7 +9413,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
         <v>45</v>
       </c>
@@ -9400,7 +9431,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
         <v>45</v>
       </c>
@@ -9420,7 +9451,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
         <v>45</v>
       </c>
@@ -9438,7 +9469,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
         <v>45</v>
       </c>
@@ -9456,7 +9487,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="7" t="s">
         <v>45</v>
       </c>
@@ -9474,7 +9505,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
         <v>46</v>
       </c>
@@ -9492,7 +9523,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="3" t="s">
         <v>46</v>
       </c>
@@ -9510,7 +9541,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="3" t="s">
         <v>46</v>
       </c>
@@ -9528,7 +9559,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
         <v>46</v>
       </c>
@@ -9546,7 +9577,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="3" t="s">
         <v>46</v>
       </c>
@@ -9564,7 +9595,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="3" t="s">
         <v>46</v>
       </c>
@@ -9582,7 +9613,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="3" t="s">
         <v>46</v>
       </c>
@@ -9597,7 +9628,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="35" t="s">
         <v>18</v>
       </c>
@@ -9615,7 +9646,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="35" t="s">
         <v>18</v>
       </c>
@@ -9633,7 +9664,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="35" t="s">
         <v>18</v>
       </c>
@@ -9651,7 +9682,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="35" t="s">
         <v>18</v>
       </c>
@@ -9669,7 +9700,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="35" t="s">
         <v>18</v>
       </c>
@@ -9687,7 +9718,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="35" t="s">
         <v>18</v>
       </c>
@@ -9705,7 +9736,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="35" t="s">
         <v>18</v>
       </c>
@@ -9723,7 +9754,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="35" t="s">
         <v>18</v>
       </c>
@@ -9741,7 +9772,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="35" t="s">
         <v>18</v>
       </c>
@@ -9759,7 +9790,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="32" t="s">
         <v>18</v>
       </c>
@@ -9777,7 +9808,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="444" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="32" t="s">
         <v>18</v>
       </c>
@@ -9791,7 +9822,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="6" t="s">
         <v>26</v>
       </c>
@@ -9809,7 +9840,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="6" t="s">
         <v>26</v>
       </c>
@@ -9827,7 +9858,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="6" t="s">
         <v>26</v>
       </c>
@@ -9845,7 +9876,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="3" t="s">
         <v>26</v>
       </c>
@@ -9863,7 +9894,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="3" t="s">
         <v>26</v>
       </c>
@@ -9881,7 +9912,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
         <v>26</v>
       </c>
@@ -9899,7 +9930,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
         <v>26</v>
       </c>
@@ -9917,7 +9948,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
         <v>26</v>
       </c>
@@ -9935,7 +9966,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
         <v>26</v>
       </c>
@@ -9953,7 +9984,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="6" t="s">
         <v>19</v>
       </c>
@@ -9971,7 +10002,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="6" t="s">
         <v>19</v>
       </c>
@@ -9989,7 +10020,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="6" t="s">
         <v>19</v>
       </c>
@@ -10007,7 +10038,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="6" t="s">
         <v>19</v>
       </c>
@@ -10025,7 +10056,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="6" t="s">
         <v>19</v>
       </c>
@@ -10043,7 +10074,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="6" t="s">
         <v>19</v>
       </c>
@@ -10061,7 +10092,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="6" t="s">
         <v>19</v>
       </c>
@@ -10079,7 +10110,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="6" t="s">
         <v>19</v>
       </c>
@@ -10097,151 +10128,55 @@
         <v>63</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A462" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B462" s="7">
-        <v>43652</v>
-      </c>
-      <c r="C462" s="7">
-        <v>43652.166666666664</v>
-      </c>
-      <c r="D462" s="6" t="s">
-        <v>78</v>
-      </c>
+    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A462" s="6"/>
+      <c r="D462" s="6"/>
       <c r="E462" s="6"/>
-      <c r="F462" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A463" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B463" s="7">
-        <v>43655.163194444445</v>
-      </c>
-      <c r="C463" s="7">
-        <v>43655.381944444445</v>
-      </c>
-      <c r="D463" s="6" t="s">
-        <v>78</v>
-      </c>
+      <c r="F462" s="6"/>
+    </row>
+    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A463" s="6"/>
+      <c r="D463" s="6"/>
       <c r="E463" s="6"/>
-      <c r="F463" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A464" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B464" s="7">
-        <v>43656.013888888891</v>
-      </c>
-      <c r="C464" s="7">
-        <v>43656.180555555555</v>
-      </c>
-      <c r="D464" s="6" t="s">
-        <v>78</v>
-      </c>
+      <c r="F463" s="6"/>
+    </row>
+    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A464" s="6"/>
+      <c r="D464" s="6"/>
       <c r="E464" s="6"/>
-      <c r="F464" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A465" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B465" s="7">
-        <v>43657.006944444445</v>
-      </c>
-      <c r="C465" s="7">
-        <v>43657.173611111109</v>
-      </c>
-      <c r="D465" s="6" t="s">
-        <v>78</v>
-      </c>
+      <c r="F464" s="6"/>
+    </row>
+    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A465" s="6"/>
+      <c r="D465" s="6"/>
       <c r="E465" s="6"/>
-      <c r="F465" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A466" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B466" s="7">
-        <v>43660.006944444445</v>
-      </c>
-      <c r="C466" s="7">
-        <v>43660.173611111109</v>
-      </c>
-      <c r="D466" s="6" t="s">
-        <v>78</v>
-      </c>
+      <c r="F465" s="6"/>
+    </row>
+    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A466" s="6"/>
+      <c r="D466" s="6"/>
       <c r="E466" s="6"/>
-      <c r="F466" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A467" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B467" s="7">
-        <v>43663</v>
-      </c>
-      <c r="C467" s="7">
-        <v>43663.166666666664</v>
-      </c>
-      <c r="D467" s="6" t="s">
-        <v>78</v>
-      </c>
+      <c r="F466" s="6"/>
+    </row>
+    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A467" s="6"/>
+      <c r="D467" s="6"/>
       <c r="E467" s="6"/>
-      <c r="F467" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A468" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B468" s="7">
-        <v>43666.013888888891</v>
-      </c>
-      <c r="C468" s="7">
-        <v>43666.180555555555</v>
-      </c>
-      <c r="D468" s="6" t="s">
-        <v>78</v>
-      </c>
+      <c r="F467" s="6"/>
+    </row>
+    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A468" s="6"/>
+      <c r="D468" s="6"/>
       <c r="E468" s="6"/>
-      <c r="F468" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A469" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B469" s="7">
-        <v>43668.229166666664</v>
-      </c>
-      <c r="C469" s="7">
-        <v>43668.388888888891</v>
-      </c>
-      <c r="D469" s="6" t="s">
-        <v>78</v>
-      </c>
+      <c r="F468" s="6"/>
+    </row>
+    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A469" s="6"/>
+      <c r="D469" s="6"/>
       <c r="E469" s="6"/>
-      <c r="F469" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F469" s="6"/>
+    </row>
+    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="6" t="s">
         <v>20</v>
       </c>
@@ -10259,7 +10194,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="6" t="s">
         <v>20</v>
       </c>
@@ -10277,7 +10212,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="6" t="s">
         <v>20</v>
       </c>
@@ -10295,7 +10230,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="6" t="s">
         <v>20</v>
       </c>
@@ -10313,7 +10248,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="6" t="s">
         <v>20</v>
       </c>
@@ -10331,7 +10266,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="6" t="s">
         <v>20</v>
       </c>
@@ -10349,7 +10284,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="6" t="s">
         <v>20</v>
       </c>
@@ -10367,7 +10302,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="6" t="s">
         <v>20</v>
       </c>
@@ -10385,7 +10320,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="6" t="s">
         <v>20</v>
       </c>
@@ -10403,7 +10338,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="6" t="s">
         <v>20</v>
       </c>
@@ -10421,7 +10356,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="6" t="s">
         <v>20</v>
       </c>
@@ -10439,7 +10374,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="6" t="s">
         <v>20</v>
       </c>
@@ -10457,7 +10392,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="6" t="s">
         <v>20</v>
       </c>
@@ -10475,7 +10410,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="6" t="s">
         <v>20</v>
       </c>
@@ -10493,7 +10428,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="6" t="s">
         <v>20</v>
       </c>
@@ -10511,7 +10446,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="6" t="s">
         <v>20</v>
       </c>
@@ -10529,7 +10464,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="6" t="s">
         <v>20</v>
       </c>
@@ -10547,7 +10482,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="6" t="s">
         <v>20</v>
       </c>
@@ -10565,7 +10500,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="6" t="s">
         <v>20</v>
       </c>
@@ -10583,7 +10518,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="6" t="s">
         <v>25</v>
       </c>
@@ -10601,7 +10536,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="6" t="s">
         <v>25</v>
       </c>
@@ -10619,7 +10554,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="6" t="s">
         <v>25</v>
       </c>
@@ -10636,7 +10571,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="6" t="s">
         <v>25</v>
       </c>
@@ -10653,7 +10588,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="6" t="s">
         <v>25</v>
       </c>
@@ -10670,7 +10605,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="6" t="s">
         <v>25</v>
       </c>
@@ -10687,7 +10622,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="6" t="s">
         <v>25</v>
       </c>
@@ -10705,7 +10640,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="6" t="s">
         <v>25</v>
       </c>
@@ -10723,7 +10658,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="6" t="s">
         <v>25</v>
       </c>
@@ -10741,7 +10676,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="6" t="s">
         <v>25</v>
       </c>
@@ -10759,7 +10694,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="6" t="s">
         <v>25</v>
       </c>
@@ -10777,7 +10712,83 @@
         <v>90</v>
       </c>
     </row>
+    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>25</v>
+      </c>
+      <c r="B500" s="7">
+        <v>43712.618055555555</v>
+      </c>
+      <c r="C500" s="7">
+        <v>43712.847222222219</v>
+      </c>
+      <c r="D500" t="s">
+        <v>47</v>
+      </c>
+      <c r="F500" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>20</v>
+      </c>
+      <c r="B501" s="7">
+        <v>43712.618055555555</v>
+      </c>
+      <c r="C501" s="7">
+        <v>43712.847222222219</v>
+      </c>
+      <c r="D501" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F501" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>19</v>
+      </c>
+      <c r="B502" s="7">
+        <v>43712.618055555555</v>
+      </c>
+      <c r="C502" s="7">
+        <v>43712.847222222219</v>
+      </c>
+      <c r="D502" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E502" s="6"/>
+      <c r="F502" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>26</v>
+      </c>
+      <c r="B503" s="7">
+        <v>43712.625</v>
+      </c>
+      <c r="C503" s="7">
+        <v>43712.673611111109</v>
+      </c>
+      <c r="D503" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F503" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:F503">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="SLR-045"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:F504">
     <sortCondition ref="A2:A504"/>
     <sortCondition ref="B2:B504"/>
@@ -10794,19 +10805,19 @@
   </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="90.88671875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="30"/>
+    <col min="1" max="1" width="14.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="90.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -10817,14 +10828,14 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
     </row>
-    <row r="3" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -10835,21 +10846,21 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
     </row>
-    <row r="6" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>6</v>
       </c>
@@ -10860,14 +10871,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
     </row>
-    <row r="8" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>28</v>
       </c>
@@ -10878,14 +10889,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
     </row>
-    <row r="10" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>49</v>
       </c>
@@ -10896,21 +10907,21 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
     </row>
-    <row r="12" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
     </row>
-    <row r="13" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>8</v>
       </c>
@@ -10921,18 +10932,18 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>10</v>
       </c>
@@ -10943,14 +10954,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
     </row>
-    <row r="17" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>12</v>
       </c>
@@ -10961,21 +10972,21 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
     </row>
-    <row r="19" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
     </row>
-    <row r="20" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>13</v>
       </c>
@@ -10986,156 +10997,184 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
     </row>
-    <row r="22" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
     </row>
-    <row r="23" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
     </row>
-    <row r="24" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
     </row>
-    <row r="25" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
     </row>
-    <row r="26" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
     </row>
-    <row r="27" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
     </row>
-    <row r="28" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
     </row>
-    <row r="29" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
     </row>
-    <row r="30" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
     </row>
-    <row r="31" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
     </row>
-    <row r="32" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
     </row>
-    <row r="33" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
     </row>
-    <row r="34" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="C34" s="29"/>
-    </row>
-    <row r="35" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-    </row>
-    <row r="36" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-    </row>
-    <row r="37" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="C37" s="29"/>
-    </row>
-    <row r="38" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-    </row>
-    <row r="39" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-    </row>
-    <row r="40" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-    </row>
-    <row r="41" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
+      <c r="B41" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:C41">
@@ -11152,7 +11191,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/2 - Flow output Excel files - working drafts/Data Output 09_15_2019/Offsets and Clip times 09_15_2019.xlsx
+++ b/2 - Flow output Excel files - working drafts/Data Output 09_15_2019/Offsets and Clip times 09_15_2019.xlsx
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Clips!$A$1:$F$503</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Offsets!$A$1:$H$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Offsets!$A$1:$H$58</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="143">
   <si>
     <t>Site</t>
   </si>
@@ -363,12 +363,6 @@
     <t>Appears to be bad data.</t>
   </si>
   <si>
-    <t>Debris</t>
-  </si>
-  <si>
-    <t>Removed since this raised flow was noticebly higher than surrounding high flows.</t>
-  </si>
-  <si>
     <t>Obstruction in weir-confirmed by gamecam</t>
   </si>
   <si>
@@ -445,6 +439,27 @@
   </si>
   <si>
     <t>Weird red color 7/30. A series of wet weather events in May. Confirmed pool overflow 6/13-6/21 and 7/20-7/22. Field staff noted on 7/31 that SLR-045 level was lower than SLR-045A. Field staff suspected leak and added extra morter around weir seam. From 7/28 on, consistent negative level periods in raw data. Data processing team suspects a leak in the conveyance between SLR-045A and SLR-045B.</t>
+  </si>
+  <si>
+    <t>Appears to have drifted after May ww events</t>
+  </si>
+  <si>
+    <t>Appears to have drifted after sept ww event</t>
+  </si>
+  <si>
+    <t>Jn</t>
+  </si>
+  <si>
+    <t>A series of wet weather events in May. Two wet weather events in June.  Last wet weather event 9/4. Applied offsets due to apparent drifting caused by May and September ww events</t>
+  </si>
+  <si>
+    <t>added on 9/15 deliverable</t>
+  </si>
+  <si>
+    <t>modified old clip by LD. Revision added added on 9/15 deliverable</t>
+  </si>
+  <si>
+    <t>A series of wet weather events in May and one in september. Several high flow events not assosiated with wet weather (5/13-5/14, 8/15, and 9/13). Applied 0.2" offset to entire data set to improve calibration.</t>
   </si>
 </sst>
 </file>
@@ -958,10 +973,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,7 +1013,7 @@
         <v>52</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -1242,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>63</v>
@@ -1733,18 +1748,21 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="6"/>
+      <c r="E41" s="18">
+        <v>0.2</v>
+      </c>
       <c r="F41" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -1761,7 +1779,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>44</v>
       </c>
@@ -2020,11 +2038,57 @@
         <v>65</v>
       </c>
     </row>
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="1">
+        <v>43612.197916666664</v>
+      </c>
+      <c r="C57" s="7">
+        <v>43712.701388888891</v>
+      </c>
+      <c r="D57">
+        <v>-0.3</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G57" t="s">
+        <v>136</v>
+      </c>
+      <c r="H57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="7">
+        <v>43712.704861111109</v>
+      </c>
+      <c r="C58" s="1">
+        <v>43723.996527777781</v>
+      </c>
+      <c r="D58">
+        <v>-0.6</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H58" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H56">
+  <autoFilter ref="A1:H58">
     <filterColumn colId="0">
       <filters>
-        <filter val="SLR-045"/>
+        <filter val="SDR-780"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2040,11 +2104,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F503"/>
+  <dimension ref="A1:F506"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E423" sqref="E423"/>
+      <selection pane="bottomLeft" activeCell="A391" sqref="A391:XFD391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2052,7 +2116,7 @@
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="25.7109375" style="7" customWidth="1"/>
     <col min="4" max="4" width="56.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="73" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2072,7 +2136,7 @@
         <v>52</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -2509,7 +2573,7 @@
         <v>43647.618055555555</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>63</v>
@@ -3010,7 +3074,7 @@
         <v>43707.704861111109</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>63</v>
@@ -6945,7 +7009,7 @@
         <v>43691.541666666664</v>
       </c>
       <c r="D282" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F282" s="6" t="s">
         <v>63</v>
@@ -8815,130 +8879,137 @@
         <v>90</v>
       </c>
     </row>
-    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B389" s="7">
-        <v>43594.114583333336</v>
+        <v>43593.857638888891</v>
       </c>
       <c r="C389" s="7">
-        <v>43594.291666666664</v>
+        <v>43594.041666666664</v>
       </c>
       <c r="D389" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E389" s="6"/>
+      <c r="E389" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="F389" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B390" s="7">
-        <v>43596.541666666664</v>
+        <v>43596.319444444445</v>
       </c>
       <c r="C390" s="7">
-        <v>43597.083333333336</v>
+        <v>43596.704861111109</v>
       </c>
       <c r="D390" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E390" s="6"/>
+      <c r="E390" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="F390" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B391" s="7">
-        <v>43633.333333333336</v>
-      </c>
-      <c r="C391" s="7">
-        <v>43633.833333333336</v>
-      </c>
-      <c r="D391" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E391" s="6"/>
-      <c r="F391" s="6" t="s">
+      <c r="B391" s="14">
+        <v>43641.416666666664</v>
+      </c>
+      <c r="C391" s="14">
+        <v>43641.427083333336</v>
+      </c>
+      <c r="D391" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F391" s="15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B392" s="7">
-        <v>43641.416666666664</v>
+        <v>43601.409722222219</v>
       </c>
       <c r="C392" s="7">
-        <v>43641.427083333336</v>
+        <v>43601.628472222219</v>
       </c>
       <c r="D392" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E392" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="E392" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="F392" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B393" s="7">
-        <v>43645</v>
+        <v>43604.416666666664</v>
       </c>
       <c r="C393" s="7">
-        <v>43645.1875</v>
+        <v>43605.694444444445</v>
       </c>
       <c r="D393" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E393" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="E393" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="F393" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B394" s="7">
-        <v>43645.229166666664</v>
+        <v>43607.180555555555</v>
       </c>
       <c r="C394" s="7">
-        <v>43645.395833333336</v>
+        <v>43608.427083333336</v>
       </c>
       <c r="D394" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E394" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="E394" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="F394" s="6" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B395" s="7">
-        <v>43660.770833333336</v>
+        <v>43591.583333333336</v>
       </c>
       <c r="C395" s="7">
-        <v>43661.513888888891</v>
+        <v>43592.041666666664</v>
       </c>
       <c r="D395" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E395" s="6" t="s">
-        <v>111</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E395" s="6"/>
       <c r="F395" s="6" t="s">
         <v>56</v>
       </c>
@@ -8948,10 +9019,10 @@
         <v>39</v>
       </c>
       <c r="B396" s="7">
-        <v>43591.583333333336</v>
+        <v>43592.427083333336</v>
       </c>
       <c r="C396" s="7">
-        <v>43592.041666666664</v>
+        <v>43593.125</v>
       </c>
       <c r="D396" s="6" t="s">
         <v>47</v>
@@ -8966,10 +9037,10 @@
         <v>39</v>
       </c>
       <c r="B397" s="7">
-        <v>43592.427083333336</v>
+        <v>43593.958333333336</v>
       </c>
       <c r="C397" s="7">
-        <v>43593.125</v>
+        <v>43594.375</v>
       </c>
       <c r="D397" s="6" t="s">
         <v>47</v>
@@ -8984,10 +9055,10 @@
         <v>39</v>
       </c>
       <c r="B398" s="7">
-        <v>43593.958333333336</v>
+        <v>43594.833333333336</v>
       </c>
       <c r="C398" s="7">
-        <v>43594.375</v>
+        <v>43595.3125</v>
       </c>
       <c r="D398" s="6" t="s">
         <v>47</v>
@@ -9002,10 +9073,10 @@
         <v>39</v>
       </c>
       <c r="B399" s="7">
-        <v>43594.833333333336</v>
+        <v>43596.541666666664</v>
       </c>
       <c r="C399" s="7">
-        <v>43595.3125</v>
+        <v>43597.291666666664</v>
       </c>
       <c r="D399" s="6" t="s">
         <v>47</v>
@@ -9017,49 +9088,49 @@
     </row>
     <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B400" s="7">
-        <v>43596.541666666664</v>
+        <v>43586</v>
       </c>
       <c r="C400" s="7">
-        <v>43597.291666666664</v>
+        <v>43586.847222222219</v>
       </c>
       <c r="D400" s="6" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="E400" s="6"/>
       <c r="F400" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B401" s="7">
-        <v>43586</v>
+        <v>43591.375</v>
       </c>
       <c r="C401" s="7">
-        <v>43586.847222222219</v>
+        <v>43591.458333333336</v>
       </c>
       <c r="D401" s="6" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="E401" s="6"/>
       <c r="F401" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B402" s="7">
-        <v>43591.375</v>
+        <v>43596.291666666664</v>
       </c>
       <c r="C402" s="7">
-        <v>43591.458333333336</v>
+        <v>43596.458333333336</v>
       </c>
       <c r="D402" s="6" t="s">
         <v>47</v>
@@ -9069,53 +9140,53 @@
         <v>63</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B403" s="7">
-        <v>43596.291666666664</v>
+        <v>43601.333333333336</v>
       </c>
       <c r="C403" s="7">
-        <v>43596.458333333336</v>
+        <v>43601.583333333336</v>
       </c>
       <c r="D403" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E403" s="6"/>
+      <c r="E403" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F403" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B404" s="7">
-        <v>43601.333333333336</v>
+        <v>43604.291666666664</v>
       </c>
       <c r="C404" s="7">
-        <v>43601.583333333336</v>
+        <v>43605.583333333336</v>
       </c>
       <c r="D404" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E404" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="E404" s="6"/>
       <c r="F404" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B405" s="7">
-        <v>43604.291666666664</v>
+        <v>43607.25</v>
       </c>
       <c r="C405" s="7">
-        <v>43605.583333333336</v>
+        <v>43607.541666666664</v>
       </c>
       <c r="D405" s="6" t="s">
         <v>47</v>
@@ -9125,15 +9196,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B406" s="7">
-        <v>43607.25</v>
+        <v>43611.291666666664</v>
       </c>
       <c r="C406" s="7">
-        <v>43607.541666666664</v>
+        <v>43613</v>
       </c>
       <c r="D406" s="6" t="s">
         <v>47</v>
@@ -9143,33 +9214,33 @@
         <v>63</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B407" s="7">
-        <v>43611.291666666664</v>
+        <v>43633.166666666664</v>
       </c>
       <c r="C407" s="7">
-        <v>43613</v>
+        <v>43633.458333333336</v>
       </c>
       <c r="D407" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E407" s="6"/>
       <c r="F407" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B408" s="7">
-        <v>43633.166666666664</v>
+        <v>43637.270833333336</v>
       </c>
       <c r="C408" s="7">
-        <v>43633.458333333336</v>
+        <v>43637.416666666664</v>
       </c>
       <c r="D408" s="6" t="s">
         <v>47</v>
@@ -9179,71 +9250,73 @@
         <v>90</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A409" s="3" t="s">
+    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A409" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B409" s="7">
-        <v>43637.270833333336</v>
+        <v>43654.288194444445</v>
       </c>
       <c r="C409" s="7">
-        <v>43637.416666666664</v>
+        <v>43654.788194444445</v>
       </c>
       <c r="D409" s="6" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="E409" s="6"/>
       <c r="F409" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B410" s="7">
-        <v>43654.288194444445</v>
+        <v>43691.427083333336</v>
       </c>
       <c r="C410" s="7">
-        <v>43654.788194444445</v>
+        <v>43692.385416666664</v>
       </c>
       <c r="D410" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E410" s="6"/>
+        <v>126</v>
+      </c>
       <c r="F410" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="411" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B411" s="7">
-        <v>43691.427083333336</v>
+        <v>43684.361111111109</v>
       </c>
       <c r="C411" s="7">
-        <v>43692.385416666664</v>
+        <v>43685.361111111109</v>
       </c>
       <c r="D411" s="6" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="F411" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="412" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A412" s="7" t="s">
-        <v>44</v>
+    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B412" s="7">
-        <v>43684.361111111109</v>
+        <v>43586</v>
       </c>
       <c r="C412" s="7">
-        <v>43685.361111111109</v>
+        <v>43586.572916666664</v>
       </c>
       <c r="D412" s="6" t="s">
-        <v>112</v>
+        <v>86</v>
+      </c>
+      <c r="E412" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="F412" s="6" t="s">
         <v>63</v>
@@ -9254,17 +9327,15 @@
         <v>45</v>
       </c>
       <c r="B413" s="7">
-        <v>43586</v>
+        <v>43591.375</v>
       </c>
       <c r="C413" s="7">
-        <v>43586.572916666664</v>
+        <v>43591.458333333336</v>
       </c>
       <c r="D413" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E413" s="6" t="s">
-        <v>51</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E413" s="6"/>
       <c r="F413" s="6" t="s">
         <v>63</v>
       </c>
@@ -9274,13 +9345,13 @@
         <v>45</v>
       </c>
       <c r="B414" s="7">
-        <v>43591.375</v>
+        <v>43594.875</v>
       </c>
       <c r="C414" s="7">
-        <v>43591.458333333336</v>
+        <v>43595.708333333336</v>
       </c>
       <c r="D414" s="6" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E414" s="6"/>
       <c r="F414" s="6" t="s">
@@ -9292,13 +9363,13 @@
         <v>45</v>
       </c>
       <c r="B415" s="7">
-        <v>43594.875</v>
+        <v>43596.291666666664</v>
       </c>
       <c r="C415" s="7">
-        <v>43595.708333333336</v>
+        <v>43596.458333333336</v>
       </c>
       <c r="D415" s="6" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E415" s="6"/>
       <c r="F415" s="6" t="s">
@@ -9310,13 +9381,13 @@
         <v>45</v>
       </c>
       <c r="B416" s="7">
-        <v>43596.291666666664</v>
+        <v>43598</v>
       </c>
       <c r="C416" s="7">
-        <v>43596.458333333336</v>
+        <v>43598.697916666664</v>
       </c>
       <c r="D416" s="6" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E416" s="6"/>
       <c r="F416" s="6" t="s">
@@ -9328,10 +9399,10 @@
         <v>45</v>
       </c>
       <c r="B417" s="7">
-        <v>43598</v>
+        <v>43599.479166666664</v>
       </c>
       <c r="C417" s="7">
-        <v>43598.697916666664</v>
+        <v>43600.114583333336</v>
       </c>
       <c r="D417" s="6" t="s">
         <v>59</v>
@@ -9346,13 +9417,13 @@
         <v>45</v>
       </c>
       <c r="B418" s="7">
-        <v>43599.479166666664</v>
+        <v>43601.333333333336</v>
       </c>
       <c r="C418" s="7">
-        <v>43600.114583333336</v>
+        <v>43601.583333333336</v>
       </c>
       <c r="D418" s="6" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E418" s="6"/>
       <c r="F418" s="6" t="s">
@@ -9364,10 +9435,10 @@
         <v>45</v>
       </c>
       <c r="B419" s="7">
-        <v>43601.333333333336</v>
+        <v>43604.291666666664</v>
       </c>
       <c r="C419" s="7">
-        <v>43601.583333333336</v>
+        <v>43605.583333333336</v>
       </c>
       <c r="D419" s="6" t="s">
         <v>47</v>
@@ -9382,10 +9453,10 @@
         <v>45</v>
       </c>
       <c r="B420" s="7">
-        <v>43604.291666666664</v>
+        <v>43607.25</v>
       </c>
       <c r="C420" s="7">
-        <v>43605.583333333336</v>
+        <v>43607.541666666664</v>
       </c>
       <c r="D420" s="6" t="s">
         <v>47</v>
@@ -9400,10 +9471,10 @@
         <v>45</v>
       </c>
       <c r="B421" s="7">
-        <v>43607.25</v>
+        <v>43611.291666666664</v>
       </c>
       <c r="C421" s="7">
-        <v>43607.541666666664</v>
+        <v>43613</v>
       </c>
       <c r="D421" s="6" t="s">
         <v>47</v>
@@ -9418,17 +9489,19 @@
         <v>45</v>
       </c>
       <c r="B422" s="7">
-        <v>43611.291666666664</v>
+        <v>43655.552083333336</v>
       </c>
       <c r="C422" s="7">
-        <v>43613</v>
+        <v>43661.5625</v>
       </c>
       <c r="D422" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E422" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="E422" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="F422" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -9436,19 +9509,17 @@
         <v>45</v>
       </c>
       <c r="B423" s="7">
-        <v>43655.552083333336</v>
+        <v>43661.5625</v>
       </c>
       <c r="C423" s="7">
-        <v>43661.5625</v>
+        <v>43661.604166666664</v>
       </c>
       <c r="D423" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E423" s="6" t="s">
-        <v>98</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E423" s="6"/>
       <c r="F423" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -9462,25 +9533,25 @@
         <v>43661.604166666664</v>
       </c>
       <c r="D424" s="6" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="E424" s="6"/>
       <c r="F424" s="6" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A425" s="3" t="s">
+      <c r="A425" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B425" s="7">
-        <v>43661.5625</v>
+        <v>43668.784722222219</v>
       </c>
       <c r="C425" s="7">
-        <v>43661.604166666664</v>
+        <v>43669.243055555555</v>
       </c>
       <c r="D425" s="6" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="E425" s="6"/>
       <c r="F425" s="6" t="s">
@@ -9488,21 +9559,21 @@
       </c>
     </row>
     <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A426" s="7" t="s">
-        <v>45</v>
+      <c r="A426" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B426" s="7">
-        <v>43668.784722222219</v>
+        <v>43619</v>
       </c>
       <c r="C426" s="7">
-        <v>43669.243055555555</v>
+        <v>43619.125</v>
       </c>
       <c r="D426" s="6" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="E426" s="6"/>
       <c r="F426" s="6" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -9510,10 +9581,10 @@
         <v>46</v>
       </c>
       <c r="B427" s="7">
-        <v>43619</v>
+        <v>43633.083333333336</v>
       </c>
       <c r="C427" s="7">
-        <v>43619.125</v>
+        <v>43633.458333333336</v>
       </c>
       <c r="D427" s="6" t="s">
         <v>47</v>
@@ -9528,13 +9599,13 @@
         <v>46</v>
       </c>
       <c r="B428" s="7">
-        <v>43633.083333333336</v>
+        <v>43637</v>
       </c>
       <c r="C428" s="7">
-        <v>43633.458333333336</v>
+        <v>43641.541666666664</v>
       </c>
       <c r="D428" s="6" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="E428" s="6"/>
       <c r="F428" s="6" t="s">
@@ -9546,10 +9617,10 @@
         <v>46</v>
       </c>
       <c r="B429" s="7">
-        <v>43637</v>
+        <v>43643.291666666664</v>
       </c>
       <c r="C429" s="7">
-        <v>43641.541666666664</v>
+        <v>43643.666666666664</v>
       </c>
       <c r="D429" s="6" t="s">
         <v>89</v>
@@ -9564,10 +9635,10 @@
         <v>46</v>
       </c>
       <c r="B430" s="7">
-        <v>43643.291666666664</v>
+        <v>43644.229166666664</v>
       </c>
       <c r="C430" s="7">
-        <v>43643.666666666664</v>
+        <v>43644.583333333336</v>
       </c>
       <c r="D430" s="6" t="s">
         <v>89</v>
@@ -9582,10 +9653,10 @@
         <v>46</v>
       </c>
       <c r="B431" s="7">
-        <v>43644.229166666664</v>
+        <v>43645.21875</v>
       </c>
       <c r="C431" s="7">
-        <v>43644.583333333336</v>
+        <v>43645.5625</v>
       </c>
       <c r="D431" s="6" t="s">
         <v>89</v>
@@ -9599,33 +9670,33 @@
       <c r="A432" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B432" s="7">
-        <v>43645.21875</v>
-      </c>
-      <c r="C432" s="7">
-        <v>43645.5625</v>
-      </c>
-      <c r="D432" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E432" s="6"/>
+      <c r="B432" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D432" s="6"/>
+      <c r="E432" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F432" s="6" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A433" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B433" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D433" s="6"/>
-      <c r="E433" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="A433" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B433" s="32">
+        <v>43591.375</v>
+      </c>
+      <c r="C433" s="32">
+        <v>43592.458333333336</v>
+      </c>
+      <c r="D433" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E433" s="6"/>
       <c r="F433" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -9633,13 +9704,13 @@
         <v>18</v>
       </c>
       <c r="B434" s="32">
-        <v>43591.375</v>
+        <v>43592.125</v>
       </c>
       <c r="C434" s="32">
-        <v>43592.458333333336</v>
+        <v>43594.416666666664</v>
       </c>
       <c r="D434" s="31" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="E434" s="6"/>
       <c r="F434" s="6" t="s">
@@ -9651,13 +9722,13 @@
         <v>18</v>
       </c>
       <c r="B435" s="32">
-        <v>43592.125</v>
+        <v>43595.291666666664</v>
       </c>
       <c r="C435" s="32">
-        <v>43594.416666666664</v>
+        <v>43595.416666666664</v>
       </c>
       <c r="D435" s="31" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="E435" s="6"/>
       <c r="F435" s="6" t="s">
@@ -9669,10 +9740,10 @@
         <v>18</v>
       </c>
       <c r="B436" s="32">
-        <v>43595.291666666664</v>
+        <v>43596.319444444445</v>
       </c>
       <c r="C436" s="32">
-        <v>43595.416666666664</v>
+        <v>43596.947916666664</v>
       </c>
       <c r="D436" s="31" t="s">
         <v>47</v>
@@ -9687,15 +9758,15 @@
         <v>18</v>
       </c>
       <c r="B437" s="32">
-        <v>43596.319444444445</v>
+        <v>43601.333333333336</v>
       </c>
       <c r="C437" s="32">
-        <v>43596.947916666664</v>
+        <v>43601.854166666664</v>
       </c>
       <c r="D437" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="E437" s="6"/>
+      <c r="E437" s="3"/>
       <c r="F437" s="6" t="s">
         <v>63</v>
       </c>
@@ -9705,15 +9776,15 @@
         <v>18</v>
       </c>
       <c r="B438" s="32">
-        <v>43601.333333333336</v>
+        <v>43604.083333333336</v>
       </c>
       <c r="C438" s="32">
-        <v>43601.854166666664</v>
+        <v>43605.1875</v>
       </c>
       <c r="D438" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="E438" s="3"/>
+      <c r="E438" s="6"/>
       <c r="F438" s="6" t="s">
         <v>63</v>
       </c>
@@ -9726,10 +9797,10 @@
         <v>43604.083333333336</v>
       </c>
       <c r="C439" s="32">
-        <v>43605.1875</v>
+        <v>43633.6875</v>
       </c>
       <c r="D439" s="31" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="E439" s="6"/>
       <c r="F439" s="6" t="s">
@@ -9741,17 +9812,17 @@
         <v>18</v>
       </c>
       <c r="B440" s="32">
-        <v>43604.083333333336</v>
+        <v>43637.270833333336</v>
       </c>
       <c r="C440" s="32">
-        <v>43633.6875</v>
+        <v>43637.479166666664</v>
       </c>
       <c r="D440" s="31" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="E440" s="6"/>
       <c r="F440" s="6" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
     </row>
     <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -9759,67 +9830,67 @@
         <v>18</v>
       </c>
       <c r="B441" s="32">
-        <v>43637.270833333336</v>
+        <v>43663.302083333336</v>
       </c>
       <c r="C441" s="32">
-        <v>43637.479166666664</v>
+        <v>43665.5625</v>
       </c>
       <c r="D441" s="31" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="E441" s="6"/>
       <c r="F441" s="6" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
     <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A442" s="35" t="s">
+      <c r="A442" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B442" s="32">
-        <v>43663.302083333336</v>
+        <v>43668.850694444445</v>
       </c>
       <c r="C442" s="32">
-        <v>43665.5625</v>
+        <v>43669.267361111109</v>
       </c>
       <c r="D442" s="31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E442" s="6"/>
       <c r="F442" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B443" s="32">
-        <v>43668.850694444445</v>
+        <v>43675.892361111109</v>
       </c>
       <c r="C443" s="32">
-        <v>43669.267361111109</v>
+        <v>43676.225694444445</v>
       </c>
       <c r="D443" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="E443" s="6"/>
-      <c r="F443" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="444" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A444" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B444" s="32">
-        <v>43675.892361111109</v>
-      </c>
-      <c r="C444" s="32">
-        <v>43676.225694444445</v>
-      </c>
-      <c r="D444" s="31" t="s">
-        <v>113</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A444" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B444" s="7">
+        <v>43575</v>
+      </c>
+      <c r="C444" s="7">
+        <v>43593.75</v>
+      </c>
+      <c r="D444" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E444" s="6"/>
+      <c r="F444" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -9827,13 +9898,13 @@
         <v>26</v>
       </c>
       <c r="B445" s="7">
-        <v>43575</v>
+        <v>43594.965277777781</v>
       </c>
       <c r="C445" s="7">
-        <v>43593.75</v>
+        <v>43595.375</v>
       </c>
       <c r="D445" s="6" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="E445" s="6"/>
       <c r="F445" s="6" t="s">
@@ -9845,10 +9916,10 @@
         <v>26</v>
       </c>
       <c r="B446" s="7">
-        <v>43594.965277777781</v>
+        <v>43596.395833333336</v>
       </c>
       <c r="C446" s="7">
-        <v>43595.375</v>
+        <v>43596.517361111109</v>
       </c>
       <c r="D446" s="6" t="s">
         <v>47</v>
@@ -9859,14 +9930,14 @@
       </c>
     </row>
     <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A447" s="6" t="s">
+      <c r="A447" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B447" s="7">
-        <v>43596.395833333336</v>
+        <v>43601.420138888891</v>
       </c>
       <c r="C447" s="7">
-        <v>43596.517361111109</v>
+        <v>43601.604166666664</v>
       </c>
       <c r="D447" s="6" t="s">
         <v>47</v>
@@ -9881,10 +9952,10 @@
         <v>26</v>
       </c>
       <c r="B448" s="7">
-        <v>43601.420138888891</v>
+        <v>43604.4375</v>
       </c>
       <c r="C448" s="7">
-        <v>43601.604166666664</v>
+        <v>43604.638888888891</v>
       </c>
       <c r="D448" s="6" t="s">
         <v>47</v>
@@ -9899,10 +9970,10 @@
         <v>26</v>
       </c>
       <c r="B449" s="7">
-        <v>43604.4375</v>
+        <v>43604.875</v>
       </c>
       <c r="C449" s="7">
-        <v>43604.638888888891</v>
+        <v>43605.569444444445</v>
       </c>
       <c r="D449" s="6" t="s">
         <v>47</v>
@@ -9917,10 +9988,10 @@
         <v>26</v>
       </c>
       <c r="B450" s="7">
-        <v>43604.875</v>
+        <v>43607.239583333336</v>
       </c>
       <c r="C450" s="7">
-        <v>43605.569444444445</v>
+        <v>43607.354166666664</v>
       </c>
       <c r="D450" s="6" t="s">
         <v>47</v>
@@ -9934,11 +10005,11 @@
       <c r="A451" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B451" s="7">
-        <v>43607.239583333336</v>
-      </c>
-      <c r="C451" s="7">
-        <v>43607.354166666664</v>
+      <c r="B451" s="22">
+        <v>43611.885416666664</v>
+      </c>
+      <c r="C451" s="22">
+        <v>43612.34375</v>
       </c>
       <c r="D451" s="6" t="s">
         <v>47</v>
@@ -9953,10 +10024,10 @@
         <v>26</v>
       </c>
       <c r="B452" s="22">
-        <v>43611.885416666664</v>
+        <v>43637.208333333336</v>
       </c>
       <c r="C452" s="22">
-        <v>43612.34375</v>
+        <v>43637.416666666664</v>
       </c>
       <c r="D452" s="6" t="s">
         <v>47</v>
@@ -9967,14 +10038,14 @@
       </c>
     </row>
     <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A453" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B453" s="22">
-        <v>43637.208333333336</v>
-      </c>
-      <c r="C453" s="22">
-        <v>43637.416666666664</v>
+      <c r="A453" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B453" s="7">
+        <v>43591.333333333336</v>
+      </c>
+      <c r="C453" s="7">
+        <v>43591.479166666664</v>
       </c>
       <c r="D453" s="6" t="s">
         <v>47</v>
@@ -9989,10 +10060,10 @@
         <v>19</v>
       </c>
       <c r="B454" s="7">
-        <v>43591.333333333336</v>
+        <v>43592.173611111109</v>
       </c>
       <c r="C454" s="7">
-        <v>43591.479166666664</v>
+        <v>43592.288194444445</v>
       </c>
       <c r="D454" s="6" t="s">
         <v>47</v>
@@ -10007,10 +10078,10 @@
         <v>19</v>
       </c>
       <c r="B455" s="7">
-        <v>43592.173611111109</v>
+        <v>43595.041666666664</v>
       </c>
       <c r="C455" s="7">
-        <v>43592.288194444445</v>
+        <v>43595.322916666664</v>
       </c>
       <c r="D455" s="6" t="s">
         <v>47</v>
@@ -10025,10 +10096,10 @@
         <v>19</v>
       </c>
       <c r="B456" s="7">
-        <v>43595.041666666664</v>
+        <v>43596.270833333336</v>
       </c>
       <c r="C456" s="7">
-        <v>43595.322916666664</v>
+        <v>43596.534722222219</v>
       </c>
       <c r="D456" s="6" t="s">
         <v>47</v>
@@ -10043,10 +10114,10 @@
         <v>19</v>
       </c>
       <c r="B457" s="7">
-        <v>43596.270833333336</v>
+        <v>43601.40625</v>
       </c>
       <c r="C457" s="7">
-        <v>43596.534722222219</v>
+        <v>43601.565972222219</v>
       </c>
       <c r="D457" s="6" t="s">
         <v>47</v>
@@ -10061,10 +10132,10 @@
         <v>19</v>
       </c>
       <c r="B458" s="7">
-        <v>43601.40625</v>
+        <v>43604.416666666664</v>
       </c>
       <c r="C458" s="7">
-        <v>43601.565972222219</v>
+        <v>43605.368055555555</v>
       </c>
       <c r="D458" s="6" t="s">
         <v>47</v>
@@ -10079,10 +10150,10 @@
         <v>19</v>
       </c>
       <c r="B459" s="7">
-        <v>43604.416666666664</v>
+        <v>43606.951388888891</v>
       </c>
       <c r="C459" s="7">
-        <v>43605.368055555555</v>
+        <v>43607.875</v>
       </c>
       <c r="D459" s="6" t="s">
         <v>47</v>
@@ -10097,10 +10168,10 @@
         <v>19</v>
       </c>
       <c r="B460" s="7">
-        <v>43606.951388888891</v>
+        <v>43611.9375</v>
       </c>
       <c r="C460" s="7">
-        <v>43607.875</v>
+        <v>43612.111111111109</v>
       </c>
       <c r="D460" s="6" t="s">
         <v>47</v>
@@ -10111,22 +10182,10 @@
       </c>
     </row>
     <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A461" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B461" s="7">
-        <v>43611.9375</v>
-      </c>
-      <c r="C461" s="7">
-        <v>43612.111111111109</v>
-      </c>
-      <c r="D461" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="A461" s="6"/>
+      <c r="D461" s="6"/>
       <c r="E461" s="6"/>
-      <c r="F461" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="F461" s="6"/>
     </row>
     <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="6"/>
@@ -10171,20 +10230,32 @@
       <c r="F468" s="6"/>
     </row>
     <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A469" s="6"/>
-      <c r="D469" s="6"/>
+      <c r="A469" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B469" s="7">
+        <v>43591.409722222219</v>
+      </c>
+      <c r="C469" s="7">
+        <v>43592.583333333336</v>
+      </c>
+      <c r="D469" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="E469" s="6"/>
-      <c r="F469" s="6"/>
+      <c r="F469" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B470" s="7">
-        <v>43591.409722222219</v>
+        <v>43595.194444444445</v>
       </c>
       <c r="C470" s="7">
-        <v>43592.583333333336</v>
+        <v>43595.4375</v>
       </c>
       <c r="D470" s="6" t="s">
         <v>47</v>
@@ -10199,10 +10270,10 @@
         <v>20</v>
       </c>
       <c r="B471" s="7">
-        <v>43595.194444444445</v>
+        <v>43595.260416666664</v>
       </c>
       <c r="C471" s="7">
-        <v>43595.4375</v>
+        <v>43594.875</v>
       </c>
       <c r="D471" s="6" t="s">
         <v>47</v>
@@ -10217,10 +10288,10 @@
         <v>20</v>
       </c>
       <c r="B472" s="7">
-        <v>43595.260416666664</v>
+        <v>43596.340277777781</v>
       </c>
       <c r="C472" s="7">
-        <v>43594.875</v>
+        <v>43596.895833333336</v>
       </c>
       <c r="D472" s="6" t="s">
         <v>47</v>
@@ -10235,10 +10306,10 @@
         <v>20</v>
       </c>
       <c r="B473" s="7">
-        <v>43596.340277777781</v>
+        <v>43601.440972222219</v>
       </c>
       <c r="C473" s="7">
-        <v>43596.895833333336</v>
+        <v>43601.822916666664</v>
       </c>
       <c r="D473" s="6" t="s">
         <v>47</v>
@@ -10253,10 +10324,10 @@
         <v>20</v>
       </c>
       <c r="B474" s="7">
-        <v>43601.440972222219</v>
+        <v>43604.440972222219</v>
       </c>
       <c r="C474" s="7">
-        <v>43601.822916666664</v>
+        <v>43608.708333333336</v>
       </c>
       <c r="D474" s="6" t="s">
         <v>47</v>
@@ -10271,10 +10342,10 @@
         <v>20</v>
       </c>
       <c r="B475" s="7">
-        <v>43604.440972222219</v>
+        <v>43610.291666666664</v>
       </c>
       <c r="C475" s="7">
-        <v>43608.708333333336</v>
+        <v>43612.25</v>
       </c>
       <c r="D475" s="6" t="s">
         <v>47</v>
@@ -10289,17 +10360,17 @@
         <v>20</v>
       </c>
       <c r="B476" s="7">
-        <v>43610.291666666664</v>
+        <v>43633.583333333336</v>
       </c>
       <c r="C476" s="7">
-        <v>43612.25</v>
+        <v>43633.833333333336</v>
       </c>
       <c r="D476" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E476" s="6"/>
       <c r="F476" s="6" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
     </row>
     <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -10307,10 +10378,10 @@
         <v>20</v>
       </c>
       <c r="B477" s="7">
-        <v>43633.583333333336</v>
+        <v>43637.104166666664</v>
       </c>
       <c r="C477" s="7">
-        <v>43633.833333333336</v>
+        <v>43637.791666666664</v>
       </c>
       <c r="D477" s="6" t="s">
         <v>47</v>
@@ -10325,13 +10396,13 @@
         <v>20</v>
       </c>
       <c r="B478" s="7">
-        <v>43637.104166666664</v>
+        <v>43646</v>
       </c>
       <c r="C478" s="7">
-        <v>43637.791666666664</v>
+        <v>43646.020833333336</v>
       </c>
       <c r="D478" s="6" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="E478" s="6"/>
       <c r="F478" s="6" t="s">
@@ -10343,17 +10414,17 @@
         <v>20</v>
       </c>
       <c r="B479" s="7">
-        <v>43646</v>
+        <v>43647.392361111109</v>
       </c>
       <c r="C479" s="7">
-        <v>43646.020833333336</v>
+        <v>43647.559027777781</v>
       </c>
       <c r="D479" s="6" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E479" s="6"/>
       <c r="F479" s="6" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -10361,10 +10432,10 @@
         <v>20</v>
       </c>
       <c r="B480" s="7">
-        <v>43647.392361111109</v>
+        <v>43649.385416666664</v>
       </c>
       <c r="C480" s="7">
-        <v>43647.559027777781</v>
+        <v>43649.552083333336</v>
       </c>
       <c r="D480" s="6" t="s">
         <v>78</v>
@@ -10379,10 +10450,10 @@
         <v>20</v>
       </c>
       <c r="B481" s="7">
-        <v>43649.385416666664</v>
+        <v>43655.010416666664</v>
       </c>
       <c r="C481" s="7">
-        <v>43649.552083333336</v>
+        <v>43655.177083333336</v>
       </c>
       <c r="D481" s="6" t="s">
         <v>78</v>
@@ -10397,10 +10468,10 @@
         <v>20</v>
       </c>
       <c r="B482" s="7">
-        <v>43655.010416666664</v>
+        <v>43665.013888888891</v>
       </c>
       <c r="C482" s="7">
-        <v>43655.177083333336</v>
+        <v>43665.180555555555</v>
       </c>
       <c r="D482" s="6" t="s">
         <v>78</v>
@@ -10415,10 +10486,10 @@
         <v>20</v>
       </c>
       <c r="B483" s="7">
-        <v>43665.013888888891</v>
+        <v>43666.013888888891</v>
       </c>
       <c r="C483" s="7">
-        <v>43665.180555555555</v>
+        <v>43666.180555555555</v>
       </c>
       <c r="D483" s="6" t="s">
         <v>78</v>
@@ -10433,10 +10504,10 @@
         <v>20</v>
       </c>
       <c r="B484" s="7">
-        <v>43666.013888888891</v>
+        <v>43668.010416666664</v>
       </c>
       <c r="C484" s="7">
-        <v>43666.180555555555</v>
+        <v>43668.177083333336</v>
       </c>
       <c r="D484" s="6" t="s">
         <v>78</v>
@@ -10451,10 +10522,10 @@
         <v>20</v>
       </c>
       <c r="B485" s="7">
-        <v>43668.010416666664</v>
+        <v>43669</v>
       </c>
       <c r="C485" s="7">
-        <v>43668.177083333336</v>
+        <v>43669.006944444445</v>
       </c>
       <c r="D485" s="6" t="s">
         <v>78</v>
@@ -10469,10 +10540,10 @@
         <v>20</v>
       </c>
       <c r="B486" s="7">
-        <v>43669</v>
+        <v>43670</v>
       </c>
       <c r="C486" s="7">
-        <v>43669.006944444445</v>
+        <v>43670.006944444445</v>
       </c>
       <c r="D486" s="6" t="s">
         <v>78</v>
@@ -10487,10 +10558,10 @@
         <v>20</v>
       </c>
       <c r="B487" s="7">
-        <v>43670</v>
+        <v>43670.545138888891</v>
       </c>
       <c r="C487" s="7">
-        <v>43670.006944444445</v>
+        <v>43670.711805555555</v>
       </c>
       <c r="D487" s="6" t="s">
         <v>78</v>
@@ -10502,20 +10573,20 @@
     </row>
     <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B488" s="7">
-        <v>43670.545138888891</v>
+        <v>43591.375</v>
       </c>
       <c r="C488" s="7">
-        <v>43670.711805555555</v>
+        <v>43591.78125</v>
       </c>
       <c r="D488" s="6" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="E488" s="6"/>
       <c r="F488" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -10523,10 +10594,10 @@
         <v>25</v>
       </c>
       <c r="B489" s="7">
-        <v>43591.375</v>
+        <v>43592.166666666664</v>
       </c>
       <c r="C489" s="7">
-        <v>43591.78125</v>
+        <v>43592.579861111109</v>
       </c>
       <c r="D489" s="6" t="s">
         <v>47</v>
@@ -10541,16 +10612,15 @@
         <v>25</v>
       </c>
       <c r="B490" s="7">
-        <v>43592.166666666664</v>
+        <v>43595.194444444445</v>
       </c>
       <c r="C490" s="7">
-        <v>43592.579861111109</v>
+        <v>43595.4375</v>
       </c>
       <c r="D490" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E490" s="6"/>
-      <c r="F490" s="6" t="s">
+      <c r="F490" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10559,15 +10629,15 @@
         <v>25</v>
       </c>
       <c r="B491" s="7">
-        <v>43595.194444444445</v>
+        <v>43595.260416666664</v>
       </c>
       <c r="C491" s="7">
-        <v>43595.4375</v>
+        <v>43594.875</v>
       </c>
       <c r="D491" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F491" t="s">
+      <c r="F491" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10576,10 +10646,10 @@
         <v>25</v>
       </c>
       <c r="B492" s="7">
-        <v>43595.260416666664</v>
+        <v>43596.340277777781</v>
       </c>
       <c r="C492" s="7">
-        <v>43594.875</v>
+        <v>43596.895833333336</v>
       </c>
       <c r="D492" s="6" t="s">
         <v>47</v>
@@ -10593,15 +10663,15 @@
         <v>25</v>
       </c>
       <c r="B493" s="7">
-        <v>43596.340277777781</v>
+        <v>43601.388888888891</v>
       </c>
       <c r="C493" s="7">
-        <v>43596.895833333336</v>
+        <v>43601.822916666664</v>
       </c>
       <c r="D493" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F493" s="6" t="s">
+      <c r="F493" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10610,14 +10680,15 @@
         <v>25</v>
       </c>
       <c r="B494" s="7">
-        <v>43601.388888888891</v>
+        <v>43604.350694444445</v>
       </c>
       <c r="C494" s="7">
-        <v>43601.822916666664</v>
+        <v>43608.708333333336</v>
       </c>
       <c r="D494" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="E494" s="6"/>
       <c r="F494" t="s">
         <v>63</v>
       </c>
@@ -10627,16 +10698,16 @@
         <v>25</v>
       </c>
       <c r="B495" s="7">
-        <v>43604.350694444445</v>
+        <v>43611.892361111109</v>
       </c>
       <c r="C495" s="7">
-        <v>43608.708333333336</v>
+        <v>43612.25</v>
       </c>
       <c r="D495" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E495" s="6"/>
-      <c r="F495" t="s">
+      <c r="F495" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10645,13 +10716,13 @@
         <v>25</v>
       </c>
       <c r="B496" s="7">
-        <v>43611.892361111109</v>
+        <v>43616.208333333336</v>
       </c>
       <c r="C496" s="7">
-        <v>43612.25</v>
+        <v>43616.701388888891</v>
       </c>
       <c r="D496" s="6" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E496" s="6"/>
       <c r="F496" s="6" t="s">
@@ -10663,17 +10734,17 @@
         <v>25</v>
       </c>
       <c r="B497" s="7">
-        <v>43616.208333333336</v>
+        <v>43633.583333333336</v>
       </c>
       <c r="C497" s="7">
-        <v>43616.701388888891</v>
+        <v>43633.791666666664</v>
       </c>
       <c r="D497" s="6" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E497" s="6"/>
-      <c r="F497" s="6" t="s">
-        <v>63</v>
+      <c r="F497" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -10681,10 +10752,10 @@
         <v>25</v>
       </c>
       <c r="B498" s="7">
-        <v>43633.583333333336</v>
+        <v>43637.104166666664</v>
       </c>
       <c r="C498" s="7">
-        <v>43633.791666666664</v>
+        <v>43637.791666666664</v>
       </c>
       <c r="D498" s="6" t="s">
         <v>47</v>
@@ -10695,26 +10766,25 @@
       </c>
     </row>
     <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A499" s="6" t="s">
+      <c r="A499" t="s">
         <v>25</v>
       </c>
       <c r="B499" s="7">
-        <v>43637.104166666664</v>
+        <v>43712.618055555555</v>
       </c>
       <c r="C499" s="7">
-        <v>43637.791666666664</v>
-      </c>
-      <c r="D499" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E499" s="6"/>
+        <v>43712.847222222219</v>
+      </c>
+      <c r="D499" t="s">
+        <v>47</v>
+      </c>
       <c r="F499" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B500" s="7">
         <v>43712.618055555555</v>
@@ -10722,16 +10792,16 @@
       <c r="C500" s="7">
         <v>43712.847222222219</v>
       </c>
-      <c r="D500" t="s">
-        <v>47</v>
-      </c>
-      <c r="F500" t="s">
+      <c r="D500" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F500" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B501" s="7">
         <v>43712.618055555555</v>
@@ -10742,42 +10812,102 @@
       <c r="D501" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="E501" s="6"/>
       <c r="F501" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B502" s="7">
-        <v>43712.618055555555</v>
+        <v>43712.625</v>
       </c>
       <c r="C502" s="7">
-        <v>43712.847222222219</v>
+        <v>43712.673611111109</v>
       </c>
       <c r="D502" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E502" s="6"/>
       <c r="F502" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A503" t="s">
-        <v>26</v>
+      <c r="A503" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B503" s="7">
-        <v>43712.625</v>
+        <v>43712.618055555555</v>
       </c>
       <c r="C503" s="7">
-        <v>43712.673611111109</v>
+        <v>43712.701388888891</v>
       </c>
       <c r="D503" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F503" s="6" t="s">
+      <c r="F503" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A504" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B504" s="7">
+        <v>43611.392361111109</v>
+      </c>
+      <c r="C504" s="7">
+        <v>43611.517361111109</v>
+      </c>
+      <c r="D504" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E504" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F504" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A505" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B505" s="7">
+        <v>43611.875</v>
+      </c>
+      <c r="C505" s="7">
+        <v>43612.208333333336</v>
+      </c>
+      <c r="D505" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E505" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F505" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A506" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B506" s="7">
+        <v>43712.611111111109</v>
+      </c>
+      <c r="C506" s="7">
+        <v>43712.75</v>
+      </c>
+      <c r="D506" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E506" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F506" t="s">
         <v>65</v>
       </c>
     </row>
@@ -10785,7 +10915,7 @@
   <autoFilter ref="A1:F503">
     <filterColumn colId="0">
       <filters>
-        <filter val="SLR-045"/>
+        <filter val="SDR-780"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -10805,8 +10935,8 @@
   </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10825,7 +10955,7 @@
         <v>52</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10840,7 +10970,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>63</v>
@@ -10865,7 +10995,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>63</v>
@@ -10883,7 +11013,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>63</v>
@@ -10901,7 +11031,7 @@
         <v>49</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>63</v>
@@ -10926,7 +11056,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>63</v>
@@ -10937,7 +11067,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>63</v>
@@ -10948,7 +11078,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C15" s="29" t="s">
         <v>63</v>
@@ -10966,7 +11096,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C17" s="29" t="s">
         <v>63</v>
@@ -10991,7 +11121,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C20" s="29" t="s">
         <v>63</v>
@@ -11078,22 +11208,30 @@
       <c r="A32" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="B32" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="33" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
+      <c r="B33" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="34" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C34" s="29" t="s">
         <v>65</v>
@@ -11104,7 +11242,7 @@
         <v>45</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>65</v>
@@ -11115,7 +11253,7 @@
         <v>46</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>65</v>
@@ -11126,7 +11264,7 @@
         <v>18</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C37" s="29" t="s">
         <v>65</v>
@@ -11137,7 +11275,7 @@
         <v>26</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>65</v>
@@ -11148,7 +11286,7 @@
         <v>19</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>65</v>
@@ -11159,7 +11297,7 @@
         <v>20</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>65</v>
@@ -11170,7 +11308,7 @@
         <v>25</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>65</v>

--- a/2 - Flow output Excel files - working drafts/Data Output 09_15_2019/Offsets and Clip times 09_15_2019.xlsx
+++ b/2 - Flow output Excel files - working drafts/Data Output 09_15_2019/Offsets and Clip times 09_15_2019.xlsx
@@ -18,8 +18,8 @@
     <sheet name="ESRI_MAPINFO_SHEET" sheetId="4" state="veryHidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Clips!$A$1:$F$449</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Offsets!$A$2:$H$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Clips!$A$1:$F$448</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Offsets!$A$2:$H$54</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="160">
   <si>
     <t>Site</t>
   </si>
@@ -351,12 +351,6 @@
     <t>Weir popped open</t>
   </si>
   <si>
-    <t>Weird spike</t>
-  </si>
-  <si>
-    <t>Appears to be bad data.</t>
-  </si>
-  <si>
     <t>Debris</t>
   </si>
   <si>
@@ -469,6 +463,54 @@
   </si>
   <si>
     <t>Several extremely high flows are present in data but not always observed at the downstream SDR-127. There are a number of overtopping flows that persist for several hours</t>
+  </si>
+  <si>
+    <t>breakaway repaired at end of storm clip</t>
+  </si>
+  <si>
+    <t>Several very high overtopping flows. Breakaways popped open a few times leading to data gaps.Offset adjusted a little bit from May. Had to clean up some of the calibration points</t>
+  </si>
+  <si>
+    <t>Conductivity seems way too high. Several very high overtopping flows. Breakaways popped open a few times leading to data gaps.Offset adjusted a little bit from May. SDR-203A and -204A both showed very high peaks at roughly the same time on 7/16, 9/12 and 13. Seems like possible stormflow or other non-residential source? Not sure what the drainage areas are like.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Offset adjusted from May. Battery failure 7/31-8/5. High flows from SDR-203A and 204A are evident on 7/16, 9/12, 9/13, but peak flow rate is higher than both of those combined. Were there other outfalls experiencing these flows? Undetected rainfall?</t>
+  </si>
+  <si>
+    <t>Probe malfunction</t>
+  </si>
+  <si>
+    <t>breakway popped open and was repaired</t>
+  </si>
+  <si>
+    <t>Some high flows in July but otherwise mostly low but regular peaked flows</t>
+  </si>
+  <si>
+    <t>Vandalism - probe destroyed</t>
+  </si>
+  <si>
+    <t>High flow 7/19 but otherwise very low flows. Was vandalized and probe replaced</t>
+  </si>
+  <si>
+    <t>waiting on end of August and September data</t>
+  </si>
+  <si>
+    <t>A period of flow in end of June early July but otherwise mostly not flowing</t>
+  </si>
+  <si>
+    <t>Very regular nightly flows until 7/8 and then less regular but still frequent peak flows</t>
+  </si>
+  <si>
+    <t>Constant but variable flows, appears weir was leaking after the 9/4 storm</t>
+  </si>
+  <si>
+    <t>Storm - then leaking</t>
+  </si>
+  <si>
+    <t>Leaking following high flow</t>
+  </si>
+  <si>
+    <t>Very high flow on 7/16 but otherwise mostly low and peaky flow</t>
   </si>
 </sst>
 </file>
@@ -546,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -589,7 +631,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -990,10 +1031,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="B40:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1011,10 +1053,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1030,7 +1072,7 @@
         <v>52</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1260,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>63</v>
@@ -1627,8 +1669,15 @@
       <c r="A30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
+      <c r="B30" s="7">
+        <v>43586</v>
+      </c>
+      <c r="C30" s="7">
+        <v>43723.996527777781</v>
+      </c>
+      <c r="D30" s="6">
+        <v>-0.1</v>
+      </c>
       <c r="E30" s="16"/>
       <c r="F30" s="5" t="b">
         <v>1</v>
@@ -1641,24 +1690,35 @@
       <c r="A31" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
+      <c r="B31" s="7">
+        <v>43586</v>
+      </c>
+      <c r="C31" s="7">
+        <v>43723.996527777781</v>
+      </c>
+      <c r="D31" s="6">
+        <v>-0.1</v>
+      </c>
       <c r="E31" s="16"/>
       <c r="F31" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+      <c r="B32" s="7">
+        <v>43586</v>
+      </c>
+      <c r="C32" s="7">
+        <v>43723.996527777781</v>
+      </c>
       <c r="D32" s="6">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="E32" s="19">
         <v>0.15</v>
@@ -1684,10 +1744,20 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="B34" s="7">
+        <v>43586</v>
+      </c>
+      <c r="C34" s="13">
+        <v>43661.53125</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="E34" s="16"/>
       <c r="F34" s="5" t="b">
         <v>1</v>
       </c>
@@ -1695,23 +1765,29 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="E35" s="16"/>
+        <v>17</v>
+      </c>
+      <c r="B35" s="13">
+        <v>43661.53125</v>
+      </c>
+      <c r="C35" s="7">
+        <v>43723.996527777781</v>
+      </c>
+      <c r="D35">
+        <v>0.5</v>
+      </c>
       <c r="F35" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1723,39 +1799,34 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>35</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="E37" s="16"/>
       <c r="F37" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F38" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="6">
-        <v>0</v>
-      </c>
-      <c r="E39" s="16">
-        <v>0.2</v>
+        <v>36</v>
       </c>
       <c r="F39" s="5" t="b">
         <v>1</v>
@@ -1764,58 +1835,53 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
-      <c r="D40" s="6"/>
+      <c r="E40" s="16">
+        <v>0.2</v>
+      </c>
       <c r="F40" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="6"/>
-      <c r="F41" s="5" t="s">
-        <v>57</v>
+      <c r="F41" s="5" t="b">
+        <v>1</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="7">
-        <v>43586</v>
-      </c>
-      <c r="C42" s="7">
-        <v>43586.84375</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
       <c r="D42" s="6"/>
-      <c r="E42" s="16">
-        <v>0</v>
-      </c>
-      <c r="F42" s="5" t="b">
-        <v>1</v>
+      <c r="F42" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="7">
         <v>43586</v>
@@ -1823,144 +1889,144 @@
       <c r="C43" s="7">
         <v>43586.84375</v>
       </c>
-      <c r="D43" s="6">
-        <v>2.2000000000000002</v>
-      </c>
+      <c r="D43" s="6"/>
       <c r="E43" s="16">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F43" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B44" s="7">
-        <v>43647.489583333336</v>
+        <v>43586</v>
       </c>
       <c r="C44" s="7">
-        <v>43661.625</v>
+        <v>43586.84375</v>
       </c>
       <c r="D44" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="5"/>
+      <c r="E44" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="F44" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="H44" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="7">
-        <v>43661.628472222219</v>
+        <v>43647.489583333336</v>
       </c>
       <c r="C45" s="7">
-        <v>43677.996527777781</v>
+        <v>43661.625</v>
       </c>
       <c r="D45" s="6">
-        <v>0.65</v>
-      </c>
-      <c r="E45" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="F45" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" t="s">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E45" s="16"/>
+      <c r="F45" s="5"/>
+      <c r="H45" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="7">
+        <v>43661.628472222219</v>
+      </c>
+      <c r="C46" s="7">
+        <v>43677.996527777781</v>
+      </c>
+      <c r="D46" s="6">
+        <v>0.65</v>
+      </c>
       <c r="E46" s="16">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="F46" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="G46" s="6"/>
       <c r="H46" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" s="7">
-        <v>43592.649305555598</v>
-      </c>
-      <c r="C47" s="7">
-        <v>43594.708333333299</v>
-      </c>
-      <c r="D47" s="6">
-        <v>0</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="6"/>
       <c r="E47" s="16">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F47" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="G47" s="6"/>
       <c r="H47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="7">
+        <v>43592.649305555598</v>
+      </c>
+      <c r="C48" s="7">
+        <v>43594.708333333299</v>
+      </c>
+      <c r="D48" s="6">
+        <v>0</v>
+      </c>
+      <c r="E48" s="16">
+        <v>0</v>
+      </c>
+      <c r="F48" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="28" t="s">
+    <row r="49" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="29">
+      <c r="B49" s="28">
         <v>43633.604166666664</v>
       </c>
-      <c r="C48" s="29">
+      <c r="C49" s="28">
         <v>43738.996527777781</v>
       </c>
-      <c r="D48" s="28">
+      <c r="D49" s="27">
         <v>0.1</v>
       </c>
-      <c r="E48" s="30">
+      <c r="E49" s="29">
         <v>0</v>
       </c>
-      <c r="F48" s="31" t="b">
+      <c r="F49" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="H48" s="28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B49" s="7">
-        <v>43586</v>
-      </c>
-      <c r="C49" s="7">
-        <v>43592.770833333299</v>
-      </c>
-      <c r="D49" s="6">
-        <v>4.25</v>
-      </c>
-      <c r="F49" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G49" s="6"/>
-      <c r="H49" t="s">
-        <v>56</v>
+      <c r="H49" s="27" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -1968,55 +2034,62 @@
         <v>26</v>
       </c>
       <c r="B50" s="7">
+        <v>43586</v>
+      </c>
+      <c r="C50" s="7">
         <v>43592.770833333299</v>
       </c>
-      <c r="C50" s="7">
-        <v>43593.708333333336</v>
-      </c>
       <c r="D50" s="6">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="F50" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G50" s="6"/>
-      <c r="H50" s="6" t="s">
+      <c r="H50" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="E51" s="16">
-        <v>0.25</v>
+      <c r="B51" s="7">
+        <v>43592.770833333299</v>
+      </c>
+      <c r="C51" s="7">
+        <v>43593.708333333336</v>
+      </c>
+      <c r="D51" s="6">
+        <v>3.5</v>
       </c>
       <c r="F51" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="G51" s="6"/>
       <c r="H51" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
-      <c r="E52" s="16"/>
+      <c r="E52" s="16">
+        <v>0.25</v>
+      </c>
       <c r="F52" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -2025,25 +2098,39 @@
         <v>1</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
-      <c r="D54" s="6">
-        <v>0</v>
-      </c>
-      <c r="E54" s="16">
-        <v>0</v>
-      </c>
+      <c r="E54" s="16"/>
       <c r="F54" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H54" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="6">
+        <v>0</v>
+      </c>
+      <c r="E55" s="16">
+        <v>0</v>
+      </c>
+      <c r="F55" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2059,11 +2146,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F452"/>
+  <dimension ref="A1:F451"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C265" sqref="C265"/>
+      <pane ySplit="1" topLeftCell="A319" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C340" sqref="C340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2091,7 +2178,7 @@
         <v>52</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2265,10 +2352,10 @@
         <v>43633.524305555555</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>63</v>
@@ -2515,7 +2602,7 @@
         <v>43678.618055555555</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>63</v>
@@ -2532,7 +2619,7 @@
         <v>43723.996527777781</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>63</v>
@@ -3040,7 +3127,7 @@
         <v>43707.704861111109</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>63</v>
@@ -4165,7 +4252,7 @@
         <v>43712.319444444445</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4603,7 +4690,7 @@
         <v>47</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F143" s="6" t="s">
         <v>63</v>
@@ -5201,7 +5288,7 @@
         <v>47</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F178" s="6" t="s">
         <v>63</v>
@@ -5396,16 +5483,19 @@
     </row>
     <row r="190" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B190" s="7">
-        <v>43591.378472222197</v>
+        <v>43712.583333333336</v>
       </c>
       <c r="C190" s="7">
-        <v>43591.565972222219</v>
+        <v>43713.5</v>
       </c>
       <c r="D190" s="6" t="s">
         <v>47</v>
+      </c>
+      <c r="E190" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="F190" s="6" t="s">
         <v>63</v>
@@ -5416,10 +5506,10 @@
         <v>40</v>
       </c>
       <c r="B191" s="7">
-        <v>43592.125</v>
+        <v>43591.378472222197</v>
       </c>
       <c r="C191" s="7">
-        <v>43592.5</v>
+        <v>43591.565972222219</v>
       </c>
       <c r="D191" s="6" t="s">
         <v>47</v>
@@ -5433,10 +5523,10 @@
         <v>40</v>
       </c>
       <c r="B192" s="7">
-        <v>43595.180555555555</v>
+        <v>43592.125</v>
       </c>
       <c r="C192" s="7">
-        <v>43595.375</v>
+        <v>43592.5</v>
       </c>
       <c r="D192" s="6" t="s">
         <v>47</v>
@@ -5450,10 +5540,10 @@
         <v>40</v>
       </c>
       <c r="B193" s="7">
-        <v>43596.34375</v>
+        <v>43595.180555555555</v>
       </c>
       <c r="C193" s="7">
-        <v>43596.8125</v>
+        <v>43595.375</v>
       </c>
       <c r="D193" s="6" t="s">
         <v>47</v>
@@ -5467,10 +5557,10 @@
         <v>40</v>
       </c>
       <c r="B194" s="7">
-        <v>43601.333333333336</v>
+        <v>43596.34375</v>
       </c>
       <c r="C194" s="7">
-        <v>43601.784722222219</v>
+        <v>43596.8125</v>
       </c>
       <c r="D194" s="6" t="s">
         <v>47</v>
@@ -5484,10 +5574,10 @@
         <v>40</v>
       </c>
       <c r="B195" s="7">
-        <v>43604.427083333336</v>
+        <v>43601.333333333336</v>
       </c>
       <c r="C195" s="7">
-        <v>43605.708333333336</v>
+        <v>43601.784722222219</v>
       </c>
       <c r="D195" s="6" t="s">
         <v>47</v>
@@ -5501,10 +5591,10 @@
         <v>40</v>
       </c>
       <c r="B196" s="7">
-        <v>43607.229166666664</v>
+        <v>43604.427083333336</v>
       </c>
       <c r="C196" s="7">
-        <v>43608.65625</v>
+        <v>43605.708333333336</v>
       </c>
       <c r="D196" s="6" t="s">
         <v>47</v>
@@ -5518,10 +5608,10 @@
         <v>40</v>
       </c>
       <c r="B197" s="7">
-        <v>43611.850694444445</v>
+        <v>43607.229166666664</v>
       </c>
       <c r="C197" s="7">
-        <v>43612.572916666664</v>
+        <v>43608.65625</v>
       </c>
       <c r="D197" s="6" t="s">
         <v>47</v>
@@ -5535,16 +5625,16 @@
         <v>40</v>
       </c>
       <c r="B198" s="7">
-        <v>43633.53125</v>
+        <v>43611.850694444445</v>
       </c>
       <c r="C198" s="7">
-        <v>43634.041666666664</v>
+        <v>43612.572916666664</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="199" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -5552,16 +5642,16 @@
         <v>40</v>
       </c>
       <c r="B199" s="7">
-        <v>43664.25</v>
+        <v>43633.53125</v>
       </c>
       <c r="C199" s="7">
-        <v>43671</v>
+        <v>43634.041666666664</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="200" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -5569,13 +5659,13 @@
         <v>40</v>
       </c>
       <c r="B200" s="7">
-        <v>43712.583333333336</v>
+        <v>43664.25</v>
       </c>
       <c r="C200" s="7">
-        <v>43712.75</v>
+        <v>43671</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="F200" s="6" t="s">
         <v>63</v>
@@ -5583,13 +5673,13 @@
     </row>
     <row r="201" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B201" s="7">
-        <v>43591.378472222197</v>
+        <v>43712.583333333336</v>
       </c>
       <c r="C201" s="7">
-        <v>43591.565972222219</v>
+        <v>43712.75</v>
       </c>
       <c r="D201" s="6" t="s">
         <v>47</v>
@@ -5603,10 +5693,10 @@
         <v>41</v>
       </c>
       <c r="B202" s="7">
-        <v>43592.125</v>
+        <v>43591.378472222197</v>
       </c>
       <c r="C202" s="7">
-        <v>43592.5</v>
+        <v>43591.565972222219</v>
       </c>
       <c r="D202" s="6" t="s">
         <v>47</v>
@@ -5620,10 +5710,10 @@
         <v>41</v>
       </c>
       <c r="B203" s="7">
-        <v>43593.885416666664</v>
+        <v>43592.125</v>
       </c>
       <c r="C203" s="7">
-        <v>43594.239583333336</v>
+        <v>43592.5</v>
       </c>
       <c r="D203" s="6" t="s">
         <v>47</v>
@@ -5632,21 +5722,20 @@
         <v>63</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B204" s="7">
-        <v>43595.197916666664</v>
+        <v>43593.885416666664</v>
       </c>
       <c r="C204" s="7">
-        <v>43595.548611111109</v>
+        <v>43594.239583333336</v>
       </c>
       <c r="D204" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E204" s="6"/>
-      <c r="F204" t="s">
+      <c r="F204" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5655,16 +5744,16 @@
         <v>41</v>
       </c>
       <c r="B205" s="7">
-        <v>43596.34375</v>
+        <v>43595.197916666664</v>
       </c>
       <c r="C205" s="7">
-        <v>43596.8125</v>
+        <v>43595.548611111109</v>
       </c>
       <c r="D205" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E205" s="6"/>
-      <c r="F205" s="6" t="s">
+      <c r="F205" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5673,10 +5762,10 @@
         <v>41</v>
       </c>
       <c r="B206" s="7">
-        <v>43601.416666666664</v>
+        <v>43596.34375</v>
       </c>
       <c r="C206" s="7">
-        <v>43601.784722222219</v>
+        <v>43596.8125</v>
       </c>
       <c r="D206" s="6" t="s">
         <v>47</v>
@@ -5691,10 +5780,10 @@
         <v>41</v>
       </c>
       <c r="B207" s="7">
-        <v>43604.427083333336</v>
+        <v>43601.416666666664</v>
       </c>
       <c r="C207" s="7">
-        <v>43605.708333333336</v>
+        <v>43601.784722222219</v>
       </c>
       <c r="D207" s="6" t="s">
         <v>47</v>
@@ -5709,10 +5798,10 @@
         <v>41</v>
       </c>
       <c r="B208" s="7">
-        <v>43607.229166666664</v>
+        <v>43604.427083333336</v>
       </c>
       <c r="C208" s="7">
-        <v>43608.65625</v>
+        <v>43605.708333333336</v>
       </c>
       <c r="D208" s="6" t="s">
         <v>47</v>
@@ -5727,10 +5816,10 @@
         <v>41</v>
       </c>
       <c r="B209" s="7">
-        <v>43611.395833333336</v>
+        <v>43607.229166666664</v>
       </c>
       <c r="C209" s="7">
-        <v>43612.572916666664</v>
+        <v>43608.65625</v>
       </c>
       <c r="D209" s="6" t="s">
         <v>47</v>
@@ -5740,15 +5829,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B210" s="7">
-        <v>43633.135416666664</v>
+        <v>43611.395833333336</v>
       </c>
       <c r="C210" s="7">
-        <v>43633.677083333336</v>
+        <v>43612.572916666664</v>
       </c>
       <c r="D210" s="6" t="s">
         <v>47</v>
@@ -5758,38 +5847,38 @@
         <v>63</v>
       </c>
     </row>
-    <row r="211" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B211" s="7">
+        <v>43633.135416666664</v>
+      </c>
+      <c r="C211" s="7">
+        <v>43633.677083333336</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E211" s="6"/>
+      <c r="F211" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B212" s="7">
         <v>43712.583333333336</v>
       </c>
-      <c r="C211" s="7">
+      <c r="C212" s="7">
         <v>43712.75</v>
       </c>
-      <c r="D211" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F211" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A212" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B212" s="7">
-        <v>43586</v>
-      </c>
-      <c r="C212" s="7">
-        <v>43598.270833333336</v>
-      </c>
       <c r="D212" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E212" s="6"/>
-      <c r="F212" t="s">
+        <v>47</v>
+      </c>
+      <c r="F212" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5798,16 +5887,16 @@
         <v>13</v>
       </c>
       <c r="B213" s="7">
-        <v>43601.375</v>
+        <v>43586</v>
       </c>
       <c r="C213" s="7">
-        <v>43601.875</v>
+        <v>43598.270833333336</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="E213" s="6"/>
-      <c r="F213" s="6" t="s">
+      <c r="F213" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5816,10 +5905,10 @@
         <v>13</v>
       </c>
       <c r="B214" s="7">
-        <v>43604.416666666664</v>
+        <v>43601.375</v>
       </c>
       <c r="C214" s="7">
-        <v>43606.083333333336</v>
+        <v>43601.875</v>
       </c>
       <c r="D214" s="6" t="s">
         <v>47</v>
@@ -5834,10 +5923,10 @@
         <v>13</v>
       </c>
       <c r="B215" s="7">
-        <v>43606.916666666664</v>
+        <v>43604.416666666664</v>
       </c>
       <c r="C215" s="7">
-        <v>43608.625</v>
+        <v>43606.083333333336</v>
       </c>
       <c r="D215" s="6" t="s">
         <v>47</v>
@@ -5847,32 +5936,36 @@
         <v>63</v>
       </c>
     </row>
-    <row r="216" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B216" s="7">
+        <v>43606.916666666664</v>
+      </c>
+      <c r="C216" s="7">
+        <v>43608.625</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E216" s="6"/>
+      <c r="F216" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B217" s="7">
         <v>43611.291666666664</v>
       </c>
-      <c r="C216" s="7">
+      <c r="C217" s="7">
         <v>43612.5</v>
       </c>
-      <c r="D216" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B217" s="7">
-        <v>43636.6875</v>
-      </c>
-      <c r="C217" s="7">
-        <v>43636.938888888886</v>
-      </c>
       <c r="D217" s="6" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
     </row>
     <row r="218" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -5880,10 +5973,10 @@
         <v>13</v>
       </c>
       <c r="B218" s="7">
-        <v>43638.147222222222</v>
+        <v>43636.6875</v>
       </c>
       <c r="C218" s="7">
-        <v>43638.563888888886</v>
+        <v>43636.938888888886</v>
       </c>
       <c r="D218" s="6" t="s">
         <v>104</v>
@@ -5894,10 +5987,10 @@
         <v>13</v>
       </c>
       <c r="B219" s="7">
-        <v>43639.022222222222</v>
+        <v>43638.147222222222</v>
       </c>
       <c r="C219" s="7">
-        <v>43639.355555555558</v>
+        <v>43638.563888888886</v>
       </c>
       <c r="D219" s="6" t="s">
         <v>104</v>
@@ -5908,45 +6001,41 @@
         <v>13</v>
       </c>
       <c r="B220" s="7">
-        <v>43639.647222222222</v>
+        <v>43639.022222222222</v>
       </c>
       <c r="C220" s="7">
-        <v>43640.109722222223</v>
+        <v>43639.355555555558</v>
       </c>
       <c r="D220" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B221" s="7">
-        <v>43644.277083333334</v>
+        <v>43639.647222222222</v>
       </c>
       <c r="C221" s="7">
-        <v>43644.943749999999</v>
+        <v>43640.109722222223</v>
       </c>
       <c r="D221" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E221" s="6"/>
-      <c r="F221" s="6" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A222" s="3" t="s">
+      <c r="A222" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B222" s="7">
-        <v>43612.5</v>
+        <v>43644.277083333334</v>
       </c>
       <c r="C222" s="7">
-        <v>43633.586805555555</v>
+        <v>43644.943749999999</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="E222" s="6"/>
       <c r="F222" s="6" t="s">
@@ -5954,17 +6043,17 @@
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A223" s="7" t="s">
+      <c r="A223" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B223" s="7">
-        <v>43647.863194444442</v>
+        <v>43612.5</v>
       </c>
       <c r="C223" s="7">
-        <v>43653.038194444445</v>
+        <v>43633.586805555555</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="E223" s="6"/>
       <c r="F223" s="6" t="s">
@@ -5976,10 +6065,10 @@
         <v>13</v>
       </c>
       <c r="B224" s="7">
-        <v>43653.996527777781</v>
+        <v>43647.863194444442</v>
       </c>
       <c r="C224" s="7">
-        <v>43654.954861111109</v>
+        <v>43653.038194444445</v>
       </c>
       <c r="D224" s="6" t="s">
         <v>104</v>
@@ -5989,19 +6078,20 @@
         <v>63</v>
       </c>
     </row>
-    <row r="225" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B225" s="7">
-        <v>43655.288194444445</v>
+        <v>43653.996527777781</v>
       </c>
       <c r="C225" s="7">
-        <v>43663.472222222219</v>
+        <v>43654.954861111109</v>
       </c>
       <c r="D225" s="6" t="s">
         <v>104</v>
       </c>
+      <c r="E225" s="6"/>
       <c r="F225" s="6" t="s">
         <v>63</v>
       </c>
@@ -6011,10 +6101,10 @@
         <v>13</v>
       </c>
       <c r="B226" s="7">
-        <v>43677.729166666664</v>
+        <v>43655.288194444445</v>
       </c>
       <c r="C226" s="7">
-        <v>43678.395833333336</v>
+        <v>43663.472222222219</v>
       </c>
       <c r="D226" s="6" t="s">
         <v>104</v>
@@ -6028,10 +6118,10 @@
         <v>13</v>
       </c>
       <c r="B227" s="7">
-        <v>43678.680555555555</v>
+        <v>43677.729166666664</v>
       </c>
       <c r="C227" s="7">
-        <v>43680.055555555555</v>
+        <v>43678.395833333336</v>
       </c>
       <c r="D227" s="6" t="s">
         <v>104</v>
@@ -6045,10 +6135,10 @@
         <v>13</v>
       </c>
       <c r="B228" s="7">
-        <v>43685.638888888891</v>
+        <v>43678.680555555555</v>
       </c>
       <c r="C228" s="7">
-        <v>43685.888888888891</v>
+        <v>43680.055555555555</v>
       </c>
       <c r="D228" s="6" t="s">
         <v>104</v>
@@ -6062,13 +6152,13 @@
         <v>13</v>
       </c>
       <c r="B229" s="7">
-        <v>43689.347222222219</v>
+        <v>43685.638888888891</v>
       </c>
       <c r="C229" s="7">
-        <v>43691.541666666664</v>
+        <v>43685.888888888891</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="F229" s="6" t="s">
         <v>63</v>
@@ -6079,51 +6169,51 @@
         <v>13</v>
       </c>
       <c r="B230" s="7">
-        <v>43694.847222222219</v>
+        <v>43689.347222222219</v>
       </c>
       <c r="C230" s="7">
-        <v>43698.020833333336</v>
+        <v>43691.541666666664</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F230" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B231" s="7">
-        <v>43703.472222222219</v>
+        <v>43694.847222222219</v>
       </c>
       <c r="C231" s="7">
-        <v>43706.6875</v>
+        <v>43698.020833333336</v>
       </c>
       <c r="D231" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E231" s="6"/>
       <c r="F231" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B232" s="7">
-        <v>43710.041666666664</v>
+        <v>43703.472222222219</v>
       </c>
       <c r="C232" s="7">
-        <v>43711.041666666664</v>
+        <v>43706.6875</v>
       </c>
       <c r="D232" s="6" t="s">
         <v>104</v>
       </c>
+      <c r="E232" s="6"/>
       <c r="F232" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="233" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -6131,10 +6221,10 @@
         <v>13</v>
       </c>
       <c r="B233" s="7">
-        <v>43711.3125</v>
+        <v>43710.041666666664</v>
       </c>
       <c r="C233" s="7">
-        <v>43712.291666666664</v>
+        <v>43711.041666666664</v>
       </c>
       <c r="D233" s="6" t="s">
         <v>104</v>
@@ -6148,13 +6238,13 @@
         <v>13</v>
       </c>
       <c r="B234" s="7">
-        <v>43712.614583333336</v>
+        <v>43711.3125</v>
       </c>
       <c r="C234" s="7">
-        <v>43713.291666666664</v>
+        <v>43712.291666666664</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="F234" s="6" t="s">
         <v>63</v>
@@ -6165,34 +6255,33 @@
         <v>13</v>
       </c>
       <c r="B235" s="7">
+        <v>43712.614583333336</v>
+      </c>
+      <c r="C235" s="7">
+        <v>43713.291666666664</v>
+      </c>
+      <c r="D235" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F235" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B236" s="7">
         <v>43715.979166666664</v>
       </c>
-      <c r="C235" s="7">
+      <c r="C236" s="7">
         <v>43716.6875</v>
       </c>
-      <c r="D235" s="6" t="s">
+      <c r="D236" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F235" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A236" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B236" s="7">
-        <v>43591.21875</v>
-      </c>
-      <c r="C236" s="7">
-        <v>43591.791666666664</v>
-      </c>
-      <c r="D236" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E236" s="6"/>
-      <c r="F236" t="s">
-        <v>56</v>
+      <c r="F236" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
@@ -6200,16 +6289,16 @@
         <v>27</v>
       </c>
       <c r="B237" s="7">
-        <v>43592.135416666664</v>
+        <v>43591.21875</v>
       </c>
       <c r="C237" s="7">
-        <v>43592.791666666664</v>
+        <v>43591.791666666664</v>
       </c>
       <c r="D237" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E237" s="6"/>
-      <c r="F237" s="6" t="s">
+      <c r="F237" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6218,10 +6307,10 @@
         <v>27</v>
       </c>
       <c r="B238" s="7">
-        <v>43593.270833333336</v>
+        <v>43592.135416666664</v>
       </c>
       <c r="C238" s="7">
-        <v>43593.416666666664</v>
+        <v>43592.791666666664</v>
       </c>
       <c r="D238" s="6" t="s">
         <v>47</v>
@@ -6236,10 +6325,10 @@
         <v>27</v>
       </c>
       <c r="B239" s="7">
-        <v>43593.822916666664</v>
+        <v>43593.270833333336</v>
       </c>
       <c r="C239" s="7">
-        <v>43594.375</v>
+        <v>43593.416666666664</v>
       </c>
       <c r="D239" s="6" t="s">
         <v>47</v>
@@ -6254,10 +6343,10 @@
         <v>27</v>
       </c>
       <c r="B240" s="7">
-        <v>43594.854166666664</v>
+        <v>43593.822916666664</v>
       </c>
       <c r="C240" s="7">
-        <v>43595.083333333336</v>
+        <v>43594.375</v>
       </c>
       <c r="D240" s="6" t="s">
         <v>47</v>
@@ -6272,10 +6361,10 @@
         <v>27</v>
       </c>
       <c r="B241" s="7">
-        <v>43595.239583333336</v>
+        <v>43594.854166666664</v>
       </c>
       <c r="C241" s="7">
-        <v>43595.333333333336</v>
+        <v>43595.083333333336</v>
       </c>
       <c r="D241" s="6" t="s">
         <v>47</v>
@@ -6290,17 +6379,17 @@
         <v>27</v>
       </c>
       <c r="B242" s="7">
-        <v>43596.333333333336</v>
+        <v>43595.239583333336</v>
       </c>
       <c r="C242" s="7">
-        <v>43596.888888888898</v>
+        <v>43595.333333333336</v>
       </c>
       <c r="D242" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E242" s="6"/>
       <c r="F242" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
@@ -6308,16 +6397,16 @@
         <v>27</v>
       </c>
       <c r="B243" s="7">
-        <v>43601.375</v>
+        <v>43596.333333333336</v>
       </c>
       <c r="C243" s="7">
-        <v>43601.875</v>
+        <v>43596.888888888898</v>
       </c>
       <c r="D243" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E243" s="6"/>
-      <c r="F243" t="s">
+      <c r="F243" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6326,10 +6415,10 @@
         <v>27</v>
       </c>
       <c r="B244" s="7">
-        <v>43604.416666666664</v>
+        <v>43601.375</v>
       </c>
       <c r="C244" s="7">
-        <v>43606.083333333336</v>
+        <v>43601.875</v>
       </c>
       <c r="D244" s="6" t="s">
         <v>47</v>
@@ -6344,10 +6433,10 @@
         <v>27</v>
       </c>
       <c r="B245" s="7">
-        <v>43606.916666666664</v>
+        <v>43604.416666666664</v>
       </c>
       <c r="C245" s="7">
-        <v>43608.625</v>
+        <v>43606.083333333336</v>
       </c>
       <c r="D245" s="6" t="s">
         <v>47</v>
@@ -6362,32 +6451,33 @@
         <v>27</v>
       </c>
       <c r="B246" s="7">
-        <v>43611.291666666664</v>
+        <v>43606.916666666664</v>
       </c>
       <c r="C246" s="7">
-        <v>43612.5</v>
+        <v>43608.625</v>
       </c>
       <c r="D246" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E246" s="6"/>
-      <c r="F246" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F246" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B247" s="7">
-        <v>43619.875</v>
+        <v>43611.291666666664</v>
       </c>
       <c r="C247" s="7">
-        <v>43620.875</v>
+        <v>43612.5</v>
       </c>
       <c r="D247" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="E247" s="6"/>
       <c r="F247" s="6" t="s">
         <v>63</v>
       </c>
@@ -6397,32 +6487,31 @@
         <v>27</v>
       </c>
       <c r="B248" s="7">
+        <v>43619.875</v>
+      </c>
+      <c r="C248" s="7">
+        <v>43620.875</v>
+      </c>
+      <c r="D248" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F248" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B249" s="7">
         <v>43711.770833333336</v>
       </c>
-      <c r="C248" s="7">
+      <c r="C249" s="7">
         <v>43712.958333333336</v>
       </c>
-      <c r="D248" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F248" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A249" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B249" s="13">
-        <v>43591.375</v>
-      </c>
-      <c r="C249" s="13">
-        <v>43591.513888888891</v>
-      </c>
       <c r="D249" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E249" s="6"/>
       <c r="F249" s="6" t="s">
         <v>63</v>
       </c>
@@ -6431,11 +6520,11 @@
       <c r="A250" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B250" s="23">
-        <v>43592.152777777781</v>
+      <c r="B250" s="13">
+        <v>43591.375</v>
       </c>
       <c r="C250" s="13">
-        <v>43592.614583333336</v>
+        <v>43591.513888888891</v>
       </c>
       <c r="D250" s="6" t="s">
         <v>47</v>
@@ -6449,11 +6538,11 @@
       <c r="A251" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B251" s="13">
-        <v>43593.815972222219</v>
+      <c r="B251" s="23">
+        <v>43592.152777777781</v>
       </c>
       <c r="C251" s="13">
-        <v>43594.416666666664</v>
+        <v>43592.614583333336</v>
       </c>
       <c r="D251" s="6" t="s">
         <v>47</v>
@@ -6468,10 +6557,10 @@
         <v>14</v>
       </c>
       <c r="B252" s="13">
-        <v>43594.850694444445</v>
+        <v>43593.815972222219</v>
       </c>
       <c r="C252" s="13">
-        <v>43594.979166666664</v>
+        <v>43594.416666666664</v>
       </c>
       <c r="D252" s="6" t="s">
         <v>47</v>
@@ -6486,10 +6575,10 @@
         <v>14</v>
       </c>
       <c r="B253" s="13">
-        <v>43596.1875</v>
+        <v>43594.850694444445</v>
       </c>
       <c r="C253" s="13">
-        <v>43597.076388888891</v>
+        <v>43594.979166666664</v>
       </c>
       <c r="D253" s="6" t="s">
         <v>47</v>
@@ -6504,16 +6593,16 @@
         <v>14</v>
       </c>
       <c r="B254" s="13">
-        <v>43601.409722222219</v>
+        <v>43596.1875</v>
       </c>
       <c r="C254" s="13">
-        <v>43601.743055555555</v>
+        <v>43597.076388888891</v>
       </c>
       <c r="D254" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E254" s="6"/>
-      <c r="F254" t="s">
+      <c r="F254" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6522,16 +6611,16 @@
         <v>14</v>
       </c>
       <c r="B255" s="13">
-        <v>43604.423611111109</v>
+        <v>43601.409722222219</v>
       </c>
       <c r="C255" s="13">
-        <v>43620.5</v>
+        <v>43601.743055555555</v>
       </c>
       <c r="D255" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E255" s="6"/>
-      <c r="F255" s="6" t="s">
+      <c r="F255" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6540,13 +6629,13 @@
         <v>14</v>
       </c>
       <c r="B256" s="13">
-        <v>43626.302083333336</v>
+        <v>43604.423611111109</v>
       </c>
       <c r="C256" s="13">
-        <v>43627.010416666664</v>
+        <v>43620.5</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="E256" s="6"/>
       <c r="F256" s="6" t="s">
@@ -6558,13 +6647,13 @@
         <v>14</v>
       </c>
       <c r="B257" s="13">
-        <v>43630.725694444445</v>
+        <v>43626.302083333336</v>
       </c>
       <c r="C257" s="13">
-        <v>43631.21875</v>
+        <v>43627.010416666664</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E257" s="6"/>
       <c r="F257" s="6" t="s">
@@ -6576,13 +6665,13 @@
         <v>14</v>
       </c>
       <c r="B258" s="13">
-        <v>43649.708333333336</v>
+        <v>43630.725694444445</v>
       </c>
       <c r="C258" s="13">
-        <v>43661.510416666664</v>
+        <v>43631.21875</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E258" s="6"/>
       <c r="F258" s="6" t="s">
@@ -6591,36 +6680,38 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B259" s="13">
-        <v>43591.375</v>
+        <v>43649.708333333336</v>
       </c>
       <c r="C259" s="13">
-        <v>43591.513888888891</v>
+        <v>43661.510416666664</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="E259" s="6"/>
       <c r="F259" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B260" s="23">
-        <v>43592.152777777781</v>
-      </c>
-      <c r="C260" s="13">
-        <v>43592.614583333336</v>
+        <v>14</v>
+      </c>
+      <c r="B260" s="7">
+        <v>43712.597222222219</v>
+      </c>
+      <c r="C260" s="7">
+        <v>43713.791666666664</v>
       </c>
       <c r="D260" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E260" s="6"/>
+      <c r="E260" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="F260" s="6" t="s">
         <v>63</v>
       </c>
@@ -6630,10 +6721,10 @@
         <v>15</v>
       </c>
       <c r="B261" s="13">
-        <v>43593.815972222219</v>
+        <v>43591.375</v>
       </c>
       <c r="C261" s="13">
-        <v>43594.416666666664</v>
+        <v>43591.513888888891</v>
       </c>
       <c r="D261" s="6" t="s">
         <v>47</v>
@@ -6643,36 +6734,38 @@
         <v>63</v>
       </c>
     </row>
-    <row r="262" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B262" s="13">
-        <v>43594.850694444445</v>
+      <c r="B262" s="23">
+        <v>43592.152777777781</v>
       </c>
       <c r="C262" s="13">
-        <v>43594.979166666664</v>
+        <v>43592.614583333336</v>
       </c>
       <c r="D262" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="E262" s="6"/>
       <c r="F262" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="263" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B263" s="13">
-        <v>43596.1875</v>
+        <v>43593.815972222219</v>
       </c>
       <c r="C263" s="13">
-        <v>43597.076388888891</v>
+        <v>43594.416666666664</v>
       </c>
       <c r="D263" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="E263" s="6"/>
       <c r="F263" s="6" t="s">
         <v>63</v>
       </c>
@@ -6682,10 +6775,10 @@
         <v>15</v>
       </c>
       <c r="B264" s="13">
-        <v>43601.409722222219</v>
+        <v>43594.850694444445</v>
       </c>
       <c r="C264" s="13">
-        <v>43601.743055555555</v>
+        <v>43594.979166666664</v>
       </c>
       <c r="D264" s="6" t="s">
         <v>47</v>
@@ -6699,13 +6792,13 @@
         <v>15</v>
       </c>
       <c r="B265" s="13">
-        <v>43604.423611111109</v>
+        <v>43596.1875</v>
       </c>
       <c r="C265" s="13">
-        <v>43634.40625</v>
+        <v>43597.076388888891</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="F265" s="6" t="s">
         <v>63</v>
@@ -6716,16 +6809,16 @@
         <v>15</v>
       </c>
       <c r="B266" s="13">
-        <v>43657.003472222219</v>
+        <v>43601.409722222219</v>
       </c>
       <c r="C266" s="13">
-        <v>43657.055555555555</v>
+        <v>43601.743055555555</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="F266" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="267" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -6733,157 +6826,156 @@
         <v>15</v>
       </c>
       <c r="B267" s="13">
-        <v>43657.003472222219</v>
+        <v>43604.423611111109</v>
       </c>
       <c r="C267" s="13">
-        <v>43657.055555555555</v>
+        <v>43634.40625</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F267" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="268" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B268" s="13">
-        <v>43657.003472222219</v>
-      </c>
-      <c r="C268" s="13">
-        <v>43657.055555555555</v>
+      <c r="B268" s="7">
+        <v>43712.597222222219</v>
+      </c>
+      <c r="C268" s="7">
+        <v>43713.583333333336</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>77</v>
+        <v>47</v>
+      </c>
+      <c r="E268" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="F268" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B269" s="24">
-        <v>43661.048611111109</v>
-      </c>
-      <c r="C269" s="7">
-        <v>43661.163194444445</v>
+        <v>16</v>
+      </c>
+      <c r="B269" s="13">
+        <v>43591.375</v>
+      </c>
+      <c r="C269" s="13">
+        <v>43591.75</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="E269" s="6"/>
       <c r="F269" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B270" s="7">
-        <v>43663.003472222219</v>
-      </c>
-      <c r="C270" s="7">
-        <v>43663.03125</v>
+        <v>16</v>
+      </c>
+      <c r="B270" s="23">
+        <v>43592.166666666664</v>
+      </c>
+      <c r="C270" s="13">
+        <v>43592.614583333336</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="E270" s="6"/>
       <c r="F270" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B271" s="7">
-        <v>43669.003472222219</v>
-      </c>
-      <c r="C271" s="7">
-        <v>43669.03125</v>
+        <v>16</v>
+      </c>
+      <c r="B271" s="13">
+        <v>43593.836805555555</v>
+      </c>
+      <c r="C271" s="13">
+        <v>43594.416666666664</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="E271" s="6"/>
-      <c r="F271" s="6" t="s">
-        <v>65</v>
+      <c r="F271" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B272" s="7">
-        <v>43669.71875</v>
-      </c>
-      <c r="C272" s="7">
-        <v>43669.795138888891</v>
+        <v>16</v>
+      </c>
+      <c r="B272" s="13">
+        <v>43596.1875</v>
+      </c>
+      <c r="C272" s="13">
+        <v>43597.076388888891</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E272" s="6"/>
+        <v>47</v>
+      </c>
       <c r="F272" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B273" s="7">
-        <v>43674.003472222219</v>
-      </c>
-      <c r="C273" s="7">
-        <v>43674.03125</v>
+        <v>16</v>
+      </c>
+      <c r="B273" s="13">
+        <v>43601.409722222219</v>
+      </c>
+      <c r="C273" s="13">
+        <v>43601.743055555555</v>
       </c>
       <c r="D273" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E273" s="6"/>
+        <v>47</v>
+      </c>
       <c r="F273" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B274" s="7">
-        <v>43675.003472222219</v>
-      </c>
-      <c r="C274" s="7">
-        <v>43675.048611111109</v>
+        <v>16</v>
+      </c>
+      <c r="B274" s="13">
+        <v>43604.423611111109</v>
+      </c>
+      <c r="C274" s="13">
+        <v>43605.923611111109</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E274" s="6"/>
-      <c r="F274" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
+      </c>
+      <c r="F274" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B275" s="7">
-        <v>43676.003472222219</v>
-      </c>
-      <c r="C275" s="7">
-        <v>43676.03125</v>
+        <v>16</v>
+      </c>
+      <c r="B275" s="13">
+        <v>43607.1875</v>
+      </c>
+      <c r="C275" s="13">
+        <v>43608.715277777781</v>
       </c>
       <c r="D275" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E275" s="6"/>
+        <v>47</v>
+      </c>
       <c r="F275" s="6" t="s">
         <v>63</v>
       </c>
@@ -6893,15 +6985,14 @@
         <v>16</v>
       </c>
       <c r="B276" s="13">
-        <v>43591.375</v>
+        <v>43611.375</v>
       </c>
       <c r="C276" s="13">
-        <v>43591.75</v>
+        <v>43612.739583333336</v>
       </c>
       <c r="D276" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E276" s="6"/>
       <c r="F276" s="6" t="s">
         <v>63</v>
       </c>
@@ -6910,64 +7001,59 @@
       <c r="A277" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B277" s="23">
-        <v>43592.166666666664</v>
+      <c r="B277" s="13">
+        <v>43633</v>
       </c>
       <c r="C277" s="13">
-        <v>43592.614583333336</v>
+        <v>43635</v>
       </c>
       <c r="D277" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E277" s="6"/>
       <c r="F277" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B278" s="13">
-        <v>43593.836805555555</v>
+        <v>43677.472222222219</v>
       </c>
       <c r="C278" s="13">
-        <v>43594.416666666664</v>
+        <v>43682.569444444445</v>
       </c>
       <c r="D278" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E278" s="6"/>
-      <c r="F278" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B279" s="13">
-        <v>43596.1875</v>
-      </c>
-      <c r="C279" s="13">
-        <v>43597.076388888891</v>
+      <c r="B279" s="7">
+        <v>43712.597222222219</v>
+      </c>
+      <c r="C279" s="7">
+        <v>43713.583333333336</v>
       </c>
       <c r="D279" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F279" s="6" t="s">
+      <c r="F279" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B280" s="13">
-        <v>43601.409722222219</v>
+        <v>32</v>
+      </c>
+      <c r="B280" s="23">
+        <v>43592.166666666664</v>
       </c>
       <c r="C280" s="13">
-        <v>43601.743055555555</v>
+        <v>43596.621527777781</v>
       </c>
       <c r="D280" s="6" t="s">
         <v>47</v>
@@ -6978,30 +7064,30 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B281" s="13">
-        <v>43604.423611111109</v>
+        <v>43594.895833333336</v>
       </c>
       <c r="C281" s="13">
-        <v>43605.923611111109</v>
+        <v>43595.53125</v>
       </c>
       <c r="D281" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F281" t="s">
+      <c r="F281" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B282" s="13">
-        <v>43607.1875</v>
+        <v>43601.409722222219</v>
       </c>
       <c r="C282" s="13">
-        <v>43608.715277777781</v>
+        <v>43601.743055555555</v>
       </c>
       <c r="D282" s="6" t="s">
         <v>47</v>
@@ -7012,13 +7098,13 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B283" s="13">
-        <v>43611.375</v>
+        <v>43604.340277777781</v>
       </c>
       <c r="C283" s="13">
-        <v>43612.739583333336</v>
+        <v>43605.552083333336</v>
       </c>
       <c r="D283" s="6" t="s">
         <v>47</v>
@@ -7029,13 +7115,13 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B284" s="13">
-        <v>43633</v>
+        <v>43607.052083333336</v>
       </c>
       <c r="C284" s="13">
-        <v>43635</v>
+        <v>43608.579861111109</v>
       </c>
       <c r="D284" s="6" t="s">
         <v>47</v>
@@ -7044,156 +7130,157 @@
         <v>63</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B285" s="13">
-        <v>43654.003472222219</v>
+        <v>43611.888888888891</v>
       </c>
       <c r="C285" s="13">
-        <v>43654.013888888891</v>
+        <v>43613.666666666664</v>
       </c>
       <c r="D285" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F285" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="E285"/>
+      <c r="F285" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B286" s="13">
-        <v>43654.003472222219</v>
+        <v>43682.916666666664</v>
       </c>
       <c r="C286" s="13">
-        <v>43654.013888888891</v>
+        <v>43692.538194444445</v>
       </c>
       <c r="D286" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F286" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+      <c r="F286" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B287" s="13">
-        <v>43654.003472222219</v>
-      </c>
-      <c r="C287" s="13">
-        <v>43654.013888888891</v>
+        <v>32</v>
+      </c>
+      <c r="B287" s="7">
+        <v>43712.597222222219</v>
+      </c>
+      <c r="C287" s="7">
+        <v>43713.583333333336</v>
       </c>
       <c r="D287" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F287" t="s">
+        <v>47</v>
+      </c>
+      <c r="F287" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A288" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B288" s="23">
+      <c r="A288" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B288" s="13">
+        <v>43591.375</v>
+      </c>
+      <c r="C288" s="13">
+        <v>43591.590277777781</v>
+      </c>
+      <c r="D288" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E288" s="6"/>
+      <c r="F288" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A289" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B289" s="23">
         <v>43592.166666666664</v>
       </c>
-      <c r="C288" s="13">
+      <c r="C289" s="13">
+        <v>43592.510416666664</v>
+      </c>
+      <c r="D289" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F289" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A290" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B290" s="13">
+        <v>43594.895833333336</v>
+      </c>
+      <c r="C290" s="13">
+        <v>43595.53125</v>
+      </c>
+      <c r="D290" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F290" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A291" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B291" s="13">
+        <v>43596.322916666664</v>
+      </c>
+      <c r="C291" s="13">
         <v>43596.621527777781</v>
       </c>
-      <c r="D288" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F288" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A289" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B289" s="13">
-        <v>43594.895833333336</v>
-      </c>
-      <c r="C289" s="13">
-        <v>43595.53125</v>
-      </c>
-      <c r="D289" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F289" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A290" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B290" s="13">
+      <c r="D291" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F291" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A292" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B292" s="13">
         <v>43601.409722222219</v>
       </c>
-      <c r="C290" s="13">
+      <c r="C292" s="13">
         <v>43601.743055555555</v>
       </c>
-      <c r="D290" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F290" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A291" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B291" s="13">
-        <v>43604.340277777781</v>
-      </c>
-      <c r="C291" s="13">
+      <c r="D292" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F292" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A293" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B293" s="13">
+        <v>43604.423611111109</v>
+      </c>
+      <c r="C293" s="13">
         <v>43605.552083333336</v>
       </c>
-      <c r="D291" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F291" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A292" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B292" s="13">
-        <v>43607.052083333336</v>
-      </c>
-      <c r="C292" s="13">
-        <v>43608.579861111109</v>
-      </c>
-      <c r="D292" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F292" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B293" s="13">
-        <v>43611.888888888891</v>
-      </c>
-      <c r="C293" s="13">
-        <v>43613.666666666664</v>
-      </c>
       <c r="D293" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E293"/>
       <c r="F293" s="6" t="s">
         <v>63</v>
       </c>
@@ -7203,16 +7290,16 @@
         <v>17</v>
       </c>
       <c r="B294" s="13">
-        <v>43591.375</v>
+        <v>43607.322916666664</v>
       </c>
       <c r="C294" s="13">
-        <v>43591.590277777781</v>
+        <v>43608.579861111109</v>
       </c>
       <c r="D294" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E294" s="6"/>
-      <c r="F294" t="s">
+      <c r="F294" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7220,98 +7307,101 @@
       <c r="A295" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B295" s="23">
-        <v>43592.166666666664</v>
+      <c r="B295" s="13">
+        <v>43611.375</v>
       </c>
       <c r="C295" s="13">
-        <v>43592.510416666664</v>
+        <v>43613.666666666664</v>
       </c>
       <c r="D295" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F295" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E295" s="6"/>
+      <c r="F295" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B296" s="13">
-        <v>43594.895833333336</v>
+        <v>43653.524305555555</v>
       </c>
       <c r="C296" s="13">
-        <v>43595.53125</v>
+        <v>43661.53125</v>
       </c>
       <c r="D296" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F296" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+      <c r="F296" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B297" s="13">
-        <v>43596.322916666664</v>
-      </c>
-      <c r="C297" s="13">
-        <v>43596.621527777781</v>
+      <c r="B297" s="7">
+        <v>43712.597222222219</v>
+      </c>
+      <c r="C297" s="7">
+        <v>43713.583333333336</v>
       </c>
       <c r="D297" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F297" t="s">
+      <c r="F297" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A298" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B298" s="13">
-        <v>43601.409722222219</v>
+      <c r="A298" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B298" s="23">
+        <v>43592.083333333336</v>
       </c>
       <c r="C298" s="13">
+        <v>43596.854166666664</v>
+      </c>
+      <c r="D298" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E298" s="6"/>
+      <c r="F298" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A299" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B299" s="13">
+        <v>43601.333333333336</v>
+      </c>
+      <c r="C299" s="13">
         <v>43601.743055555555</v>
       </c>
-      <c r="D298" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F298" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A299" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B299" s="13">
+      <c r="D299" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E299" s="6"/>
+      <c r="F299" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A300" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B300" s="13">
         <v>43604.423611111109</v>
       </c>
-      <c r="C299" s="13">
-        <v>43605.552083333336</v>
-      </c>
-      <c r="D299" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F299" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A300" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B300" s="13">
-        <v>43607.322916666664</v>
-      </c>
       <c r="C300" s="13">
-        <v>43608.579861111109</v>
-      </c>
-      <c r="D300" s="6" t="s">
+        <v>43606.09375</v>
+      </c>
+      <c r="D300" s="14" t="s">
         <v>47</v>
       </c>
       <c r="E300" s="6"/>
@@ -7320,16 +7410,16 @@
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A301" s="6" t="s">
-        <v>17</v>
+      <c r="A301" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="B301" s="13">
-        <v>43611.375</v>
+        <v>43607.059027777781</v>
       </c>
       <c r="C301" s="13">
-        <v>43613.666666666664</v>
-      </c>
-      <c r="D301" s="6" t="s">
+        <v>43608.868055555555</v>
+      </c>
+      <c r="D301" s="14" t="s">
         <v>47</v>
       </c>
       <c r="E301" s="6"/>
@@ -7341,11 +7431,11 @@
       <c r="A302" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B302" s="23">
-        <v>43592.083333333336</v>
+      <c r="B302" s="13">
+        <v>43611.375</v>
       </c>
       <c r="C302" s="13">
-        <v>43596.854166666664</v>
+        <v>43612.815972222219</v>
       </c>
       <c r="D302" s="14" t="s">
         <v>47</v>
@@ -7360,10 +7450,10 @@
         <v>33</v>
       </c>
       <c r="B303" s="13">
-        <v>43601.333333333336</v>
+        <v>43634.013888888891</v>
       </c>
       <c r="C303" s="13">
-        <v>43601.743055555555</v>
+        <v>43634.506944444445</v>
       </c>
       <c r="D303" s="14" t="s">
         <v>47</v>
@@ -7374,16 +7464,16 @@
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A304" s="14" t="s">
-        <v>33</v>
+      <c r="A304" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="B304" s="13">
-        <v>43604.423611111109</v>
+        <v>43591.375</v>
       </c>
       <c r="C304" s="13">
-        <v>43606.09375</v>
-      </c>
-      <c r="D304" s="14" t="s">
+        <v>43591.836805555555</v>
+      </c>
+      <c r="D304" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E304" s="6"/>
@@ -7392,16 +7482,16 @@
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A305" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B305" s="13">
-        <v>43607.059027777781</v>
+      <c r="A305" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B305" s="23">
+        <v>43592.083333333336</v>
       </c>
       <c r="C305" s="13">
-        <v>43608.868055555555</v>
-      </c>
-      <c r="D305" s="14" t="s">
+        <v>43592.631944444445</v>
+      </c>
+      <c r="D305" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E305" s="6"/>
@@ -7410,16 +7500,16 @@
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A306" s="14" t="s">
-        <v>33</v>
+      <c r="A306" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="B306" s="13">
-        <v>43611.375</v>
+        <v>43595.104166666664</v>
       </c>
       <c r="C306" s="13">
-        <v>43612.815972222219</v>
-      </c>
-      <c r="D306" s="14" t="s">
+        <v>43595.649305555555</v>
+      </c>
+      <c r="D306" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E306" s="6"/>
@@ -7428,16 +7518,16 @@
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A307" s="14" t="s">
-        <v>33</v>
+      <c r="A307" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="B307" s="13">
-        <v>43634.013888888891</v>
+        <v>43596.322916666664</v>
       </c>
       <c r="C307" s="13">
-        <v>43634.506944444445</v>
-      </c>
-      <c r="D307" s="14" t="s">
+        <v>43596.854166666664</v>
+      </c>
+      <c r="D307" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E307" s="6"/>
@@ -7450,10 +7540,10 @@
         <v>34</v>
       </c>
       <c r="B308" s="13">
-        <v>43591.375</v>
+        <v>43601.333333333336</v>
       </c>
       <c r="C308" s="13">
-        <v>43591.836805555555</v>
+        <v>43601.743055555555</v>
       </c>
       <c r="D308" s="6" t="s">
         <v>47</v>
@@ -7467,11 +7557,11 @@
       <c r="A309" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B309" s="23">
-        <v>43592.083333333336</v>
+      <c r="B309" s="13">
+        <v>43604.423611111109</v>
       </c>
       <c r="C309" s="13">
-        <v>43592.631944444445</v>
+        <v>43606.09375</v>
       </c>
       <c r="D309" s="6" t="s">
         <v>47</v>
@@ -7486,10 +7576,10 @@
         <v>34</v>
       </c>
       <c r="B310" s="13">
-        <v>43595.104166666664</v>
+        <v>43606.885416666664</v>
       </c>
       <c r="C310" s="13">
-        <v>43595.649305555555</v>
+        <v>43608.868055555555</v>
       </c>
       <c r="D310" s="6" t="s">
         <v>47</v>
@@ -7504,10 +7594,10 @@
         <v>34</v>
       </c>
       <c r="B311" s="13">
-        <v>43596.322916666664</v>
+        <v>43611.375</v>
       </c>
       <c r="C311" s="13">
-        <v>43596.854166666664</v>
+        <v>43612.815972222219</v>
       </c>
       <c r="D311" s="6" t="s">
         <v>47</v>
@@ -7517,33 +7607,32 @@
         <v>63</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B312" s="13">
-        <v>43601.333333333336</v>
-      </c>
-      <c r="C312" s="13">
-        <v>43601.743055555555</v>
+      <c r="B312" s="7">
+        <v>43712.597222222219</v>
+      </c>
+      <c r="C312" s="7">
+        <v>43713.583333333336</v>
       </c>
       <c r="D312" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E312" s="6"/>
       <c r="F312" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B313" s="13">
-        <v>43604.423611111109</v>
+        <v>43591.375</v>
       </c>
       <c r="C313" s="13">
-        <v>43606.09375</v>
+        <v>43591.59375</v>
       </c>
       <c r="D313" s="6" t="s">
         <v>47</v>
@@ -7555,13 +7644,13 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B314" s="13">
-        <v>43606.885416666664</v>
+        <v>35</v>
+      </c>
+      <c r="B314" s="23">
+        <v>43592.083333333336</v>
       </c>
       <c r="C314" s="13">
-        <v>43608.868055555555</v>
+        <v>43592.569444444445</v>
       </c>
       <c r="D314" s="6" t="s">
         <v>47</v>
@@ -7573,13 +7662,13 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B315" s="13">
-        <v>43611.375</v>
+        <v>43595.104166666664</v>
       </c>
       <c r="C315" s="13">
-        <v>43612.815972222219</v>
+        <v>43595.534722222219</v>
       </c>
       <c r="D315" s="6" t="s">
         <v>47</v>
@@ -7594,10 +7683,10 @@
         <v>35</v>
       </c>
       <c r="B316" s="13">
-        <v>43591.375</v>
+        <v>43596.322916666664</v>
       </c>
       <c r="C316" s="13">
-        <v>43591.59375</v>
+        <v>43596.84375</v>
       </c>
       <c r="D316" s="6" t="s">
         <v>47</v>
@@ -7611,11 +7700,11 @@
       <c r="A317" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B317" s="23">
-        <v>43592.083333333336</v>
+      <c r="B317" s="13">
+        <v>43601.333333333336</v>
       </c>
       <c r="C317" s="13">
-        <v>43592.569444444445</v>
+        <v>43601.680555555555</v>
       </c>
       <c r="D317" s="6" t="s">
         <v>47</v>
@@ -7630,10 +7719,10 @@
         <v>35</v>
       </c>
       <c r="B318" s="13">
-        <v>43595.104166666664</v>
+        <v>43604.423611111109</v>
       </c>
       <c r="C318" s="13">
-        <v>43595.534722222219</v>
+        <v>43605.71875</v>
       </c>
       <c r="D318" s="6" t="s">
         <v>47</v>
@@ -7648,10 +7737,10 @@
         <v>35</v>
       </c>
       <c r="B319" s="13">
-        <v>43596.322916666664</v>
+        <v>43606.090277777781</v>
       </c>
       <c r="C319" s="13">
-        <v>43596.84375</v>
+        <v>43606.173611111109</v>
       </c>
       <c r="D319" s="6" t="s">
         <v>47</v>
@@ -7666,10 +7755,10 @@
         <v>35</v>
       </c>
       <c r="B320" s="13">
-        <v>43601.333333333336</v>
+        <v>43606.958333333336</v>
       </c>
       <c r="C320" s="13">
-        <v>43601.680555555555</v>
+        <v>43608.552083333336</v>
       </c>
       <c r="D320" s="6" t="s">
         <v>47</v>
@@ -7684,10 +7773,10 @@
         <v>35</v>
       </c>
       <c r="B321" s="13">
-        <v>43604.423611111109</v>
+        <v>43611.375</v>
       </c>
       <c r="C321" s="13">
-        <v>43605.71875</v>
+        <v>43612.309027777781</v>
       </c>
       <c r="D321" s="6" t="s">
         <v>47</v>
@@ -7697,53 +7786,50 @@
         <v>63</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B322" s="13">
-        <v>43606.090277777781</v>
-      </c>
-      <c r="C322" s="13">
-        <v>43606.173611111109</v>
+      <c r="B322" s="7">
+        <v>43712.597222222219</v>
+      </c>
+      <c r="C322" s="7">
+        <v>43713.583333333336</v>
       </c>
       <c r="D322" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E322" s="6"/>
       <c r="F322" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B323" s="13">
-        <v>43606.958333333336</v>
+        <v>43591.375</v>
       </c>
       <c r="C323" s="13">
-        <v>43608.552083333336</v>
-      </c>
-      <c r="D323" s="6" t="s">
+        <v>43591.520833333336</v>
+      </c>
+      <c r="D323" s="14" t="s">
         <v>47</v>
       </c>
       <c r="E323" s="6"/>
-      <c r="F323" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="F323" s="6"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B324" s="13">
-        <v>43611.375</v>
+        <v>36</v>
+      </c>
+      <c r="B324" s="23">
+        <v>43592.159722222219</v>
       </c>
       <c r="C324" s="13">
-        <v>43612.309027777781</v>
-      </c>
-      <c r="D324" s="6" t="s">
+        <v>43592.427083333336</v>
+      </c>
+      <c r="D324" s="14" t="s">
         <v>47</v>
       </c>
       <c r="E324" s="6"/>
@@ -7754,10 +7840,10 @@
         <v>36</v>
       </c>
       <c r="B325" s="13">
-        <v>43591.375</v>
+        <v>43595.263888888891</v>
       </c>
       <c r="C325" s="13">
-        <v>43591.520833333336</v>
+        <v>43595.534722222219</v>
       </c>
       <c r="D325" s="14" t="s">
         <v>47</v>
@@ -7769,11 +7855,11 @@
       <c r="A326" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B326" s="23">
-        <v>43592.159722222219</v>
+      <c r="B326" s="13">
+        <v>43596.322916666664</v>
       </c>
       <c r="C326" s="13">
-        <v>43592.427083333336</v>
+        <v>43596.84375</v>
       </c>
       <c r="D326" s="14" t="s">
         <v>47</v>
@@ -7786,10 +7872,10 @@
         <v>36</v>
       </c>
       <c r="B327" s="13">
-        <v>43595.263888888891</v>
+        <v>43601.333333333336</v>
       </c>
       <c r="C327" s="13">
-        <v>43595.534722222219</v>
+        <v>43601.680555555555</v>
       </c>
       <c r="D327" s="14" t="s">
         <v>47</v>
@@ -7802,10 +7888,10 @@
         <v>36</v>
       </c>
       <c r="B328" s="13">
-        <v>43596.322916666664</v>
+        <v>43604.423611111109</v>
       </c>
       <c r="C328" s="13">
-        <v>43596.84375</v>
+        <v>43605.71875</v>
       </c>
       <c r="D328" s="14" t="s">
         <v>47</v>
@@ -7818,10 +7904,10 @@
         <v>36</v>
       </c>
       <c r="B329" s="13">
-        <v>43601.333333333336</v>
+        <v>43606.958333333336</v>
       </c>
       <c r="C329" s="13">
-        <v>43601.680555555555</v>
+        <v>43608.552083333336</v>
       </c>
       <c r="D329" s="14" t="s">
         <v>47</v>
@@ -7834,67 +7920,68 @@
         <v>36</v>
       </c>
       <c r="B330" s="13">
-        <v>43604.423611111109</v>
+        <v>43611.395833333336</v>
       </c>
       <c r="C330" s="13">
-        <v>43605.71875</v>
+        <v>43612.309027777781</v>
       </c>
       <c r="D330" s="14" t="s">
         <v>47</v>
       </c>
       <c r="E330" s="6"/>
-      <c r="F330" s="6"/>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F330" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" s="6" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B331" s="13">
-        <v>43606.958333333336</v>
-      </c>
-      <c r="C331" s="13">
-        <v>43608.552083333336</v>
-      </c>
-      <c r="D331" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E331" s="6"/>
-      <c r="F331" s="6"/>
+      <c r="B331" s="7">
+        <v>43712.597222222219</v>
+      </c>
+      <c r="C331" s="7">
+        <v>43723.996527777781</v>
+      </c>
+      <c r="D331" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F331" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B332" s="13">
-        <v>43611.395833333336</v>
-      </c>
-      <c r="C332" s="13">
-        <v>43612.309027777781</v>
-      </c>
-      <c r="D332" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B332" s="7">
+        <v>43591.5</v>
+      </c>
+      <c r="C332" s="7">
+        <v>43592.041666666664</v>
+      </c>
+      <c r="D332" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E332" s="6"/>
       <c r="F332" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B333" s="13">
-        <v>43664.388888888891</v>
-      </c>
-      <c r="C333" s="13">
-        <v>43664.670138888891</v>
-      </c>
-      <c r="D333" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E333" s="6" t="s">
-        <v>107</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B333" s="7">
+        <v>43592.427083333336</v>
+      </c>
+      <c r="C333" s="7">
+        <v>43593.125</v>
+      </c>
+      <c r="D333" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E333" s="6"/>
       <c r="F333" s="6" t="s">
         <v>56</v>
       </c>
@@ -7904,10 +7991,10 @@
         <v>37</v>
       </c>
       <c r="B334" s="7">
-        <v>43591.5</v>
+        <v>43594.114583333336</v>
       </c>
       <c r="C334" s="7">
-        <v>43592.041666666664</v>
+        <v>43594.541666666664</v>
       </c>
       <c r="D334" s="6" t="s">
         <v>47</v>
@@ -7922,10 +8009,10 @@
         <v>37</v>
       </c>
       <c r="B335" s="7">
-        <v>43592.427083333336</v>
+        <v>43595.083333333336</v>
       </c>
       <c r="C335" s="7">
-        <v>43593.125</v>
+        <v>43595.3125</v>
       </c>
       <c r="D335" s="6" t="s">
         <v>47</v>
@@ -7940,17 +8027,17 @@
         <v>37</v>
       </c>
       <c r="B336" s="7">
-        <v>43594.114583333336</v>
+        <v>43596.5</v>
       </c>
       <c r="C336" s="7">
-        <v>43594.541666666664</v>
+        <v>43597.416666666664</v>
       </c>
       <c r="D336" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E336" s="6"/>
       <c r="F336" s="6" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
@@ -7958,85 +8045,64 @@
         <v>37</v>
       </c>
       <c r="B337" s="7">
-        <v>43595.083333333336</v>
+        <v>43633.25</v>
       </c>
       <c r="C337" s="7">
-        <v>43595.3125</v>
+        <v>43633.833333333336</v>
       </c>
       <c r="D337" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E337" s="6"/>
       <c r="F337" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A338" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B338" s="7">
-        <v>43596.5</v>
+        <v>43666.25</v>
       </c>
       <c r="C338" s="7">
-        <v>43597.416666666664</v>
+        <v>43677.666666666664</v>
       </c>
       <c r="D338" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E338" s="6"/>
-      <c r="F338" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B339" s="7">
-        <v>43633.25</v>
+        <v>43712.597222222219</v>
       </c>
       <c r="C339" s="7">
-        <v>43633.833333333336</v>
+        <v>43719.996527777781</v>
       </c>
       <c r="D339" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E339" s="6"/>
-      <c r="F339" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A340" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B340" s="7">
-        <v>43645</v>
-      </c>
-      <c r="C340" s="7">
-        <v>43645.1875</v>
-      </c>
-      <c r="D340" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E340" s="6"/>
-      <c r="F340" s="6" t="s">
-        <v>89</v>
-      </c>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A340" s="3"/>
+      <c r="B340" s="7"/>
+      <c r="C340" s="7"/>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B341" s="7">
-        <v>43646.020833333336</v>
+        <v>43594.114583333336</v>
       </c>
       <c r="C341" s="7">
-        <v>43646.1875</v>
+        <v>43594.291666666664</v>
       </c>
       <c r="D341" s="6" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="E341" s="6"/>
       <c r="F341" s="6" t="s">
@@ -8048,17 +8114,17 @@
         <v>38</v>
       </c>
       <c r="B342" s="7">
-        <v>43594.114583333336</v>
+        <v>43596.541666666664</v>
       </c>
       <c r="C342" s="7">
-        <v>43594.291666666664</v>
+        <v>43597.083333333336</v>
       </c>
       <c r="D342" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E342" s="6"/>
       <c r="F342" s="6" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
@@ -8066,10 +8132,10 @@
         <v>38</v>
       </c>
       <c r="B343" s="7">
-        <v>43596.541666666664</v>
+        <v>43633.333333333336</v>
       </c>
       <c r="C343" s="7">
-        <v>43597.083333333336</v>
+        <v>43633.833333333336</v>
       </c>
       <c r="D343" s="6" t="s">
         <v>47</v>
@@ -8084,13 +8150,13 @@
         <v>38</v>
       </c>
       <c r="B344" s="7">
-        <v>43633.333333333336</v>
+        <v>43641.416666666664</v>
       </c>
       <c r="C344" s="7">
-        <v>43633.833333333336</v>
+        <v>43641.427083333336</v>
       </c>
       <c r="D344" s="6" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="E344" s="6"/>
       <c r="F344" s="6" t="s">
@@ -8102,13 +8168,13 @@
         <v>38</v>
       </c>
       <c r="B345" s="7">
-        <v>43641.416666666664</v>
+        <v>43645</v>
       </c>
       <c r="C345" s="7">
-        <v>43641.427083333336</v>
+        <v>43645.1875</v>
       </c>
       <c r="D345" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E345" s="6"/>
       <c r="F345" s="6" t="s">
@@ -8120,17 +8186,17 @@
         <v>38</v>
       </c>
       <c r="B346" s="7">
-        <v>43645</v>
+        <v>43645.229166666664</v>
       </c>
       <c r="C346" s="7">
-        <v>43645.1875</v>
+        <v>43645.395833333336</v>
       </c>
       <c r="D346" s="6" t="s">
         <v>88</v>
       </c>
       <c r="E346" s="6"/>
       <c r="F346" s="6" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
@@ -8138,35 +8204,35 @@
         <v>38</v>
       </c>
       <c r="B347" s="7">
-        <v>43645.229166666664</v>
+        <v>43660.770833333336</v>
       </c>
       <c r="C347" s="7">
-        <v>43645.395833333336</v>
+        <v>43661.513888888891</v>
       </c>
       <c r="D347" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E347" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="E347" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="F347" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B348" s="7">
-        <v>43660.770833333336</v>
+        <v>43591.583333333336</v>
       </c>
       <c r="C348" s="7">
-        <v>43661.513888888891</v>
+        <v>43592.041666666664</v>
       </c>
       <c r="D348" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E348" s="6" t="s">
-        <v>109</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E348" s="6"/>
       <c r="F348" s="6" t="s">
         <v>56</v>
       </c>
@@ -8176,10 +8242,10 @@
         <v>39</v>
       </c>
       <c r="B349" s="7">
-        <v>43591.583333333336</v>
+        <v>43592.427083333336</v>
       </c>
       <c r="C349" s="7">
-        <v>43592.041666666664</v>
+        <v>43593.125</v>
       </c>
       <c r="D349" s="6" t="s">
         <v>47</v>
@@ -8194,10 +8260,10 @@
         <v>39</v>
       </c>
       <c r="B350" s="7">
-        <v>43592.427083333336</v>
+        <v>43593.958333333336</v>
       </c>
       <c r="C350" s="7">
-        <v>43593.125</v>
+        <v>43594.375</v>
       </c>
       <c r="D350" s="6" t="s">
         <v>47</v>
@@ -8212,10 +8278,10 @@
         <v>39</v>
       </c>
       <c r="B351" s="7">
-        <v>43593.958333333336</v>
+        <v>43594.833333333336</v>
       </c>
       <c r="C351" s="7">
-        <v>43594.375</v>
+        <v>43595.3125</v>
       </c>
       <c r="D351" s="6" t="s">
         <v>47</v>
@@ -8230,31 +8296,31 @@
         <v>39</v>
       </c>
       <c r="B352" s="7">
-        <v>43594.833333333336</v>
+        <v>43596.541666666664</v>
       </c>
       <c r="C352" s="7">
-        <v>43595.3125</v>
+        <v>43597.291666666664</v>
       </c>
       <c r="D352" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E352" s="6"/>
       <c r="F352" s="6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B353" s="7">
-        <v>43596.541666666664</v>
+        <v>43586</v>
       </c>
       <c r="C353" s="7">
-        <v>43597.291666666664</v>
+        <v>43586.847222222219</v>
       </c>
       <c r="D353" s="6" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="E353" s="6"/>
       <c r="F353" s="6" t="s">
@@ -8266,13 +8332,13 @@
         <v>44</v>
       </c>
       <c r="B354" s="7">
-        <v>43586</v>
+        <v>43591.375</v>
       </c>
       <c r="C354" s="7">
-        <v>43586.847222222219</v>
+        <v>43591.458333333336</v>
       </c>
       <c r="D354" s="6" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="E354" s="6"/>
       <c r="F354" s="6" t="s">
@@ -8284,10 +8350,10 @@
         <v>44</v>
       </c>
       <c r="B355" s="7">
-        <v>43591.375</v>
+        <v>43596.291666666664</v>
       </c>
       <c r="C355" s="7">
-        <v>43591.458333333336</v>
+        <v>43596.458333333336</v>
       </c>
       <c r="D355" s="6" t="s">
         <v>47</v>
@@ -8302,15 +8368,17 @@
         <v>44</v>
       </c>
       <c r="B356" s="7">
-        <v>43596.291666666664</v>
+        <v>43601.333333333336</v>
       </c>
       <c r="C356" s="7">
-        <v>43596.458333333336</v>
+        <v>43601.583333333336</v>
       </c>
       <c r="D356" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E356" s="6"/>
+      <c r="E356" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F356" s="6" t="s">
         <v>63</v>
       </c>
@@ -8320,17 +8388,15 @@
         <v>44</v>
       </c>
       <c r="B357" s="7">
-        <v>43601.333333333336</v>
+        <v>43604.291666666664</v>
       </c>
       <c r="C357" s="7">
-        <v>43601.583333333336</v>
+        <v>43605.583333333336</v>
       </c>
       <c r="D357" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E357" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="E357" s="6"/>
       <c r="F357" s="6" t="s">
         <v>63</v>
       </c>
@@ -8340,10 +8406,10 @@
         <v>44</v>
       </c>
       <c r="B358" s="7">
-        <v>43604.291666666664</v>
+        <v>43607.25</v>
       </c>
       <c r="C358" s="7">
-        <v>43605.583333333336</v>
+        <v>43607.541666666664</v>
       </c>
       <c r="D358" s="6" t="s">
         <v>47</v>
@@ -8358,17 +8424,17 @@
         <v>44</v>
       </c>
       <c r="B359" s="7">
-        <v>43607.25</v>
+        <v>43611.291666666664</v>
       </c>
       <c r="C359" s="7">
-        <v>43607.541666666664</v>
+        <v>43613</v>
       </c>
       <c r="D359" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E359" s="6"/>
       <c r="F359" s="6" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
@@ -8376,10 +8442,10 @@
         <v>44</v>
       </c>
       <c r="B360" s="7">
-        <v>43611.291666666664</v>
+        <v>43633.166666666664</v>
       </c>
       <c r="C360" s="7">
-        <v>43613</v>
+        <v>43633.458333333336</v>
       </c>
       <c r="D360" s="6" t="s">
         <v>47</v>
@@ -8394,33 +8460,32 @@
         <v>44</v>
       </c>
       <c r="B361" s="7">
-        <v>43633.166666666664</v>
+        <v>43637.270833333336</v>
       </c>
       <c r="C361" s="7">
-        <v>43633.458333333336</v>
+        <v>43637.416666666664</v>
       </c>
       <c r="D361" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E361" s="6"/>
       <c r="F361" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A362" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A362" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B362" s="7">
-        <v>43637.270833333336</v>
+        <v>43654.288194444445</v>
       </c>
       <c r="C362" s="7">
-        <v>43637.416666666664</v>
+        <v>43654.788194444445</v>
       </c>
       <c r="D362" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E362" s="6"/>
+        <v>108</v>
+      </c>
       <c r="F362" s="6" t="s">
         <v>63</v>
       </c>
@@ -8430,49 +8495,52 @@
         <v>44</v>
       </c>
       <c r="B363" s="7">
-        <v>43654.288194444445</v>
+        <v>43691.427083333336</v>
       </c>
       <c r="C363" s="7">
-        <v>43654.788194444445</v>
+        <v>43692.385416666664</v>
       </c>
       <c r="D363" s="6" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F363" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="364" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B364" s="7">
-        <v>43691.427083333336</v>
+        <v>43684.361111111109</v>
       </c>
       <c r="C364" s="7">
-        <v>43692.385416666664</v>
+        <v>43685.361111111109</v>
       </c>
       <c r="D364" s="6" t="s">
-        <v>121</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E364" s="6"/>
       <c r="F364" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A365" s="7" t="s">
-        <v>44</v>
+      <c r="A365" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B365" s="7">
-        <v>43684.361111111109</v>
+        <v>43586</v>
       </c>
       <c r="C365" s="7">
-        <v>43685.361111111109</v>
+        <v>43586.572916666664</v>
       </c>
       <c r="D365" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E365" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="E365" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F365" s="6" t="s">
         <v>63</v>
       </c>
@@ -8482,17 +8550,15 @@
         <v>45</v>
       </c>
       <c r="B366" s="7">
-        <v>43586</v>
+        <v>43591.375</v>
       </c>
       <c r="C366" s="7">
-        <v>43586.572916666664</v>
+        <v>43591.458333333336</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E366" s="6" t="s">
-        <v>51</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E366" s="6"/>
       <c r="F366" s="6" t="s">
         <v>63</v>
       </c>
@@ -8502,13 +8568,13 @@
         <v>45</v>
       </c>
       <c r="B367" s="7">
-        <v>43591.375</v>
+        <v>43594.875</v>
       </c>
       <c r="C367" s="7">
-        <v>43591.458333333336</v>
+        <v>43595.708333333336</v>
       </c>
       <c r="D367" s="6" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E367" s="6"/>
       <c r="F367" s="6" t="s">
@@ -8520,13 +8586,13 @@
         <v>45</v>
       </c>
       <c r="B368" s="7">
-        <v>43594.875</v>
+        <v>43596.291666666664</v>
       </c>
       <c r="C368" s="7">
-        <v>43595.708333333336</v>
+        <v>43596.458333333336</v>
       </c>
       <c r="D368" s="6" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E368" s="6"/>
       <c r="F368" s="6" t="s">
@@ -8538,13 +8604,13 @@
         <v>45</v>
       </c>
       <c r="B369" s="7">
-        <v>43596.291666666664</v>
+        <v>43598</v>
       </c>
       <c r="C369" s="7">
-        <v>43596.458333333336</v>
+        <v>43598.697916666664</v>
       </c>
       <c r="D369" s="6" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E369" s="6"/>
       <c r="F369" s="6" t="s">
@@ -8556,10 +8622,10 @@
         <v>45</v>
       </c>
       <c r="B370" s="7">
-        <v>43598</v>
+        <v>43599.479166666664</v>
       </c>
       <c r="C370" s="7">
-        <v>43598.697916666664</v>
+        <v>43600.114583333336</v>
       </c>
       <c r="D370" s="6" t="s">
         <v>59</v>
@@ -8574,13 +8640,13 @@
         <v>45</v>
       </c>
       <c r="B371" s="7">
-        <v>43599.479166666664</v>
+        <v>43601.333333333336</v>
       </c>
       <c r="C371" s="7">
-        <v>43600.114583333336</v>
+        <v>43601.583333333336</v>
       </c>
       <c r="D371" s="6" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E371" s="6"/>
       <c r="F371" s="6" t="s">
@@ -8592,10 +8658,10 @@
         <v>45</v>
       </c>
       <c r="B372" s="7">
-        <v>43601.333333333336</v>
+        <v>43604.291666666664</v>
       </c>
       <c r="C372" s="7">
-        <v>43601.583333333336</v>
+        <v>43605.583333333336</v>
       </c>
       <c r="D372" s="6" t="s">
         <v>47</v>
@@ -8610,10 +8676,10 @@
         <v>45</v>
       </c>
       <c r="B373" s="7">
-        <v>43604.291666666664</v>
+        <v>43607.25</v>
       </c>
       <c r="C373" s="7">
-        <v>43605.583333333336</v>
+        <v>43607.541666666664</v>
       </c>
       <c r="D373" s="6" t="s">
         <v>47</v>
@@ -8628,17 +8694,17 @@
         <v>45</v>
       </c>
       <c r="B374" s="7">
-        <v>43607.25</v>
+        <v>43611.291666666664</v>
       </c>
       <c r="C374" s="7">
-        <v>43607.541666666664</v>
+        <v>43613</v>
       </c>
       <c r="D374" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E374" s="6"/>
       <c r="F374" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
@@ -8646,17 +8712,19 @@
         <v>45</v>
       </c>
       <c r="B375" s="7">
-        <v>43611.291666666664</v>
+        <v>43655.552083333336</v>
       </c>
       <c r="C375" s="7">
-        <v>43613</v>
+        <v>43661.5625</v>
       </c>
       <c r="D375" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E375" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="E375" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="F375" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
@@ -8664,19 +8732,17 @@
         <v>45</v>
       </c>
       <c r="B376" s="7">
-        <v>43655.552083333336</v>
+        <v>43661.5625</v>
       </c>
       <c r="C376" s="7">
-        <v>43661.5625</v>
+        <v>43661.604166666664</v>
       </c>
       <c r="D376" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E376" s="6" t="s">
-        <v>96</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="E376" s="6"/>
       <c r="F376" s="6" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
@@ -8690,7 +8756,7 @@
         <v>43661.604166666664</v>
       </c>
       <c r="D377" s="6" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="E377" s="6"/>
       <c r="F377" s="6" t="s">
@@ -8698,35 +8764,35 @@
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A378" s="3" t="s">
+      <c r="A378" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B378" s="7">
-        <v>43661.5625</v>
+        <v>43668.784722222219</v>
       </c>
       <c r="C378" s="7">
-        <v>43661.604166666664</v>
+        <v>43669.243055555555</v>
       </c>
       <c r="D378" s="6" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="E378" s="6"/>
       <c r="F378" s="6" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A379" s="7" t="s">
-        <v>45</v>
+      <c r="A379" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B379" s="7">
-        <v>43668.784722222219</v>
+        <v>43619</v>
       </c>
       <c r="C379" s="7">
-        <v>43669.243055555555</v>
+        <v>43619.125</v>
       </c>
       <c r="D379" s="6" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="E379" s="6"/>
       <c r="F379" s="6" t="s">
@@ -8738,10 +8804,10 @@
         <v>46</v>
       </c>
       <c r="B380" s="7">
-        <v>43619</v>
+        <v>43633.083333333336</v>
       </c>
       <c r="C380" s="7">
-        <v>43619.125</v>
+        <v>43633.458333333336</v>
       </c>
       <c r="D380" s="6" t="s">
         <v>47</v>
@@ -8756,13 +8822,13 @@
         <v>46</v>
       </c>
       <c r="B381" s="7">
-        <v>43633.083333333336</v>
+        <v>43637</v>
       </c>
       <c r="C381" s="7">
-        <v>43633.458333333336</v>
+        <v>43641.541666666664</v>
       </c>
       <c r="D381" s="6" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="E381" s="6"/>
       <c r="F381" s="6" t="s">
@@ -8774,10 +8840,10 @@
         <v>46</v>
       </c>
       <c r="B382" s="7">
-        <v>43637</v>
+        <v>43643.291666666664</v>
       </c>
       <c r="C382" s="7">
-        <v>43641.541666666664</v>
+        <v>43643.666666666664</v>
       </c>
       <c r="D382" s="6" t="s">
         <v>88</v>
@@ -8792,10 +8858,10 @@
         <v>46</v>
       </c>
       <c r="B383" s="7">
-        <v>43643.291666666664</v>
+        <v>43644.229166666664</v>
       </c>
       <c r="C383" s="7">
-        <v>43643.666666666664</v>
+        <v>43644.583333333336</v>
       </c>
       <c r="D383" s="6" t="s">
         <v>88</v>
@@ -8810,64 +8876,64 @@
         <v>46</v>
       </c>
       <c r="B384" s="7">
-        <v>43644.229166666664</v>
+        <v>43645.21875</v>
       </c>
       <c r="C384" s="7">
-        <v>43644.583333333336</v>
+        <v>43645.5625</v>
       </c>
       <c r="D384" s="6" t="s">
         <v>88</v>
       </c>
       <c r="E384" s="6"/>
       <c r="F384" s="6" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B385" s="7">
-        <v>43645.21875</v>
-      </c>
-      <c r="C385" s="7">
-        <v>43645.5625</v>
-      </c>
-      <c r="D385" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E385" s="6"/>
+      <c r="B385" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D385" s="6"/>
+      <c r="E385" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F385" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A386" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B386" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D386" s="6"/>
-      <c r="E386" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="A386" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B386" s="28">
+        <v>43591.375</v>
+      </c>
+      <c r="C386" s="28">
+        <v>43592.458333333336</v>
+      </c>
+      <c r="D386" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E386" s="6"/>
       <c r="F386" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A387" s="32" t="s">
+      <c r="A387" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B387" s="29">
-        <v>43591.375</v>
-      </c>
-      <c r="C387" s="29">
-        <v>43592.458333333336</v>
-      </c>
-      <c r="D387" s="28" t="s">
-        <v>47</v>
+      <c r="B387" s="28">
+        <v>43592.125</v>
+      </c>
+      <c r="C387" s="28">
+        <v>43594.416666666664</v>
+      </c>
+      <c r="D387" s="27" t="s">
+        <v>86</v>
       </c>
       <c r="E387" s="6"/>
       <c r="F387" s="6" t="s">
@@ -8875,17 +8941,17 @@
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A388" s="32" t="s">
+      <c r="A388" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B388" s="29">
-        <v>43592.125</v>
-      </c>
-      <c r="C388" s="29">
-        <v>43594.416666666664</v>
-      </c>
-      <c r="D388" s="28" t="s">
-        <v>86</v>
+      <c r="B388" s="28">
+        <v>43595.291666666664</v>
+      </c>
+      <c r="C388" s="28">
+        <v>43595.416666666664</v>
+      </c>
+      <c r="D388" s="27" t="s">
+        <v>47</v>
       </c>
       <c r="E388" s="6"/>
       <c r="F388" s="6" t="s">
@@ -8893,16 +8959,16 @@
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A389" s="32" t="s">
+      <c r="A389" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B389" s="29">
-        <v>43595.291666666664</v>
-      </c>
-      <c r="C389" s="29">
-        <v>43595.416666666664</v>
-      </c>
-      <c r="D389" s="28" t="s">
+      <c r="B389" s="28">
+        <v>43596.319444444445</v>
+      </c>
+      <c r="C389" s="28">
+        <v>43596.947916666664</v>
+      </c>
+      <c r="D389" s="27" t="s">
         <v>47</v>
       </c>
       <c r="E389" s="6"/>
@@ -8911,139 +8977,139 @@
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A390" s="32" t="s">
+      <c r="A390" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B390" s="29">
-        <v>43596.319444444445</v>
-      </c>
-      <c r="C390" s="29">
-        <v>43596.947916666664</v>
-      </c>
-      <c r="D390" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="E390" s="6"/>
+      <c r="B390" s="28">
+        <v>43601.333333333336</v>
+      </c>
+      <c r="C390" s="28">
+        <v>43601.854166666664</v>
+      </c>
+      <c r="D390" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E390" s="3"/>
       <c r="F390" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A391" s="32" t="s">
+      <c r="A391" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B391" s="29">
-        <v>43601.333333333336</v>
-      </c>
-      <c r="C391" s="29">
-        <v>43601.854166666664</v>
-      </c>
-      <c r="D391" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="E391" s="3"/>
+      <c r="B391" s="28">
+        <v>43604.083333333336</v>
+      </c>
+      <c r="C391" s="28">
+        <v>43605.1875</v>
+      </c>
+      <c r="D391" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E391" s="6"/>
       <c r="F391" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A392" s="32" t="s">
+      <c r="A392" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B392" s="29">
+      <c r="B392" s="28">
         <v>43604.083333333336</v>
       </c>
-      <c r="C392" s="29">
-        <v>43605.1875</v>
-      </c>
-      <c r="D392" s="28" t="s">
-        <v>47</v>
+      <c r="C392" s="28">
+        <v>43633.6875</v>
+      </c>
+      <c r="D392" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="E392" s="6"/>
       <c r="F392" s="6" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A393" s="32" t="s">
+      <c r="A393" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B393" s="29">
-        <v>43604.083333333336</v>
-      </c>
-      <c r="C393" s="29">
-        <v>43633.6875</v>
-      </c>
-      <c r="D393" s="28" t="s">
-        <v>73</v>
+      <c r="B393" s="28">
+        <v>43637.270833333336</v>
+      </c>
+      <c r="C393" s="28">
+        <v>43637.479166666664</v>
+      </c>
+      <c r="D393" s="27" t="s">
+        <v>47</v>
       </c>
       <c r="E393" s="6"/>
       <c r="F393" s="6" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A394" s="32" t="s">
+      <c r="A394" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B394" s="29">
-        <v>43637.270833333336</v>
-      </c>
-      <c r="C394" s="29">
-        <v>43637.479166666664</v>
-      </c>
-      <c r="D394" s="28" t="s">
-        <v>47</v>
+      <c r="B394" s="28">
+        <v>43663.302083333336</v>
+      </c>
+      <c r="C394" s="28">
+        <v>43665.5625</v>
+      </c>
+      <c r="D394" s="27" t="s">
+        <v>109</v>
       </c>
       <c r="E394" s="6"/>
       <c r="F394" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A395" s="32" t="s">
+    <row r="395" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A395" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B395" s="29">
-        <v>43663.302083333336</v>
-      </c>
-      <c r="C395" s="29">
-        <v>43665.5625</v>
-      </c>
-      <c r="D395" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="E395" s="6"/>
-      <c r="F395" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A396" s="29" t="s">
+      <c r="B395" s="28">
+        <v>43668.850694444445</v>
+      </c>
+      <c r="C395" s="28">
+        <v>43669.267361111109</v>
+      </c>
+      <c r="D395" s="27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A396" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B396" s="29">
-        <v>43668.850694444445</v>
-      </c>
-      <c r="C396" s="29">
-        <v>43669.267361111109</v>
-      </c>
-      <c r="D396" s="28" t="s">
-        <v>111</v>
+      <c r="B396" s="28">
+        <v>43675.892361111109</v>
+      </c>
+      <c r="C396" s="28">
+        <v>43676.225694444445</v>
+      </c>
+      <c r="D396" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E396" s="6"/>
+      <c r="F396" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A397" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B397" s="29">
-        <v>43675.892361111109</v>
-      </c>
-      <c r="C397" s="29">
-        <v>43676.225694444445</v>
-      </c>
-      <c r="D397" s="28" t="s">
-        <v>111</v>
+      <c r="A397" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B397" s="7">
+        <v>43575</v>
+      </c>
+      <c r="C397" s="7">
+        <v>43593.75</v>
+      </c>
+      <c r="D397" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="E397" s="6"/>
       <c r="F397" s="6" t="s">
@@ -9055,13 +9121,13 @@
         <v>26</v>
       </c>
       <c r="B398" s="7">
-        <v>43575</v>
+        <v>43594.965277777781</v>
       </c>
       <c r="C398" s="7">
-        <v>43593.75</v>
+        <v>43595.375</v>
       </c>
       <c r="D398" s="6" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="E398" s="6"/>
       <c r="F398" s="6" t="s">
@@ -9073,10 +9139,10 @@
         <v>26</v>
       </c>
       <c r="B399" s="7">
-        <v>43594.965277777781</v>
+        <v>43596.395833333336</v>
       </c>
       <c r="C399" s="7">
-        <v>43595.375</v>
+        <v>43596.517361111109</v>
       </c>
       <c r="D399" s="6" t="s">
         <v>47</v>
@@ -9087,14 +9153,14 @@
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A400" s="6" t="s">
+      <c r="A400" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B400" s="7">
-        <v>43596.395833333336</v>
+        <v>43601.420138888891</v>
       </c>
       <c r="C400" s="7">
-        <v>43596.517361111109</v>
+        <v>43601.604166666664</v>
       </c>
       <c r="D400" s="6" t="s">
         <v>47</v>
@@ -9109,10 +9175,10 @@
         <v>26</v>
       </c>
       <c r="B401" s="7">
-        <v>43601.420138888891</v>
+        <v>43604.4375</v>
       </c>
       <c r="C401" s="7">
-        <v>43601.604166666664</v>
+        <v>43604.638888888891</v>
       </c>
       <c r="D401" s="6" t="s">
         <v>47</v>
@@ -9127,10 +9193,10 @@
         <v>26</v>
       </c>
       <c r="B402" s="7">
-        <v>43604.4375</v>
+        <v>43604.875</v>
       </c>
       <c r="C402" s="7">
-        <v>43604.638888888891</v>
+        <v>43605.569444444445</v>
       </c>
       <c r="D402" s="6" t="s">
         <v>47</v>
@@ -9145,10 +9211,10 @@
         <v>26</v>
       </c>
       <c r="B403" s="7">
-        <v>43604.875</v>
+        <v>43607.239583333336</v>
       </c>
       <c r="C403" s="7">
-        <v>43605.569444444445</v>
+        <v>43607.354166666664</v>
       </c>
       <c r="D403" s="6" t="s">
         <v>47</v>
@@ -9162,11 +9228,11 @@
       <c r="A404" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B404" s="7">
-        <v>43607.239583333336</v>
-      </c>
-      <c r="C404" s="7">
-        <v>43607.354166666664</v>
+      <c r="B404" s="20">
+        <v>43611.885416666664</v>
+      </c>
+      <c r="C404" s="20">
+        <v>43612.34375</v>
       </c>
       <c r="D404" s="6" t="s">
         <v>47</v>
@@ -9181,10 +9247,10 @@
         <v>26</v>
       </c>
       <c r="B405" s="20">
-        <v>43611.885416666664</v>
+        <v>43637.208333333336</v>
       </c>
       <c r="C405" s="20">
-        <v>43612.34375</v>
+        <v>43637.416666666664</v>
       </c>
       <c r="D405" s="6" t="s">
         <v>47</v>
@@ -9195,14 +9261,14 @@
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A406" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B406" s="20">
-        <v>43637.208333333336</v>
-      </c>
-      <c r="C406" s="20">
-        <v>43637.416666666664</v>
+      <c r="A406" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B406" s="7">
+        <v>43591.333333333336</v>
+      </c>
+      <c r="C406" s="7">
+        <v>43591.479166666664</v>
       </c>
       <c r="D406" s="6" t="s">
         <v>47</v>
@@ -9217,10 +9283,10 @@
         <v>19</v>
       </c>
       <c r="B407" s="7">
-        <v>43591.333333333336</v>
+        <v>43592.173611111109</v>
       </c>
       <c r="C407" s="7">
-        <v>43591.479166666664</v>
+        <v>43592.288194444445</v>
       </c>
       <c r="D407" s="6" t="s">
         <v>47</v>
@@ -9235,10 +9301,10 @@
         <v>19</v>
       </c>
       <c r="B408" s="7">
-        <v>43592.173611111109</v>
+        <v>43595.041666666664</v>
       </c>
       <c r="C408" s="7">
-        <v>43592.288194444445</v>
+        <v>43595.322916666664</v>
       </c>
       <c r="D408" s="6" t="s">
         <v>47</v>
@@ -9253,10 +9319,10 @@
         <v>19</v>
       </c>
       <c r="B409" s="7">
-        <v>43595.041666666664</v>
+        <v>43596.270833333336</v>
       </c>
       <c r="C409" s="7">
-        <v>43595.322916666664</v>
+        <v>43596.534722222219</v>
       </c>
       <c r="D409" s="6" t="s">
         <v>47</v>
@@ -9271,10 +9337,10 @@
         <v>19</v>
       </c>
       <c r="B410" s="7">
-        <v>43596.270833333336</v>
+        <v>43601.40625</v>
       </c>
       <c r="C410" s="7">
-        <v>43596.534722222219</v>
+        <v>43601.565972222219</v>
       </c>
       <c r="D410" s="6" t="s">
         <v>47</v>
@@ -9289,10 +9355,10 @@
         <v>19</v>
       </c>
       <c r="B411" s="7">
-        <v>43601.40625</v>
+        <v>43604.416666666664</v>
       </c>
       <c r="C411" s="7">
-        <v>43601.565972222219</v>
+        <v>43605.368055555555</v>
       </c>
       <c r="D411" s="6" t="s">
         <v>47</v>
@@ -9307,10 +9373,10 @@
         <v>19</v>
       </c>
       <c r="B412" s="7">
-        <v>43604.416666666664</v>
+        <v>43606.951388888891</v>
       </c>
       <c r="C412" s="7">
-        <v>43605.368055555555</v>
+        <v>43607.875</v>
       </c>
       <c r="D412" s="6" t="s">
         <v>47</v>
@@ -9325,17 +9391,17 @@
         <v>19</v>
       </c>
       <c r="B413" s="7">
-        <v>43606.951388888891</v>
+        <v>43611.9375</v>
       </c>
       <c r="C413" s="7">
-        <v>43607.875</v>
+        <v>43612.111111111109</v>
       </c>
       <c r="D413" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E413" s="6"/>
       <c r="F413" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.3">
@@ -9343,13 +9409,13 @@
         <v>19</v>
       </c>
       <c r="B414" s="7">
-        <v>43611.9375</v>
+        <v>43652</v>
       </c>
       <c r="C414" s="7">
-        <v>43612.111111111109</v>
+        <v>43652.166666666664</v>
       </c>
       <c r="D414" s="6" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E414" s="6"/>
       <c r="F414" s="6" t="s">
@@ -9361,10 +9427,10 @@
         <v>19</v>
       </c>
       <c r="B415" s="7">
-        <v>43652</v>
+        <v>43655.163194444445</v>
       </c>
       <c r="C415" s="7">
-        <v>43652.166666666664</v>
+        <v>43655.381944444445</v>
       </c>
       <c r="D415" s="6" t="s">
         <v>77</v>
@@ -9379,10 +9445,10 @@
         <v>19</v>
       </c>
       <c r="B416" s="7">
-        <v>43655.163194444445</v>
+        <v>43656.013888888891</v>
       </c>
       <c r="C416" s="7">
-        <v>43655.381944444445</v>
+        <v>43656.180555555555</v>
       </c>
       <c r="D416" s="6" t="s">
         <v>77</v>
@@ -9397,10 +9463,10 @@
         <v>19</v>
       </c>
       <c r="B417" s="7">
-        <v>43656.013888888891</v>
+        <v>43657.006944444445</v>
       </c>
       <c r="C417" s="7">
-        <v>43656.180555555555</v>
+        <v>43657.173611111109</v>
       </c>
       <c r="D417" s="6" t="s">
         <v>77</v>
@@ -9415,10 +9481,10 @@
         <v>19</v>
       </c>
       <c r="B418" s="7">
-        <v>43657.006944444445</v>
+        <v>43660.006944444445</v>
       </c>
       <c r="C418" s="7">
-        <v>43657.173611111109</v>
+        <v>43660.173611111109</v>
       </c>
       <c r="D418" s="6" t="s">
         <v>77</v>
@@ -9433,10 +9499,10 @@
         <v>19</v>
       </c>
       <c r="B419" s="7">
-        <v>43660.006944444445</v>
+        <v>43663</v>
       </c>
       <c r="C419" s="7">
-        <v>43660.173611111109</v>
+        <v>43663.166666666664</v>
       </c>
       <c r="D419" s="6" t="s">
         <v>77</v>
@@ -9451,10 +9517,10 @@
         <v>19</v>
       </c>
       <c r="B420" s="7">
-        <v>43663</v>
+        <v>43666.013888888891</v>
       </c>
       <c r="C420" s="7">
-        <v>43663.166666666664</v>
+        <v>43666.180555555555</v>
       </c>
       <c r="D420" s="6" t="s">
         <v>77</v>
@@ -9469,31 +9535,31 @@
         <v>19</v>
       </c>
       <c r="B421" s="7">
-        <v>43666.013888888891</v>
+        <v>43668.229166666664</v>
       </c>
       <c r="C421" s="7">
-        <v>43666.180555555555</v>
+        <v>43668.388888888891</v>
       </c>
       <c r="D421" s="6" t="s">
         <v>77</v>
       </c>
       <c r="E421" s="6"/>
       <c r="F421" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B422" s="7">
-        <v>43668.229166666664</v>
+        <v>43591.409722222219</v>
       </c>
       <c r="C422" s="7">
-        <v>43668.388888888891</v>
+        <v>43592.583333333336</v>
       </c>
       <c r="D422" s="6" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="E422" s="6"/>
       <c r="F422" s="6" t="s">
@@ -9505,10 +9571,10 @@
         <v>20</v>
       </c>
       <c r="B423" s="7">
-        <v>43591.409722222219</v>
+        <v>43595.194444444445</v>
       </c>
       <c r="C423" s="7">
-        <v>43592.583333333336</v>
+        <v>43595.4375</v>
       </c>
       <c r="D423" s="6" t="s">
         <v>47</v>
@@ -9523,10 +9589,10 @@
         <v>20</v>
       </c>
       <c r="B424" s="7">
-        <v>43595.194444444445</v>
+        <v>43595.260416666664</v>
       </c>
       <c r="C424" s="7">
-        <v>43595.4375</v>
+        <v>43594.875</v>
       </c>
       <c r="D424" s="6" t="s">
         <v>47</v>
@@ -9541,10 +9607,10 @@
         <v>20</v>
       </c>
       <c r="B425" s="7">
-        <v>43595.260416666664</v>
+        <v>43596.340277777781</v>
       </c>
       <c r="C425" s="7">
-        <v>43594.875</v>
+        <v>43596.895833333336</v>
       </c>
       <c r="D425" s="6" t="s">
         <v>47</v>
@@ -9559,10 +9625,10 @@
         <v>20</v>
       </c>
       <c r="B426" s="7">
-        <v>43596.340277777781</v>
+        <v>43601.440972222219</v>
       </c>
       <c r="C426" s="7">
-        <v>43596.895833333336</v>
+        <v>43601.822916666664</v>
       </c>
       <c r="D426" s="6" t="s">
         <v>47</v>
@@ -9577,10 +9643,10 @@
         <v>20</v>
       </c>
       <c r="B427" s="7">
-        <v>43601.440972222219</v>
+        <v>43604.440972222219</v>
       </c>
       <c r="C427" s="7">
-        <v>43601.822916666664</v>
+        <v>43608.708333333336</v>
       </c>
       <c r="D427" s="6" t="s">
         <v>47</v>
@@ -9595,17 +9661,17 @@
         <v>20</v>
       </c>
       <c r="B428" s="7">
-        <v>43604.440972222219</v>
+        <v>43610.291666666664</v>
       </c>
       <c r="C428" s="7">
-        <v>43608.708333333336</v>
+        <v>43612.25</v>
       </c>
       <c r="D428" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E428" s="6"/>
       <c r="F428" s="6" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
@@ -9613,10 +9679,10 @@
         <v>20</v>
       </c>
       <c r="B429" s="7">
-        <v>43610.291666666664</v>
+        <v>43633.583333333336</v>
       </c>
       <c r="C429" s="7">
-        <v>43612.25</v>
+        <v>43633.833333333336</v>
       </c>
       <c r="D429" s="6" t="s">
         <v>47</v>
@@ -9631,10 +9697,10 @@
         <v>20</v>
       </c>
       <c r="B430" s="7">
-        <v>43633.583333333336</v>
+        <v>43637.104166666664</v>
       </c>
       <c r="C430" s="7">
-        <v>43633.833333333336</v>
+        <v>43637.791666666664</v>
       </c>
       <c r="D430" s="6" t="s">
         <v>47</v>
@@ -9649,17 +9715,17 @@
         <v>20</v>
       </c>
       <c r="B431" s="7">
-        <v>43637.104166666664</v>
+        <v>43646</v>
       </c>
       <c r="C431" s="7">
-        <v>43637.791666666664</v>
+        <v>43646.020833333336</v>
       </c>
       <c r="D431" s="6" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="E431" s="6"/>
       <c r="F431" s="6" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.3">
@@ -9667,13 +9733,13 @@
         <v>20</v>
       </c>
       <c r="B432" s="7">
-        <v>43646</v>
+        <v>43647.392361111109</v>
       </c>
       <c r="C432" s="7">
-        <v>43646.020833333336</v>
+        <v>43647.559027777781</v>
       </c>
       <c r="D432" s="6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E432" s="6"/>
       <c r="F432" s="6" t="s">
@@ -9685,10 +9751,10 @@
         <v>20</v>
       </c>
       <c r="B433" s="7">
-        <v>43647.392361111109</v>
+        <v>43649.385416666664</v>
       </c>
       <c r="C433" s="7">
-        <v>43647.559027777781</v>
+        <v>43649.552083333336</v>
       </c>
       <c r="D433" s="6" t="s">
         <v>77</v>
@@ -9703,10 +9769,10 @@
         <v>20</v>
       </c>
       <c r="B434" s="7">
-        <v>43649.385416666664</v>
+        <v>43655.010416666664</v>
       </c>
       <c r="C434" s="7">
-        <v>43649.552083333336</v>
+        <v>43655.177083333336</v>
       </c>
       <c r="D434" s="6" t="s">
         <v>77</v>
@@ -9721,10 +9787,10 @@
         <v>20</v>
       </c>
       <c r="B435" s="7">
-        <v>43655.010416666664</v>
+        <v>43665.013888888891</v>
       </c>
       <c r="C435" s="7">
-        <v>43655.177083333336</v>
+        <v>43665.180555555555</v>
       </c>
       <c r="D435" s="6" t="s">
         <v>77</v>
@@ -9739,10 +9805,10 @@
         <v>20</v>
       </c>
       <c r="B436" s="7">
-        <v>43665.013888888891</v>
+        <v>43666.013888888891</v>
       </c>
       <c r="C436" s="7">
-        <v>43665.180555555555</v>
+        <v>43666.180555555555</v>
       </c>
       <c r="D436" s="6" t="s">
         <v>77</v>
@@ -9757,10 +9823,10 @@
         <v>20</v>
       </c>
       <c r="B437" s="7">
-        <v>43666.013888888891</v>
+        <v>43668.010416666664</v>
       </c>
       <c r="C437" s="7">
-        <v>43666.180555555555</v>
+        <v>43668.177083333336</v>
       </c>
       <c r="D437" s="6" t="s">
         <v>77</v>
@@ -9775,10 +9841,10 @@
         <v>20</v>
       </c>
       <c r="B438" s="7">
-        <v>43668.010416666664</v>
+        <v>43669</v>
       </c>
       <c r="C438" s="7">
-        <v>43668.177083333336</v>
+        <v>43669.006944444445</v>
       </c>
       <c r="D438" s="6" t="s">
         <v>77</v>
@@ -9793,10 +9859,10 @@
         <v>20</v>
       </c>
       <c r="B439" s="7">
-        <v>43669</v>
+        <v>43670</v>
       </c>
       <c r="C439" s="7">
-        <v>43669.006944444445</v>
+        <v>43670.006944444445</v>
       </c>
       <c r="D439" s="6" t="s">
         <v>77</v>
@@ -9811,31 +9877,31 @@
         <v>20</v>
       </c>
       <c r="B440" s="7">
-        <v>43670</v>
+        <v>43670.545138888891</v>
       </c>
       <c r="C440" s="7">
-        <v>43670.006944444445</v>
+        <v>43670.711805555555</v>
       </c>
       <c r="D440" s="6" t="s">
         <v>77</v>
       </c>
       <c r="E440" s="6"/>
       <c r="F440" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B441" s="7">
-        <v>43670.545138888891</v>
+        <v>43591.375</v>
       </c>
       <c r="C441" s="7">
-        <v>43670.711805555555</v>
+        <v>43591.78125</v>
       </c>
       <c r="D441" s="6" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="E441" s="6"/>
       <c r="F441" s="6" t="s">
@@ -9847,16 +9913,16 @@
         <v>25</v>
       </c>
       <c r="B442" s="7">
-        <v>43591.375</v>
+        <v>43592.166666666664</v>
       </c>
       <c r="C442" s="7">
-        <v>43591.78125</v>
+        <v>43592.579861111109</v>
       </c>
       <c r="D442" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E442" s="6"/>
-      <c r="F442" s="6" t="s">
+      <c r="F442" t="s">
         <v>63</v>
       </c>
     </row>
@@ -9865,16 +9931,15 @@
         <v>25</v>
       </c>
       <c r="B443" s="7">
-        <v>43592.166666666664</v>
+        <v>43595.194444444445</v>
       </c>
       <c r="C443" s="7">
-        <v>43592.579861111109</v>
+        <v>43595.4375</v>
       </c>
       <c r="D443" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E443" s="6"/>
-      <c r="F443" t="s">
+      <c r="F443" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -9883,10 +9948,10 @@
         <v>25</v>
       </c>
       <c r="B444" s="7">
-        <v>43595.194444444445</v>
+        <v>43595.260416666664</v>
       </c>
       <c r="C444" s="7">
-        <v>43595.4375</v>
+        <v>43594.875</v>
       </c>
       <c r="D444" s="6" t="s">
         <v>47</v>
@@ -9900,15 +9965,15 @@
         <v>25</v>
       </c>
       <c r="B445" s="7">
-        <v>43595.260416666664</v>
+        <v>43596.340277777781</v>
       </c>
       <c r="C445" s="7">
-        <v>43594.875</v>
+        <v>43596.895833333336</v>
       </c>
       <c r="D445" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F445" s="6" t="s">
+      <c r="F445" t="s">
         <v>63</v>
       </c>
     </row>
@@ -9917,10 +9982,10 @@
         <v>25</v>
       </c>
       <c r="B446" s="7">
-        <v>43596.340277777781</v>
+        <v>43601.388888888891</v>
       </c>
       <c r="C446" s="7">
-        <v>43596.895833333336</v>
+        <v>43601.822916666664</v>
       </c>
       <c r="D446" s="6" t="s">
         <v>47</v>
@@ -9934,15 +9999,16 @@
         <v>25</v>
       </c>
       <c r="B447" s="7">
-        <v>43601.388888888891</v>
+        <v>43604.350694444445</v>
       </c>
       <c r="C447" s="7">
-        <v>43601.822916666664</v>
+        <v>43608.708333333336</v>
       </c>
       <c r="D447" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F447" t="s">
+      <c r="E447" s="6"/>
+      <c r="F447" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -9951,10 +10017,10 @@
         <v>25</v>
       </c>
       <c r="B448" s="7">
-        <v>43604.350694444445</v>
+        <v>43611.892361111109</v>
       </c>
       <c r="C448" s="7">
-        <v>43608.708333333336</v>
+        <v>43612.25</v>
       </c>
       <c r="D448" s="6" t="s">
         <v>47</v>
@@ -9969,17 +10035,17 @@
         <v>25</v>
       </c>
       <c r="B449" s="7">
-        <v>43611.892361111109</v>
+        <v>43616.208333333336</v>
       </c>
       <c r="C449" s="7">
-        <v>43612.25</v>
+        <v>43616.701388888891</v>
       </c>
       <c r="D449" s="6" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E449" s="6"/>
-      <c r="F449" s="6" t="s">
-        <v>63</v>
+      <c r="F449" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.3">
@@ -9987,13 +10053,13 @@
         <v>25</v>
       </c>
       <c r="B450" s="7">
-        <v>43616.208333333336</v>
+        <v>43633.583333333336</v>
       </c>
       <c r="C450" s="7">
-        <v>43616.701388888891</v>
+        <v>43633.791666666664</v>
       </c>
       <c r="D450" s="6" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E450" s="6"/>
       <c r="F450" t="s">
@@ -10005,33 +10071,15 @@
         <v>25</v>
       </c>
       <c r="B451" s="7">
-        <v>43633.583333333336</v>
+        <v>43637.104166666664</v>
       </c>
       <c r="C451" s="7">
-        <v>43633.791666666664</v>
+        <v>43637.791666666664</v>
       </c>
       <c r="D451" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E451" s="6"/>
-      <c r="F451" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A452" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B452" s="7">
-        <v>43637.104166666664</v>
-      </c>
-      <c r="C452" s="7">
-        <v>43637.791666666664</v>
-      </c>
-      <c r="D452" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E452" s="6"/>
     </row>
   </sheetData>
   <sortState ref="A2:F504">
@@ -10050,48 +10098,48 @@
   </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="90.88671875" style="36" customWidth="1"/>
+    <col min="2" max="2" width="90.88671875" style="35" customWidth="1"/>
     <col min="3" max="3" width="12.77734375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="27"/>
+    <col min="4" max="16384" width="9.109375" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>52</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>128</v>
+      <c r="B2" s="33" t="s">
+        <v>126</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10099,8 +10147,8 @@
       <c r="A4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>129</v>
+      <c r="B4" s="33" t="s">
+        <v>127</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>63</v>
@@ -10110,21 +10158,21 @@
       <c r="A5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>130</v>
+      <c r="B5" s="33" t="s">
+        <v>128</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="26" t="s">
+      <c r="B6" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10132,21 +10180,21 @@
       <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>132</v>
+      <c r="B7" s="33" t="s">
+        <v>130</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="52.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="26" t="s">
+      <c r="B8" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10154,21 +10202,21 @@
       <c r="A9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>133</v>
+      <c r="B9" s="33" t="s">
+        <v>131</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="26" t="s">
+      <c r="B10" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10176,8 +10224,8 @@
       <c r="A11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="34" t="s">
-        <v>126</v>
+      <c r="B11" s="33" t="s">
+        <v>124</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>63</v>
@@ -10187,43 +10235,43 @@
       <c r="A12" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="34" t="s">
-        <v>135</v>
+      <c r="B12" s="33" t="s">
+        <v>133</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10231,28 +10279,30 @@
       <c r="A16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="34" t="s">
-        <v>137</v>
+      <c r="B16" s="33" t="s">
+        <v>135</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="26"/>
+      <c r="B17" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="34" t="s">
-        <v>143</v>
+      <c r="B18" s="33" t="s">
+        <v>141</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>63</v>
@@ -10262,21 +10312,21 @@
       <c r="A19" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="34" t="s">
-        <v>144</v>
+      <c r="B19" s="33" t="s">
+        <v>142</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="C20" s="26" t="s">
+      <c r="B20" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="25" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10284,8 +10334,8 @@
       <c r="A21" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="34" t="s">
-        <v>145</v>
+      <c r="B21" s="33" t="s">
+        <v>143</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>63</v>
@@ -10295,144 +10345,182 @@
       <c r="A22" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="10"/>
-    </row>
-    <row r="23" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="10"/>
+      <c r="B23" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="10"/>
+      <c r="B24" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="10"/>
+      <c r="B25" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="10"/>
+      <c r="B26" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="34"/>
+      <c r="B27" s="33" t="s">
+        <v>153</v>
+      </c>
       <c r="C27" s="10"/>
     </row>
     <row r="28" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="10"/>
+      <c r="B28" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="29" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="10"/>
+      <c r="B29" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="10"/>
+      <c r="B30" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="10"/>
+      <c r="B31" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="32" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="34"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="10"/>
     </row>
     <row r="33" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="34"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="10"/>
     </row>
     <row r="34" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="C34" s="26"/>
+      <c r="B34" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="25"/>
     </row>
     <row r="35" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="34"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="10"/>
     </row>
     <row r="36" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="34"/>
+      <c r="B36" s="33"/>
       <c r="C36" s="10"/>
     </row>
     <row r="37" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" s="26"/>
+      <c r="B37" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="25"/>
     </row>
     <row r="38" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="34"/>
+      <c r="B38" s="33"/>
       <c r="C38" s="10"/>
     </row>
     <row r="39" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="34"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="10"/>
     </row>
     <row r="40" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="34"/>
+      <c r="B40" s="33"/>
       <c r="C40" s="10"/>
     </row>
     <row r="41" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="34"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="10"/>
     </row>
   </sheetData>

--- a/2 - Flow output Excel files - working drafts/Data Output 09_15_2019/Offsets and Clip times 09_15_2019.xlsx
+++ b/2 - Flow output Excel files - working drafts/Data Output 09_15_2019/Offsets and Clip times 09_15_2019.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.messina\Documents\GitHub\SD_County_LowFlow\2 - Flow output Excel files - working drafts\Data Output 09_15_2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jameson.newtson\Documents\GitHub\SD_County_LowFlow\2 - Flow output Excel files - working drafts\Data Output 09_15_2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Offsets" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="ESRI_MAPINFO_SHEET" sheetId="4" state="veryHidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Clips!$A$1:$F$503</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Clips!$A$1:$F$506</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Offsets!$A$1:$H$57</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="142">
   <si>
     <t>Site</t>
   </si>
@@ -417,9 +417,6 @@
     <t>A series of wet weather events in May. Two wet weather events in June. Data drop out from 7/26-7/30 due to battery failure. Last wet weather event 9/4.</t>
   </si>
   <si>
-    <t>A series of wet weather events in May. Two wet weather events in June.  Last wet weather event 9/4.</t>
-  </si>
-  <si>
     <t>A series of wet weather events in May.  Last wet weather event 9/4. Data drop out between 7/28 and 7/30 due to battery failure.</t>
   </si>
   <si>
@@ -429,9 +426,6 @@
     <t xml:space="preserve"> Faulty probe replaced 6/17/19.High flow 8/30 confirmed by game cam. A series of wet weather events in May.  Last wet weather event 9/4. Data drop outs 8/1-8/5 due to battery failure.</t>
   </si>
   <si>
-    <t xml:space="preserve">A series of wet weather events in May.  Data drop out 6/13 due to logging error. Data drop out 6/21-6/25 due to battery failure. </t>
-  </si>
-  <si>
     <t>A series of wet weather events in May.  Data drop out 6/13 due to logging error. Data drop out 6/21-6/25 due to battery failure. Probe replaced 6/17</t>
   </si>
   <si>
@@ -457,6 +451,12 @@
   </si>
   <si>
     <t>A series of wet weather events in May and one in september. Several high flow events not assosiated with wet weather (5/13-5/14, 8/15, and 9/13). Applied 0.2" offset to entire data set to improve calibration.</t>
+  </si>
+  <si>
+    <t>A series of wet weather events in May.  Data drop out 6/13 due to logging error. Data drop out 6/21-6/25 due to battery failure. Erroneous data 7/9-7/15.</t>
+  </si>
+  <si>
+    <t>A series of wet weather events in May. Two wet weather events in June.  Last wet weather event 9/4. Applied offsets 0.2" due to apparent drifting caused by May  ww events</t>
   </si>
 </sst>
 </file>
@@ -969,24 +969,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1012,7 +1013,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
@@ -1036,7 +1037,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1060,7 +1061,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -1081,7 +1082,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1104,7 +1105,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1127,7 +1128,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1150,7 +1151,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1173,7 +1174,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -1190,7 +1191,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -1209,7 +1210,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -1233,7 +1234,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -1259,7 +1260,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
@@ -1273,7 +1274,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -1299,7 +1300,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>31</v>
       </c>
@@ -1320,7 +1321,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1346,7 +1347,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
@@ -1360,7 +1361,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
@@ -1374,7 +1375,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
@@ -1393,7 +1394,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>8</v>
       </c>
@@ -1416,7 +1417,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1439,7 +1440,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>9</v>
       </c>
@@ -1462,7 +1463,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>9</v>
       </c>
@@ -1483,7 +1484,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>10</v>
       </c>
@@ -1502,7 +1503,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>11</v>
       </c>
@@ -1516,7 +1517,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>12</v>
       </c>
@@ -1536,7 +1537,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>40</v>
       </c>
@@ -1550,7 +1551,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>41</v>
       </c>
@@ -1561,7 +1562,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>13</v>
       </c>
@@ -1584,7 +1585,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>27</v>
       </c>
@@ -1603,7 +1604,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>14</v>
       </c>
@@ -1617,7 +1618,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>15</v>
       </c>
@@ -1631,7 +1632,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>16</v>
       </c>
@@ -1650,7 +1651,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>32</v>
       </c>
@@ -1664,7 +1665,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>17</v>
       </c>
@@ -1675,7 +1676,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>33</v>
       </c>
@@ -1696,7 +1697,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>34</v>
       </c>
@@ -1710,7 +1711,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>35</v>
       </c>
@@ -1721,7 +1722,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>36</v>
       </c>
@@ -1732,7 +1733,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>37</v>
       </c>
@@ -1751,7 +1752,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>38</v>
       </c>
@@ -1768,7 +1769,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>39</v>
       </c>
@@ -1782,7 +1783,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>44</v>
       </c>
@@ -1803,7 +1804,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>45</v>
       </c>
@@ -1826,7 +1827,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>45</v>
       </c>
@@ -1845,7 +1846,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>45</v>
       </c>
@@ -1868,7 +1869,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>46</v>
       </c>
@@ -1889,7 +1890,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>18</v>
       </c>
@@ -1912,7 +1913,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
         <v>18</v>
       </c>
@@ -1935,7 +1936,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>26</v>
       </c>
@@ -1956,7 +1957,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>26</v>
       </c>
@@ -1977,7 +1978,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>19</v>
       </c>
@@ -1991,12 +1992,19 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
+      <c r="B53" s="7">
+        <v>43612.211805555555</v>
+      </c>
+      <c r="C53" s="7">
+        <v>43723.999305555553</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0.2</v>
+      </c>
       <c r="E53" s="18"/>
       <c r="F53" s="5" t="b">
         <v>1</v>
@@ -2005,7 +2013,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>25</v>
       </c>
@@ -2024,7 +2032,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>26</v>
       </c>
@@ -2038,7 +2046,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>39</v>
       </c>
@@ -2055,13 +2063,13 @@
         <v>56</v>
       </c>
       <c r="G56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H56" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>39</v>
       </c>
@@ -2078,14 +2086,20 @@
         <v>56</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H57" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H57"/>
+  <autoFilter ref="A1:H57">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="SWT-055"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A1:H54">
     <sortCondition ref="A1:A54"/>
     <sortCondition ref="B1:B54"/>
@@ -2097,22 +2111,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F503"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F506"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A344" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C353" sqref="C353"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A474" sqref="A474:XFD483"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.6640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="56.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="73" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2132,7 +2147,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -2150,7 +2165,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2167,7 +2182,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -2185,7 +2200,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2202,7 +2217,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -2220,7 +2235,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -2238,7 +2253,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
@@ -2256,7 +2271,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
@@ -2274,7 +2289,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -2292,7 +2307,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -2312,7 +2327,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -2330,7 +2345,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
@@ -2347,7 +2362,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
@@ -2364,7 +2379,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
@@ -2381,7 +2396,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
@@ -2398,7 +2413,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
@@ -2415,7 +2430,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
@@ -2432,7 +2447,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
@@ -2450,7 +2465,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
@@ -2468,7 +2483,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
@@ -2486,7 +2501,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
@@ -2504,7 +2519,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
@@ -2521,7 +2536,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
@@ -2538,7 +2553,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>5</v>
       </c>
@@ -2555,7 +2570,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -2572,7 +2587,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
@@ -2589,7 +2604,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -2607,7 +2622,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
@@ -2627,7 +2642,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -2647,7 +2662,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
@@ -2667,7 +2682,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>29</v>
       </c>
@@ -2687,7 +2702,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>29</v>
       </c>
@@ -2704,7 +2719,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>29</v>
       </c>
@@ -2721,7 +2736,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>29</v>
       </c>
@@ -2738,7 +2753,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
@@ -2755,7 +2770,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>29</v>
       </c>
@@ -2772,7 +2787,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>24</v>
       </c>
@@ -2792,7 +2807,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>24</v>
       </c>
@@ -2812,7 +2827,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>24</v>
       </c>
@@ -2832,7 +2847,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>24</v>
       </c>
@@ -2852,7 +2867,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>24</v>
       </c>
@@ -2869,7 +2884,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>24</v>
       </c>
@@ -2886,7 +2901,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>24</v>
       </c>
@@ -2903,7 +2918,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>24</v>
       </c>
@@ -2920,7 +2935,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>24</v>
       </c>
@@ -2937,7 +2952,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>6</v>
       </c>
@@ -2954,7 +2969,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>6</v>
       </c>
@@ -2971,7 +2986,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>6</v>
       </c>
@@ -2988,7 +3003,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>6</v>
       </c>
@@ -3005,7 +3020,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>6</v>
       </c>
@@ -3022,7 +3037,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>6</v>
       </c>
@@ -3039,7 +3054,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>6</v>
       </c>
@@ -3056,7 +3071,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>6</v>
       </c>
@@ -3073,7 +3088,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>6</v>
       </c>
@@ -3090,7 +3105,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>6</v>
       </c>
@@ -3107,7 +3122,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>7</v>
       </c>
@@ -3124,7 +3139,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>7</v>
       </c>
@@ -3141,7 +3156,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>7</v>
       </c>
@@ -3158,7 +3173,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>7</v>
       </c>
@@ -3175,7 +3190,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>7</v>
       </c>
@@ -3192,7 +3207,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>7</v>
       </c>
@@ -3209,7 +3224,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>7</v>
       </c>
@@ -3226,7 +3241,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>7</v>
       </c>
@@ -3243,7 +3258,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>7</v>
       </c>
@@ -3260,7 +3275,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>7</v>
       </c>
@@ -3277,7 +3292,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>7</v>
       </c>
@@ -3294,7 +3309,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>7</v>
       </c>
@@ -3311,7 +3326,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>7</v>
       </c>
@@ -3328,7 +3343,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>7</v>
       </c>
@@ -3345,7 +3360,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>7</v>
       </c>
@@ -3362,7 +3377,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>7</v>
       </c>
@@ -3379,7 +3394,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>7</v>
       </c>
@@ -3396,7 +3411,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>7</v>
       </c>
@@ -3413,7 +3428,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="26" t="s">
         <v>7</v>
       </c>
@@ -3430,7 +3445,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="26" t="s">
         <v>7</v>
       </c>
@@ -3447,7 +3462,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>7</v>
       </c>
@@ -3464,7 +3479,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>7</v>
       </c>
@@ -3481,7 +3496,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>7</v>
       </c>
@@ -3498,7 +3513,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>7</v>
       </c>
@@ -3516,7 +3531,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="26" t="s">
         <v>7</v>
       </c>
@@ -3534,7 +3549,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="26" t="s">
         <v>7</v>
       </c>
@@ -3551,7 +3566,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>7</v>
       </c>
@@ -3568,7 +3583,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>7</v>
       </c>
@@ -3585,7 +3600,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>7</v>
       </c>
@@ -3602,7 +3617,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>7</v>
       </c>
@@ -3619,7 +3634,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>7</v>
       </c>
@@ -3636,7 +3651,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
         <v>7</v>
       </c>
@@ -3653,7 +3668,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
         <v>7</v>
       </c>
@@ -3670,7 +3685,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>7</v>
       </c>
@@ -3687,7 +3702,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>7</v>
       </c>
@@ -3704,7 +3719,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>7</v>
       </c>
@@ -3721,7 +3736,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>7</v>
       </c>
@@ -3738,7 +3753,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
         <v>7</v>
       </c>
@@ -3756,7 +3771,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
         <v>7</v>
       </c>
@@ -3774,7 +3789,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>7</v>
       </c>
@@ -3792,7 +3807,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>7</v>
       </c>
@@ -3810,7 +3825,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>7</v>
       </c>
@@ -3828,7 +3843,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>7</v>
       </c>
@@ -3846,7 +3861,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="26" t="s">
         <v>7</v>
       </c>
@@ -3864,7 +3879,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="26" t="s">
         <v>7</v>
       </c>
@@ -3882,7 +3897,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>7</v>
       </c>
@@ -3899,7 +3914,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>7</v>
       </c>
@@ -3916,7 +3931,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="26" t="s">
         <v>7</v>
       </c>
@@ -3933,7 +3948,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="26" t="s">
         <v>7</v>
       </c>
@@ -3950,7 +3965,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>7</v>
       </c>
@@ -3967,7 +3982,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>7</v>
       </c>
@@ -3984,7 +3999,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="108" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="26" t="s">
         <v>7</v>
       </c>
@@ -4001,7 +4016,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="26" t="s">
         <v>7</v>
       </c>
@@ -4018,7 +4033,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>7</v>
       </c>
@@ -4035,7 +4050,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="111" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>7</v>
       </c>
@@ -4052,7 +4067,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>7</v>
       </c>
@@ -4069,7 +4084,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="113" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>7</v>
       </c>
@@ -4086,7 +4101,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="114" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>7</v>
       </c>
@@ -4103,7 +4118,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="115" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>7</v>
       </c>
@@ -4120,7 +4135,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="116" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>28</v>
       </c>
@@ -4140,7 +4155,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="117" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>28</v>
       </c>
@@ -4160,7 +4175,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="118" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>28</v>
       </c>
@@ -4180,7 +4195,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="119" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>28</v>
       </c>
@@ -4200,7 +4215,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="120" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>28</v>
       </c>
@@ -4220,7 +4235,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="121" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>28</v>
       </c>
@@ -4237,7 +4252,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>28</v>
       </c>
@@ -4254,7 +4269,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>28</v>
       </c>
@@ -4274,7 +4289,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>28</v>
       </c>
@@ -4291,7 +4306,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>28</v>
       </c>
@@ -4308,7 +4323,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>28</v>
       </c>
@@ -4325,7 +4340,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>28</v>
       </c>
@@ -4342,7 +4357,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>28</v>
       </c>
@@ -4359,7 +4374,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>28</v>
       </c>
@@ -4376,7 +4391,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>28</v>
       </c>
@@ -4393,7 +4408,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>28</v>
       </c>
@@ -4410,7 +4425,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>28</v>
       </c>
@@ -4427,7 +4442,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="133" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>28</v>
       </c>
@@ -4444,7 +4459,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>28</v>
       </c>
@@ -4462,7 +4477,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="135" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>28</v>
       </c>
@@ -4479,7 +4494,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>28</v>
       </c>
@@ -4496,7 +4511,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>31</v>
       </c>
@@ -4514,7 +4529,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>31</v>
       </c>
@@ -4534,7 +4549,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>31</v>
       </c>
@@ -4552,7 +4567,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>31</v>
       </c>
@@ -4570,7 +4585,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="141" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>31</v>
       </c>
@@ -4587,7 +4602,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>31</v>
       </c>
@@ -4607,7 +4622,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>31</v>
       </c>
@@ -4624,7 +4639,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>48</v>
       </c>
@@ -4641,7 +4656,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>48</v>
       </c>
@@ -4658,7 +4673,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>48</v>
       </c>
@@ -4675,7 +4690,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="147" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>48</v>
       </c>
@@ -4692,7 +4707,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="148" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>48</v>
       </c>
@@ -4709,7 +4724,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="149" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>48</v>
       </c>
@@ -4726,7 +4741,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>48</v>
       </c>
@@ -4743,7 +4758,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>48</v>
       </c>
@@ -4760,7 +4775,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>48</v>
       </c>
@@ -4777,7 +4792,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>48</v>
       </c>
@@ -4794,7 +4809,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>48</v>
       </c>
@@ -4811,7 +4826,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>48</v>
       </c>
@@ -4828,7 +4843,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>48</v>
       </c>
@@ -4845,7 +4860,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>48</v>
       </c>
@@ -4862,7 +4877,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>48</v>
       </c>
@@ -4879,7 +4894,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>48</v>
       </c>
@@ -4896,7 +4911,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="160" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>42</v>
       </c>
@@ -4916,7 +4931,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="161" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>42</v>
       </c>
@@ -4936,7 +4951,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="162" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>42</v>
       </c>
@@ -4956,7 +4971,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="163" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>42</v>
       </c>
@@ -4973,7 +4988,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="164" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>42</v>
       </c>
@@ -4990,7 +5005,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="165" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>42</v>
       </c>
@@ -5007,7 +5022,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="166" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>42</v>
       </c>
@@ -5024,7 +5039,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="167" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>42</v>
       </c>
@@ -5041,7 +5056,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="168" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>49</v>
       </c>
@@ -5061,7 +5076,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="169" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>49</v>
       </c>
@@ -5078,7 +5093,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="170" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>49</v>
       </c>
@@ -5095,7 +5110,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="171" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>49</v>
       </c>
@@ -5112,7 +5127,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="172" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>49</v>
       </c>
@@ -5129,7 +5144,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="173" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>49</v>
       </c>
@@ -5146,7 +5161,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>49</v>
       </c>
@@ -5163,7 +5178,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>49</v>
       </c>
@@ -5180,7 +5195,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>49</v>
       </c>
@@ -5197,7 +5212,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>49</v>
       </c>
@@ -5214,7 +5229,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>49</v>
       </c>
@@ -5231,7 +5246,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>49</v>
       </c>
@@ -5248,7 +5263,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>49</v>
       </c>
@@ -5265,7 +5280,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>49</v>
       </c>
@@ -5282,7 +5297,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>49</v>
       </c>
@@ -5299,7 +5314,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>49</v>
       </c>
@@ -5316,7 +5331,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>49</v>
       </c>
@@ -5333,7 +5348,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>49</v>
       </c>
@@ -5351,7 +5366,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>49</v>
       </c>
@@ -5369,7 +5384,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>49</v>
       </c>
@@ -5387,7 +5402,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>49</v>
       </c>
@@ -5405,7 +5420,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>49</v>
       </c>
@@ -5423,7 +5438,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>49</v>
       </c>
@@ -5441,7 +5456,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>49</v>
       </c>
@@ -5459,7 +5474,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>8</v>
       </c>
@@ -5477,7 +5492,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>8</v>
       </c>
@@ -5495,7 +5510,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="194" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>8</v>
       </c>
@@ -5512,7 +5527,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="195" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>8</v>
       </c>
@@ -5529,7 +5544,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="196" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>8</v>
       </c>
@@ -5546,7 +5561,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="197" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>8</v>
       </c>
@@ -5563,7 +5578,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="198" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>8</v>
       </c>
@@ -5580,7 +5595,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="199" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>8</v>
       </c>
@@ -5597,7 +5612,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="200" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>8</v>
       </c>
@@ -5614,7 +5629,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="201" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>8</v>
       </c>
@@ -5631,7 +5646,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="202" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>8</v>
       </c>
@@ -5648,7 +5663,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="203" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>8</v>
       </c>
@@ -5665,7 +5680,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="204" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>9</v>
       </c>
@@ -5682,7 +5697,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="205" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>9</v>
       </c>
@@ -5699,7 +5714,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="206" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>9</v>
       </c>
@@ -5716,7 +5731,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="207" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>9</v>
       </c>
@@ -5733,7 +5748,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="208" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>9</v>
       </c>
@@ -5750,7 +5765,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="209" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>9</v>
       </c>
@@ -5767,7 +5782,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="210" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>9</v>
       </c>
@@ -5784,7 +5799,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="211" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>9</v>
       </c>
@@ -5801,7 +5816,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="212" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>9</v>
       </c>
@@ -5818,7 +5833,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="213" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>9</v>
       </c>
@@ -5835,7 +5850,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="214" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>9</v>
       </c>
@@ -5852,7 +5867,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="215" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>9</v>
       </c>
@@ -5869,7 +5884,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="216" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>9</v>
       </c>
@@ -5886,7 +5901,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="217" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>10</v>
       </c>
@@ -5903,7 +5918,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="218" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>10</v>
       </c>
@@ -5920,7 +5935,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="219" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>10</v>
       </c>
@@ -5937,7 +5952,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="220" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>10</v>
       </c>
@@ -5954,7 +5969,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="221" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>10</v>
       </c>
@@ -5971,7 +5986,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="222" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>10</v>
       </c>
@@ -5988,7 +6003,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="223" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>10</v>
       </c>
@@ -6005,7 +6020,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="224" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>10</v>
       </c>
@@ -6022,7 +6037,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="225" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>10</v>
       </c>
@@ -6039,7 +6054,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="226" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>10</v>
       </c>
@@ -6056,7 +6071,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="227" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>11</v>
       </c>
@@ -6073,7 +6088,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="228" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>11</v>
       </c>
@@ -6090,7 +6105,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="229" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>11</v>
       </c>
@@ -6107,7 +6122,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="230" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>11</v>
       </c>
@@ -6124,7 +6139,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="231" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>11</v>
       </c>
@@ -6141,7 +6156,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="232" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>11</v>
       </c>
@@ -6158,7 +6173,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="233" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>11</v>
       </c>
@@ -6175,7 +6190,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="234" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>11</v>
       </c>
@@ -6192,7 +6207,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="235" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>12</v>
       </c>
@@ -6209,7 +6224,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="236" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>12</v>
       </c>
@@ -6226,7 +6241,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="237" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>12</v>
       </c>
@@ -6243,7 +6258,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="238" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>12</v>
       </c>
@@ -6260,7 +6275,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="239" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>12</v>
       </c>
@@ -6277,7 +6292,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="240" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>12</v>
       </c>
@@ -6294,7 +6309,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="241" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>12</v>
       </c>
@@ -6311,7 +6326,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="242" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>12</v>
       </c>
@@ -6328,7 +6343,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="243" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>12</v>
       </c>
@@ -6345,7 +6360,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="244" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>12</v>
       </c>
@@ -6362,7 +6377,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="245" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>40</v>
       </c>
@@ -6379,7 +6394,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="246" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>40</v>
       </c>
@@ -6396,7 +6411,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="247" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>40</v>
       </c>
@@ -6413,7 +6428,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="248" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>40</v>
       </c>
@@ -6430,7 +6445,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="249" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>40</v>
       </c>
@@ -6447,7 +6462,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="250" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>40</v>
       </c>
@@ -6464,7 +6479,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="251" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>40</v>
       </c>
@@ -6481,7 +6496,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="252" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>40</v>
       </c>
@@ -6498,7 +6513,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="253" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>40</v>
       </c>
@@ -6515,7 +6530,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="254" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>40</v>
       </c>
@@ -6532,7 +6547,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="255" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>41</v>
       </c>
@@ -6549,7 +6564,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="256" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>41</v>
       </c>
@@ -6566,7 +6581,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="257" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>41</v>
       </c>
@@ -6583,7 +6598,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="258" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>41</v>
       </c>
@@ -6600,7 +6615,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>41</v>
       </c>
@@ -6618,7 +6633,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>41</v>
       </c>
@@ -6636,7 +6651,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>41</v>
       </c>
@@ -6654,7 +6669,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>41</v>
       </c>
@@ -6672,7 +6687,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>41</v>
       </c>
@@ -6690,7 +6705,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>41</v>
       </c>
@@ -6708,7 +6723,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>13</v>
       </c>
@@ -6726,7 +6741,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>13</v>
       </c>
@@ -6744,7 +6759,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>13</v>
       </c>
@@ -6762,7 +6777,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>13</v>
       </c>
@@ -6780,7 +6795,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>13</v>
       </c>
@@ -6798,7 +6813,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="270" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
         <v>13</v>
       </c>
@@ -6812,7 +6827,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="271" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
         <v>13</v>
       </c>
@@ -6826,7 +6841,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="272" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
         <v>13</v>
       </c>
@@ -6840,7 +6855,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="273" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
         <v>13</v>
       </c>
@@ -6854,7 +6869,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="274" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
         <v>13</v>
       </c>
@@ -6868,7 +6883,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>13</v>
       </c>
@@ -6886,7 +6901,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
         <v>13</v>
       </c>
@@ -6904,7 +6919,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
         <v>13</v>
       </c>
@@ -6922,7 +6937,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
         <v>13</v>
       </c>
@@ -6940,7 +6955,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="279" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
         <v>13</v>
       </c>
@@ -6957,7 +6972,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="280" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
         <v>13</v>
       </c>
@@ -6974,7 +6989,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="281" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
         <v>13</v>
       </c>
@@ -6991,7 +7006,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="282" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
         <v>13</v>
       </c>
@@ -7008,7 +7023,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="283" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
         <v>13</v>
       </c>
@@ -7025,7 +7040,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="284" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
         <v>13</v>
       </c>
@@ -7042,7 +7057,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>27</v>
       </c>
@@ -7060,7 +7075,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>27</v>
       </c>
@@ -7078,7 +7093,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>27</v>
       </c>
@@ -7096,7 +7111,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>27</v>
       </c>
@@ -7114,7 +7129,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>27</v>
       </c>
@@ -7132,7 +7147,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>27</v>
       </c>
@@ -7150,7 +7165,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>27</v>
       </c>
@@ -7168,7 +7183,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>27</v>
       </c>
@@ -7186,7 +7201,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>27</v>
       </c>
@@ -7204,7 +7219,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>27</v>
       </c>
@@ -7222,7 +7237,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>27</v>
       </c>
@@ -7240,7 +7255,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>14</v>
       </c>
@@ -7258,7 +7273,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>14</v>
       </c>
@@ -7276,7 +7291,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>14</v>
       </c>
@@ -7294,7 +7309,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>14</v>
       </c>
@@ -7312,7 +7327,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>14</v>
       </c>
@@ -7330,7 +7345,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>14</v>
       </c>
@@ -7348,7 +7363,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>14</v>
       </c>
@@ -7366,7 +7381,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>14</v>
       </c>
@@ -7384,7 +7399,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>14</v>
       </c>
@@ -7402,7 +7417,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>14</v>
       </c>
@@ -7420,7 +7435,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>15</v>
       </c>
@@ -7438,7 +7453,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>15</v>
       </c>
@@ -7456,7 +7471,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>15</v>
       </c>
@@ -7474,7 +7489,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>15</v>
       </c>
@@ -7492,7 +7507,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="310" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>15</v>
       </c>
@@ -7509,7 +7524,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="311" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>15</v>
       </c>
@@ -7526,7 +7541,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="312" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>15</v>
       </c>
@@ -7543,7 +7558,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="313" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>15</v>
       </c>
@@ -7560,7 +7575,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="314" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>15</v>
       </c>
@@ -7577,7 +7592,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="315" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>15</v>
       </c>
@@ -7594,7 +7609,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="316" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>15</v>
       </c>
@@ -7611,7 +7626,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>15</v>
       </c>
@@ -7629,7 +7644,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>15</v>
       </c>
@@ -7647,7 +7662,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>15</v>
       </c>
@@ -7665,7 +7680,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>15</v>
       </c>
@@ -7683,7 +7698,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
         <v>15</v>
       </c>
@@ -7701,7 +7716,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>15</v>
       </c>
@@ -7719,7 +7734,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>16</v>
       </c>
@@ -7737,7 +7752,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
         <v>16</v>
       </c>
@@ -7755,7 +7770,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>16</v>
       </c>
@@ -7773,7 +7788,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
         <v>16</v>
       </c>
@@ -7790,7 +7805,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
         <v>16</v>
       </c>
@@ -7807,7 +7822,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>16</v>
       </c>
@@ -7824,7 +7839,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>16</v>
       </c>
@@ -7841,7 +7856,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>16</v>
       </c>
@@ -7858,7 +7873,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>16</v>
       </c>
@@ -7875,7 +7890,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
         <v>16</v>
       </c>
@@ -7892,7 +7907,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
         <v>16</v>
       </c>
@@ -7909,7 +7924,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
         <v>16</v>
       </c>
@@ -7926,7 +7941,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>32</v>
       </c>
@@ -7943,7 +7958,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>32</v>
       </c>
@@ -7960,7 +7975,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>32</v>
       </c>
@@ -7977,7 +7992,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
         <v>32</v>
       </c>
@@ -7994,7 +8009,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>32</v>
       </c>
@@ -8011,7 +8026,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>32</v>
       </c>
@@ -8028,7 +8043,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="341" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="6" t="s">
         <v>17</v>
       </c>
@@ -8045,7 +8060,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="6" t="s">
         <v>17</v>
       </c>
@@ -8062,7 +8077,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="6" t="s">
         <v>17</v>
       </c>
@@ -8079,7 +8094,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="6" t="s">
         <v>17</v>
       </c>
@@ -8096,7 +8111,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="6" t="s">
         <v>17</v>
       </c>
@@ -8113,7 +8128,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="6" t="s">
         <v>17</v>
       </c>
@@ -8130,7 +8145,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="6" t="s">
         <v>17</v>
       </c>
@@ -8148,7 +8163,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="6" t="s">
         <v>17</v>
       </c>
@@ -8166,7 +8181,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="15" t="s">
         <v>33</v>
       </c>
@@ -8184,7 +8199,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="15" t="s">
         <v>33</v>
       </c>
@@ -8202,7 +8217,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="15" t="s">
         <v>33</v>
       </c>
@@ -8220,7 +8235,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="15" t="s">
         <v>33</v>
       </c>
@@ -8238,7 +8253,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="15" t="s">
         <v>33</v>
       </c>
@@ -8256,19 +8271,19 @@
         <v>62</v>
       </c>
     </row>
-    <row r="354" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="15"/>
       <c r="B354" s="14"/>
       <c r="C354" s="14"/>
       <c r="D354" s="15"/>
     </row>
-    <row r="355" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="15"/>
       <c r="B355" s="14"/>
       <c r="C355" s="14"/>
       <c r="D355" s="15"/>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="15" t="s">
         <v>33</v>
       </c>
@@ -8286,7 +8301,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
         <v>34</v>
       </c>
@@ -8304,7 +8319,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
         <v>34</v>
       </c>
@@ -8322,7 +8337,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
         <v>34</v>
       </c>
@@ -8340,7 +8355,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
         <v>34</v>
       </c>
@@ -8358,7 +8373,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
         <v>34</v>
       </c>
@@ -8376,7 +8391,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
         <v>34</v>
       </c>
@@ -8394,7 +8409,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
         <v>34</v>
       </c>
@@ -8412,7 +8427,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
         <v>34</v>
       </c>
@@ -8430,7 +8445,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
         <v>35</v>
       </c>
@@ -8448,7 +8463,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
         <v>35</v>
       </c>
@@ -8466,7 +8481,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
         <v>35</v>
       </c>
@@ -8484,7 +8499,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
         <v>35</v>
       </c>
@@ -8502,7 +8517,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
         <v>35</v>
       </c>
@@ -8520,7 +8535,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
         <v>35</v>
       </c>
@@ -8538,7 +8553,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
         <v>35</v>
       </c>
@@ -8556,7 +8571,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
         <v>35</v>
       </c>
@@ -8574,7 +8589,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
         <v>35</v>
       </c>
@@ -8592,7 +8607,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
         <v>36</v>
       </c>
@@ -8608,7 +8623,7 @@
       <c r="E374" s="6"/>
       <c r="F374" s="6"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
         <v>36</v>
       </c>
@@ -8624,7 +8639,7 @@
       <c r="E375" s="6"/>
       <c r="F375" s="6"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
         <v>36</v>
       </c>
@@ -8640,7 +8655,7 @@
       <c r="E376" s="6"/>
       <c r="F376" s="6"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
         <v>36</v>
       </c>
@@ -8656,7 +8671,7 @@
       <c r="E377" s="6"/>
       <c r="F377" s="6"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
         <v>36</v>
       </c>
@@ -8672,7 +8687,7 @@
       <c r="E378" s="6"/>
       <c r="F378" s="6"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
         <v>36</v>
       </c>
@@ -8688,7 +8703,7 @@
       <c r="E379" s="6"/>
       <c r="F379" s="6"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
         <v>36</v>
       </c>
@@ -8704,7 +8719,7 @@
       <c r="E380" s="6"/>
       <c r="F380" s="6"/>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
         <v>36</v>
       </c>
@@ -8720,7 +8735,7 @@
       <c r="E381" s="6"/>
       <c r="F381" s="6"/>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
         <v>36</v>
       </c>
@@ -8740,7 +8755,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
         <v>37</v>
       </c>
@@ -8758,7 +8773,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
         <v>37</v>
       </c>
@@ -8776,7 +8791,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
         <v>37</v>
       </c>
@@ -8794,7 +8809,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
         <v>37</v>
       </c>
@@ -8812,7 +8827,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
         <v>37</v>
       </c>
@@ -8830,7 +8845,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
         <v>37</v>
       </c>
@@ -8848,7 +8863,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
         <v>37</v>
       </c>
@@ -8866,7 +8881,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
         <v>37</v>
       </c>
@@ -8884,7 +8899,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
         <v>38</v>
       </c>
@@ -8898,13 +8913,13 @@
         <v>47</v>
       </c>
       <c r="E391" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F391" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
         <v>38</v>
       </c>
@@ -8918,13 +8933,13 @@
         <v>47</v>
       </c>
       <c r="E392" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F392" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="393" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="13" t="s">
         <v>38</v>
       </c>
@@ -8941,7 +8956,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
         <v>38</v>
       </c>
@@ -8955,13 +8970,13 @@
         <v>47</v>
       </c>
       <c r="E394" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F394" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
         <v>38</v>
       </c>
@@ -8975,13 +8990,13 @@
         <v>47</v>
       </c>
       <c r="E395" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F395" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
         <v>38</v>
       </c>
@@ -8995,129 +9010,129 @@
         <v>47</v>
       </c>
       <c r="E396" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F396" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B397" s="7">
-        <v>43591.583333333336</v>
+        <v>43591.402777777781</v>
       </c>
       <c r="C397" s="7">
-        <v>43592.041666666664</v>
+        <v>43591.458333333336</v>
       </c>
       <c r="D397" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E397" s="6"/>
       <c r="F397" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B398" s="7">
-        <v>43592.427083333336</v>
+        <v>43592.159722222219</v>
       </c>
       <c r="C398" s="7">
-        <v>43593.125</v>
+        <v>43592.416666666664</v>
       </c>
       <c r="D398" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E398" s="6"/>
       <c r="F398" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B399" s="7">
-        <v>43593.958333333336</v>
+        <v>43593.850694444445</v>
       </c>
       <c r="C399" s="7">
-        <v>43594.375</v>
+        <v>43593.909722222219</v>
       </c>
       <c r="D399" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E399" s="6"/>
       <c r="F399" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B400" s="7">
-        <v>43594.833333333336</v>
+        <v>43596.326388888891</v>
       </c>
       <c r="C400" s="7">
-        <v>43595.3125</v>
+        <v>43596.729166666664</v>
       </c>
       <c r="D400" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E400" s="6"/>
       <c r="F400" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B401" s="7">
-        <v>43596.541666666664</v>
+        <v>43586</v>
       </c>
       <c r="C401" s="7">
-        <v>43597.291666666664</v>
+        <v>43586.847222222219</v>
       </c>
       <c r="D401" s="6" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="E401" s="6"/>
       <c r="F401" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B402" s="7">
-        <v>43586</v>
+        <v>43591.375</v>
       </c>
       <c r="C402" s="7">
-        <v>43586.847222222219</v>
+        <v>43591.458333333336</v>
       </c>
       <c r="D402" s="6" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="E402" s="6"/>
       <c r="F402" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B403" s="7">
-        <v>43591.375</v>
+        <v>43596.291666666664</v>
       </c>
       <c r="C403" s="7">
-        <v>43591.458333333336</v>
+        <v>43596.458333333336</v>
       </c>
       <c r="D403" s="6" t="s">
         <v>47</v>
@@ -9127,53 +9142,53 @@
         <v>62</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B404" s="7">
-        <v>43596.291666666664</v>
+        <v>43601.333333333336</v>
       </c>
       <c r="C404" s="7">
-        <v>43596.458333333336</v>
+        <v>43601.583333333336</v>
       </c>
       <c r="D404" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E404" s="6"/>
+      <c r="E404" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="F404" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B405" s="7">
-        <v>43601.333333333336</v>
+        <v>43604.291666666664</v>
       </c>
       <c r="C405" s="7">
-        <v>43601.583333333336</v>
+        <v>43605.583333333336</v>
       </c>
       <c r="D405" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E405" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="E405" s="6"/>
       <c r="F405" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B406" s="7">
-        <v>43604.291666666664</v>
+        <v>43607.25</v>
       </c>
       <c r="C406" s="7">
-        <v>43605.583333333336</v>
+        <v>43607.541666666664</v>
       </c>
       <c r="D406" s="6" t="s">
         <v>47</v>
@@ -9183,15 +9198,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B407" s="7">
-        <v>43607.25</v>
+        <v>43611.291666666664</v>
       </c>
       <c r="C407" s="7">
-        <v>43607.541666666664</v>
+        <v>43613</v>
       </c>
       <c r="D407" s="6" t="s">
         <v>47</v>
@@ -9201,33 +9216,33 @@
         <v>62</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B408" s="7">
-        <v>43611.291666666664</v>
+        <v>43633.166666666664</v>
       </c>
       <c r="C408" s="7">
-        <v>43613</v>
+        <v>43633.458333333336</v>
       </c>
       <c r="D408" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E408" s="6"/>
       <c r="F408" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B409" s="7">
-        <v>43633.166666666664</v>
+        <v>43637.270833333336</v>
       </c>
       <c r="C409" s="7">
-        <v>43633.458333333336</v>
+        <v>43637.416666666664</v>
       </c>
       <c r="D409" s="6" t="s">
         <v>47</v>
@@ -9237,159 +9252,159 @@
         <v>89</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A410" s="3" t="s">
+    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B410" s="7">
-        <v>43637.270833333336</v>
+        <v>43654.288194444445</v>
       </c>
       <c r="C410" s="7">
-        <v>43637.416666666664</v>
+        <v>43654.788194444445</v>
       </c>
       <c r="D410" s="6" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="E410" s="6"/>
       <c r="F410" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B411" s="7">
-        <v>43654.288194444445</v>
+        <v>43691.427083333336</v>
       </c>
       <c r="C411" s="7">
-        <v>43654.788194444445</v>
+        <v>43692.385416666664</v>
       </c>
       <c r="D411" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E411" s="6"/>
+        <v>125</v>
+      </c>
       <c r="F411" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="412" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B412" s="7">
-        <v>43691.427083333336</v>
+        <v>43684.361111111109</v>
       </c>
       <c r="C412" s="7">
-        <v>43692.385416666664</v>
+        <v>43685.361111111109</v>
       </c>
       <c r="D412" s="6" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F412" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="413" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A413" s="7" t="s">
-        <v>44</v>
+    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A413" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B413" s="7">
-        <v>43684.361111111109</v>
+        <v>43586</v>
       </c>
       <c r="C413" s="7">
-        <v>43685.361111111109</v>
+        <v>43586.572916666664</v>
       </c>
       <c r="D413" s="6" t="s">
-        <v>109</v>
+        <v>85</v>
+      </c>
+      <c r="E413" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="F413" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B414" s="7">
-        <v>43586</v>
+        <v>43591.375</v>
       </c>
       <c r="C414" s="7">
-        <v>43586.572916666664</v>
+        <v>43591.458333333336</v>
       </c>
       <c r="D414" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E414" s="6" t="s">
-        <v>50</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E414" s="6"/>
       <c r="F414" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B415" s="7">
-        <v>43591.375</v>
+        <v>43594.875</v>
       </c>
       <c r="C415" s="7">
-        <v>43591.458333333336</v>
+        <v>43595.708333333336</v>
       </c>
       <c r="D415" s="6" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E415" s="6"/>
       <c r="F415" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B416" s="7">
-        <v>43594.875</v>
+        <v>43596.291666666664</v>
       </c>
       <c r="C416" s="7">
-        <v>43595.708333333336</v>
+        <v>43596.458333333336</v>
       </c>
       <c r="D416" s="6" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E416" s="6"/>
       <c r="F416" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B417" s="7">
-        <v>43596.291666666664</v>
+        <v>43598</v>
       </c>
       <c r="C417" s="7">
-        <v>43596.458333333336</v>
+        <v>43598.697916666664</v>
       </c>
       <c r="D417" s="6" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E417" s="6"/>
       <c r="F417" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B418" s="7">
-        <v>43598</v>
+        <v>43599.479166666664</v>
       </c>
       <c r="C418" s="7">
-        <v>43598.697916666664</v>
+        <v>43600.114583333336</v>
       </c>
       <c r="D418" s="6" t="s">
         <v>58</v>
@@ -9399,33 +9414,33 @@
         <v>62</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B419" s="7">
-        <v>43599.479166666664</v>
+        <v>43601.333333333336</v>
       </c>
       <c r="C419" s="7">
-        <v>43600.114583333336</v>
+        <v>43601.583333333336</v>
       </c>
       <c r="D419" s="6" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E419" s="6"/>
       <c r="F419" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B420" s="7">
-        <v>43601.333333333336</v>
+        <v>43604.291666666664</v>
       </c>
       <c r="C420" s="7">
-        <v>43601.583333333336</v>
+        <v>43605.583333333336</v>
       </c>
       <c r="D420" s="6" t="s">
         <v>47</v>
@@ -9435,15 +9450,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B421" s="7">
-        <v>43604.291666666664</v>
+        <v>43607.25</v>
       </c>
       <c r="C421" s="7">
-        <v>43605.583333333336</v>
+        <v>43607.541666666664</v>
       </c>
       <c r="D421" s="6" t="s">
         <v>47</v>
@@ -9453,15 +9468,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B422" s="7">
-        <v>43607.25</v>
+        <v>43611.291666666664</v>
       </c>
       <c r="C422" s="7">
-        <v>43607.541666666664</v>
+        <v>43613</v>
       </c>
       <c r="D422" s="6" t="s">
         <v>47</v>
@@ -9471,45 +9486,45 @@
         <v>62</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B423" s="7">
-        <v>43611.291666666664</v>
+        <v>43655.552083333336</v>
       </c>
       <c r="C423" s="7">
-        <v>43613</v>
+        <v>43661.5625</v>
       </c>
       <c r="D423" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E423" s="6"/>
+        <v>96</v>
+      </c>
+      <c r="E423" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="F423" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B424" s="7">
-        <v>43655.552083333336</v>
+        <v>43661.5625</v>
       </c>
       <c r="C424" s="7">
-        <v>43661.5625</v>
+        <v>43661.604166666664</v>
       </c>
       <c r="D424" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E424" s="6" t="s">
-        <v>97</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="E424" s="6"/>
       <c r="F424" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
         <v>45</v>
       </c>
@@ -9520,118 +9535,118 @@
         <v>43661.604166666664</v>
       </c>
       <c r="D425" s="6" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="E425" s="6"/>
       <c r="F425" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A426" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A426" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B426" s="7">
-        <v>43661.5625</v>
+        <v>43668.784722222219</v>
       </c>
       <c r="C426" s="7">
-        <v>43661.604166666664</v>
+        <v>43669.243055555555</v>
       </c>
       <c r="D426" s="6" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="E426" s="6"/>
       <c r="F426" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A427" s="7" t="s">
-        <v>45</v>
+    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A427" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B427" s="7">
-        <v>43668.784722222219</v>
+        <v>43600.951388888891</v>
       </c>
       <c r="C427" s="7">
-        <v>43669.243055555555</v>
+        <v>43601.555555555555</v>
       </c>
       <c r="D427" s="6" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="E427" s="6"/>
       <c r="F427" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A428" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B428" s="7">
-        <v>43600.951388888891</v>
-      </c>
-      <c r="C428" s="7">
-        <v>43601.555555555555</v>
-      </c>
-      <c r="D428" s="6" t="s">
-        <v>47</v>
-      </c>
+    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A428" s="3"/>
+      <c r="D428" s="6"/>
       <c r="E428" s="6"/>
-      <c r="F428" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A429" s="3"/>
-      <c r="D429" s="6"/>
+      <c r="F428" s="6"/>
+    </row>
+    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A429" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B429" s="32">
+        <v>43591.375</v>
+      </c>
+      <c r="C429" s="32">
+        <v>43592.458333333336</v>
+      </c>
+      <c r="D429" s="31" t="s">
+        <v>47</v>
+      </c>
       <c r="E429" s="6"/>
-      <c r="F429" s="6"/>
-    </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F429" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="35" t="s">
         <v>18</v>
       </c>
       <c r="B430" s="32">
-        <v>43591.375</v>
+        <v>43592.125</v>
       </c>
       <c r="C430" s="32">
-        <v>43592.458333333336</v>
+        <v>43594.416666666664</v>
       </c>
       <c r="D430" s="31" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="E430" s="6"/>
       <c r="F430" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="35" t="s">
         <v>18</v>
       </c>
       <c r="B431" s="32">
-        <v>43592.125</v>
+        <v>43595.291666666664</v>
       </c>
       <c r="C431" s="32">
-        <v>43594.416666666664</v>
+        <v>43595.416666666664</v>
       </c>
       <c r="D431" s="31" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="E431" s="6"/>
       <c r="F431" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="35" t="s">
         <v>18</v>
       </c>
       <c r="B432" s="32">
-        <v>43595.291666666664</v>
+        <v>43596.319444444445</v>
       </c>
       <c r="C432" s="32">
-        <v>43595.416666666664</v>
+        <v>43596.947916666664</v>
       </c>
       <c r="D432" s="31" t="s">
         <v>47</v>
@@ -9641,43 +9656,43 @@
         <v>62</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="35" t="s">
         <v>18</v>
       </c>
       <c r="B433" s="32">
-        <v>43596.319444444445</v>
+        <v>43601.333333333336</v>
       </c>
       <c r="C433" s="32">
-        <v>43596.947916666664</v>
+        <v>43601.854166666664</v>
       </c>
       <c r="D433" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="E433" s="6"/>
+      <c r="E433" s="3"/>
       <c r="F433" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="35" t="s">
         <v>18</v>
       </c>
       <c r="B434" s="32">
-        <v>43601.333333333336</v>
+        <v>43604.083333333336</v>
       </c>
       <c r="C434" s="32">
-        <v>43601.854166666664</v>
+        <v>43605.1875</v>
       </c>
       <c r="D434" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="E434" s="3"/>
+      <c r="E434" s="6"/>
       <c r="F434" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="35" t="s">
         <v>18</v>
       </c>
@@ -9685,61 +9700,61 @@
         <v>43604.083333333336</v>
       </c>
       <c r="C435" s="32">
-        <v>43605.1875</v>
+        <v>43633.6875</v>
       </c>
       <c r="D435" s="31" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="E435" s="6"/>
       <c r="F435" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="35" t="s">
         <v>18</v>
       </c>
       <c r="B436" s="32">
-        <v>43604.083333333336</v>
+        <v>43637.270833333336</v>
       </c>
       <c r="C436" s="32">
-        <v>43633.6875</v>
+        <v>43637.479166666664</v>
       </c>
       <c r="D436" s="31" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="E436" s="6"/>
       <c r="F436" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="35" t="s">
         <v>18</v>
       </c>
       <c r="B437" s="32">
-        <v>43637.270833333336</v>
+        <v>43663.302083333336</v>
       </c>
       <c r="C437" s="32">
-        <v>43637.479166666664</v>
+        <v>43665.5625</v>
       </c>
       <c r="D437" s="31" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="E437" s="6"/>
       <c r="F437" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A438" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A438" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B438" s="32">
-        <v>43663.302083333336</v>
+        <v>43668.850694444445</v>
       </c>
       <c r="C438" s="32">
-        <v>43665.5625</v>
+        <v>43669.267361111109</v>
       </c>
       <c r="D438" s="31" t="s">
         <v>110</v>
@@ -9749,65 +9764,65 @@
         <v>62</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B439" s="32">
-        <v>43668.850694444445</v>
+        <v>43675.892361111109</v>
       </c>
       <c r="C439" s="32">
-        <v>43669.267361111109</v>
+        <v>43676.225694444445</v>
       </c>
       <c r="D439" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="E439" s="6"/>
-      <c r="F439" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="440" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A440" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B440" s="32">
-        <v>43675.892361111109</v>
-      </c>
-      <c r="C440" s="32">
-        <v>43676.225694444445</v>
-      </c>
-      <c r="D440" s="31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A440" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B440" s="7">
+        <v>43575</v>
+      </c>
+      <c r="C440" s="7">
+        <v>43593.75</v>
+      </c>
+      <c r="D440" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E440" s="6"/>
+      <c r="F440" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B441" s="7">
-        <v>43575</v>
+        <v>43594.965277777781</v>
       </c>
       <c r="C441" s="7">
-        <v>43593.75</v>
+        <v>43595.375</v>
       </c>
       <c r="D441" s="6" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="E441" s="6"/>
       <c r="F441" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B442" s="7">
-        <v>43594.965277777781</v>
+        <v>43596.395833333336</v>
       </c>
       <c r="C442" s="7">
-        <v>43595.375</v>
+        <v>43596.517361111109</v>
       </c>
       <c r="D442" s="6" t="s">
         <v>47</v>
@@ -9817,15 +9832,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A443" s="6" t="s">
+    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A443" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B443" s="7">
-        <v>43596.395833333336</v>
+        <v>43601.420138888891</v>
       </c>
       <c r="C443" s="7">
-        <v>43596.517361111109</v>
+        <v>43601.604166666664</v>
       </c>
       <c r="D443" s="6" t="s">
         <v>47</v>
@@ -9835,15 +9850,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B444" s="7">
-        <v>43601.420138888891</v>
+        <v>43604.4375</v>
       </c>
       <c r="C444" s="7">
-        <v>43601.604166666664</v>
+        <v>43604.638888888891</v>
       </c>
       <c r="D444" s="6" t="s">
         <v>47</v>
@@ -9853,15 +9868,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B445" s="7">
-        <v>43604.4375</v>
+        <v>43604.875</v>
       </c>
       <c r="C445" s="7">
-        <v>43604.638888888891</v>
+        <v>43605.569444444445</v>
       </c>
       <c r="D445" s="6" t="s">
         <v>47</v>
@@ -9871,15 +9886,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B446" s="7">
-        <v>43604.875</v>
+        <v>43607.239583333336</v>
       </c>
       <c r="C446" s="7">
-        <v>43605.569444444445</v>
+        <v>43607.354166666664</v>
       </c>
       <c r="D446" s="6" t="s">
         <v>47</v>
@@ -9889,15 +9904,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B447" s="7">
-        <v>43607.239583333336</v>
-      </c>
-      <c r="C447" s="7">
-        <v>43607.354166666664</v>
+      <c r="B447" s="22">
+        <v>43611.885416666664</v>
+      </c>
+      <c r="C447" s="22">
+        <v>43612.34375</v>
       </c>
       <c r="D447" s="6" t="s">
         <v>47</v>
@@ -9907,15 +9922,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B448" s="22">
-        <v>43611.885416666664</v>
+        <v>43637.208333333336</v>
       </c>
       <c r="C448" s="22">
-        <v>43612.34375</v>
+        <v>43637.416666666664</v>
       </c>
       <c r="D448" s="6" t="s">
         <v>47</v>
@@ -9925,15 +9940,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A449" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B449" s="22">
-        <v>43637.208333333336</v>
-      </c>
-      <c r="C449" s="22">
-        <v>43637.416666666664</v>
+    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A449" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B449" s="7">
+        <v>43591.333333333336</v>
+      </c>
+      <c r="C449" s="7">
+        <v>43591.479166666664</v>
       </c>
       <c r="D449" s="6" t="s">
         <v>47</v>
@@ -9943,15 +9958,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B450" s="7">
-        <v>43591.333333333336</v>
+        <v>43592.173611111109</v>
       </c>
       <c r="C450" s="7">
-        <v>43591.479166666664</v>
+        <v>43592.288194444445</v>
       </c>
       <c r="D450" s="6" t="s">
         <v>47</v>
@@ -9961,15 +9976,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B451" s="7">
-        <v>43592.173611111109</v>
+        <v>43595.041666666664</v>
       </c>
       <c r="C451" s="7">
-        <v>43592.288194444445</v>
+        <v>43595.322916666664</v>
       </c>
       <c r="D451" s="6" t="s">
         <v>47</v>
@@ -9979,15 +9994,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B452" s="7">
-        <v>43595.041666666664</v>
+        <v>43596.270833333336</v>
       </c>
       <c r="C452" s="7">
-        <v>43595.322916666664</v>
+        <v>43596.534722222219</v>
       </c>
       <c r="D452" s="6" t="s">
         <v>47</v>
@@ -9997,15 +10012,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B453" s="7">
-        <v>43596.270833333336</v>
+        <v>43601.40625</v>
       </c>
       <c r="C453" s="7">
-        <v>43596.534722222219</v>
+        <v>43601.565972222219</v>
       </c>
       <c r="D453" s="6" t="s">
         <v>47</v>
@@ -10015,15 +10030,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B454" s="7">
-        <v>43601.40625</v>
+        <v>43604.416666666664</v>
       </c>
       <c r="C454" s="7">
-        <v>43601.565972222219</v>
+        <v>43605.368055555555</v>
       </c>
       <c r="D454" s="6" t="s">
         <v>47</v>
@@ -10033,15 +10048,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B455" s="7">
-        <v>43604.416666666664</v>
+        <v>43606.951388888891</v>
       </c>
       <c r="C455" s="7">
-        <v>43605.368055555555</v>
+        <v>43607.875</v>
       </c>
       <c r="D455" s="6" t="s">
         <v>47</v>
@@ -10051,15 +10066,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B456" s="7">
-        <v>43606.951388888891</v>
+        <v>43611.9375</v>
       </c>
       <c r="C456" s="7">
-        <v>43607.875</v>
+        <v>43612.111111111109</v>
       </c>
       <c r="D456" s="6" t="s">
         <v>47</v>
@@ -10069,81 +10084,81 @@
         <v>62</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A457" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B457" s="7">
-        <v>43611.9375</v>
-      </c>
-      <c r="C457" s="7">
-        <v>43612.111111111109</v>
-      </c>
-      <c r="D457" s="6" t="s">
-        <v>47</v>
-      </c>
+    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A457" s="6"/>
+      <c r="D457" s="6"/>
       <c r="E457" s="6"/>
-      <c r="F457" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F457" s="6"/>
+    </row>
+    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="6"/>
       <c r="D458" s="6"/>
       <c r="E458" s="6"/>
       <c r="F458" s="6"/>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="6"/>
       <c r="D459" s="6"/>
       <c r="E459" s="6"/>
       <c r="F459" s="6"/>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="6"/>
       <c r="D460" s="6"/>
       <c r="E460" s="6"/>
       <c r="F460" s="6"/>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="6"/>
       <c r="D461" s="6"/>
       <c r="E461" s="6"/>
       <c r="F461" s="6"/>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="6"/>
       <c r="D462" s="6"/>
       <c r="E462" s="6"/>
       <c r="F462" s="6"/>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="6"/>
       <c r="D463" s="6"/>
       <c r="E463" s="6"/>
       <c r="F463" s="6"/>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="6"/>
       <c r="D464" s="6"/>
       <c r="E464" s="6"/>
       <c r="F464" s="6"/>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A465" s="6"/>
-      <c r="D465" s="6"/>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A465" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B465" s="7">
+        <v>43591.409722222219</v>
+      </c>
+      <c r="C465" s="7">
+        <v>43592.583333333336</v>
+      </c>
+      <c r="D465" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="E465" s="6"/>
-      <c r="F465" s="6"/>
-    </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F465" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B466" s="7">
-        <v>43591.409722222219</v>
+        <v>43595.194444444445</v>
       </c>
       <c r="C466" s="7">
-        <v>43592.583333333336</v>
+        <v>43595.4375</v>
       </c>
       <c r="D466" s="6" t="s">
         <v>47</v>
@@ -10153,15 +10168,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B467" s="7">
-        <v>43595.194444444445</v>
+        <v>43595.260416666664</v>
       </c>
       <c r="C467" s="7">
-        <v>43595.4375</v>
+        <v>43594.875</v>
       </c>
       <c r="D467" s="6" t="s">
         <v>47</v>
@@ -10171,15 +10186,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B468" s="7">
-        <v>43595.260416666664</v>
+        <v>43596.340277777781</v>
       </c>
       <c r="C468" s="7">
-        <v>43594.875</v>
+        <v>43596.895833333336</v>
       </c>
       <c r="D468" s="6" t="s">
         <v>47</v>
@@ -10189,15 +10204,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B469" s="7">
-        <v>43596.340277777781</v>
+        <v>43601.440972222219</v>
       </c>
       <c r="C469" s="7">
-        <v>43596.895833333336</v>
+        <v>43601.822916666664</v>
       </c>
       <c r="D469" s="6" t="s">
         <v>47</v>
@@ -10207,15 +10222,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B470" s="7">
-        <v>43601.440972222219</v>
+        <v>43604.440972222219</v>
       </c>
       <c r="C470" s="7">
-        <v>43601.822916666664</v>
+        <v>43608.708333333336</v>
       </c>
       <c r="D470" s="6" t="s">
         <v>47</v>
@@ -10225,15 +10240,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B471" s="7">
-        <v>43604.440972222219</v>
+        <v>43610.291666666664</v>
       </c>
       <c r="C471" s="7">
-        <v>43608.708333333336</v>
+        <v>43612.25</v>
       </c>
       <c r="D471" s="6" t="s">
         <v>47</v>
@@ -10243,33 +10258,33 @@
         <v>62</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B472" s="7">
-        <v>43610.291666666664</v>
+        <v>43633.583333333336</v>
       </c>
       <c r="C472" s="7">
-        <v>43612.25</v>
+        <v>43633.833333333336</v>
       </c>
       <c r="D472" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E472" s="6"/>
       <c r="F472" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B473" s="7">
-        <v>43633.583333333336</v>
+        <v>43637.104166666664</v>
       </c>
       <c r="C473" s="7">
-        <v>43633.833333333336</v>
+        <v>43637.791666666664</v>
       </c>
       <c r="D473" s="6" t="s">
         <v>47</v>
@@ -10279,213 +10294,93 @@
         <v>89</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A474" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B474" s="7">
-        <v>43637.104166666664</v>
-      </c>
-      <c r="C474" s="7">
-        <v>43637.791666666664</v>
-      </c>
-      <c r="D474" s="6" t="s">
-        <v>47</v>
-      </c>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A474" s="6"/>
+      <c r="D474" s="6"/>
       <c r="E474" s="6"/>
-      <c r="F474" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A475" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B475" s="7">
-        <v>43646</v>
-      </c>
-      <c r="C475" s="7">
-        <v>43646.020833333336</v>
-      </c>
-      <c r="D475" s="6" t="s">
-        <v>69</v>
-      </c>
+      <c r="F474" s="6"/>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A475" s="6"/>
+      <c r="D475" s="6"/>
       <c r="E475" s="6"/>
-      <c r="F475" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A476" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B476" s="7">
-        <v>43647.392361111109</v>
-      </c>
-      <c r="C476" s="7">
-        <v>43647.559027777781</v>
-      </c>
-      <c r="D476" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="F475" s="6"/>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A476" s="6"/>
+      <c r="D476" s="6"/>
       <c r="E476" s="6"/>
-      <c r="F476" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A477" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B477" s="7">
-        <v>43649.385416666664</v>
-      </c>
-      <c r="C477" s="7">
-        <v>43649.552083333336</v>
-      </c>
-      <c r="D477" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="F476" s="6"/>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A477" s="6"/>
+      <c r="D477" s="6"/>
       <c r="E477" s="6"/>
-      <c r="F477" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A478" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B478" s="7">
-        <v>43655.010416666664</v>
-      </c>
-      <c r="C478" s="7">
-        <v>43655.177083333336</v>
-      </c>
-      <c r="D478" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="F477" s="6"/>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A478" s="6"/>
+      <c r="D478" s="6"/>
       <c r="E478" s="6"/>
-      <c r="F478" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A479" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B479" s="7">
-        <v>43665.013888888891</v>
-      </c>
-      <c r="C479" s="7">
-        <v>43665.180555555555</v>
-      </c>
-      <c r="D479" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="F478" s="6"/>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A479" s="6"/>
+      <c r="D479" s="6"/>
       <c r="E479" s="6"/>
-      <c r="F479" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A480" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B480" s="7">
-        <v>43666.013888888891</v>
-      </c>
-      <c r="C480" s="7">
-        <v>43666.180555555555</v>
-      </c>
-      <c r="D480" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="F479" s="6"/>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A480" s="6"/>
+      <c r="D480" s="6"/>
       <c r="E480" s="6"/>
-      <c r="F480" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A481" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B481" s="7">
-        <v>43668.010416666664</v>
-      </c>
-      <c r="C481" s="7">
-        <v>43668.177083333336</v>
-      </c>
-      <c r="D481" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="F480" s="6"/>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A481" s="6"/>
+      <c r="D481" s="6"/>
       <c r="E481" s="6"/>
-      <c r="F481" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A482" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B482" s="7">
-        <v>43669</v>
-      </c>
-      <c r="C482" s="7">
-        <v>43669.006944444445</v>
-      </c>
-      <c r="D482" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="F481" s="6"/>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A482" s="6"/>
+      <c r="D482" s="6"/>
       <c r="E482" s="6"/>
-      <c r="F482" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A483" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B483" s="7">
-        <v>43670</v>
-      </c>
-      <c r="C483" s="7">
-        <v>43670.006944444445</v>
-      </c>
-      <c r="D483" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="F482" s="6"/>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A483" s="6"/>
+      <c r="D483" s="6"/>
       <c r="E483" s="6"/>
-      <c r="F483" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F483" s="6"/>
+    </row>
+    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B484" s="7">
-        <v>43670.545138888891</v>
+        <v>43591.375</v>
       </c>
       <c r="C484" s="7">
-        <v>43670.711805555555</v>
+        <v>43591.78125</v>
       </c>
       <c r="D484" s="6" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="E484" s="6"/>
       <c r="F484" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B485" s="7">
-        <v>43591.375</v>
+        <v>43592.166666666664</v>
       </c>
       <c r="C485" s="7">
-        <v>43591.78125</v>
+        <v>43592.579861111109</v>
       </c>
       <c r="D485" s="6" t="s">
         <v>47</v>
@@ -10495,50 +10390,49 @@
         <v>62</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B486" s="7">
-        <v>43592.166666666664</v>
+        <v>43595.194444444445</v>
       </c>
       <c r="C486" s="7">
-        <v>43592.579861111109</v>
+        <v>43595.4375</v>
       </c>
       <c r="D486" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E486" s="6"/>
-      <c r="F486" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F486" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B487" s="7">
-        <v>43595.194444444445</v>
+        <v>43595.260416666664</v>
       </c>
       <c r="C487" s="7">
-        <v>43595.4375</v>
+        <v>43594.875</v>
       </c>
       <c r="D487" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F487" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F487" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B488" s="7">
-        <v>43595.260416666664</v>
+        <v>43596.340277777781</v>
       </c>
       <c r="C488" s="7">
-        <v>43594.875</v>
+        <v>43596.895833333336</v>
       </c>
       <c r="D488" s="6" t="s">
         <v>47</v>
@@ -10547,103 +10441,104 @@
         <v>62</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B489" s="7">
-        <v>43596.340277777781</v>
+        <v>43601.388888888891</v>
       </c>
       <c r="C489" s="7">
-        <v>43596.895833333336</v>
+        <v>43601.822916666664</v>
       </c>
       <c r="D489" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F489" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F489" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B490" s="7">
-        <v>43601.388888888891</v>
+        <v>43604.350694444445</v>
       </c>
       <c r="C490" s="7">
-        <v>43601.822916666664</v>
+        <v>43608.708333333336</v>
       </c>
       <c r="D490" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="E490" s="6"/>
       <c r="F490" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B491" s="7">
-        <v>43604.350694444445</v>
+        <v>43611.892361111109</v>
       </c>
       <c r="C491" s="7">
-        <v>43608.708333333336</v>
+        <v>43612.25</v>
       </c>
       <c r="D491" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E491" s="6"/>
-      <c r="F491" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F491" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B492" s="7">
-        <v>43611.892361111109</v>
+        <v>43616.208333333336</v>
       </c>
       <c r="C492" s="7">
-        <v>43612.25</v>
+        <v>43616.701388888891</v>
       </c>
       <c r="D492" s="6" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E492" s="6"/>
       <c r="F492" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B493" s="7">
-        <v>43616.208333333336</v>
+        <v>43633.583333333336</v>
       </c>
       <c r="C493" s="7">
-        <v>43616.701388888891</v>
+        <v>43633.791666666664</v>
       </c>
       <c r="D493" s="6" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E493" s="6"/>
-      <c r="F493" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F493" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B494" s="7">
-        <v>43633.583333333336</v>
+        <v>43637.104166666664</v>
       </c>
       <c r="C494" s="7">
-        <v>43633.791666666664</v>
+        <v>43637.791666666664</v>
       </c>
       <c r="D494" s="6" t="s">
         <v>47</v>
@@ -10653,27 +10548,26 @@
         <v>89</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A495" s="6" t="s">
+    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
         <v>25</v>
       </c>
       <c r="B495" s="7">
-        <v>43637.104166666664</v>
+        <v>43712.618055555555</v>
       </c>
       <c r="C495" s="7">
-        <v>43637.791666666664</v>
-      </c>
-      <c r="D495" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E495" s="6"/>
+        <v>43712.847222222219</v>
+      </c>
+      <c r="D495" t="s">
+        <v>47</v>
+      </c>
       <c r="F495" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B496" s="7">
         <v>43712.618055555555</v>
@@ -10681,16 +10575,16 @@
       <c r="C496" s="7">
         <v>43712.847222222219</v>
       </c>
-      <c r="D496" t="s">
-        <v>47</v>
-      </c>
-      <c r="F496" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D496" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F496" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B497" s="7">
         <v>43712.618055555555</v>
@@ -10701,124 +10595,181 @@
       <c r="D497" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="E497" s="6"/>
       <c r="F497" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B498" s="7">
+        <v>43712.625</v>
+      </c>
+      <c r="C498" s="7">
+        <v>43712.673611111109</v>
+      </c>
+      <c r="D498" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F498" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A499" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B499" s="7">
         <v>43712.618055555555</v>
       </c>
-      <c r="C498" s="7">
-        <v>43712.847222222219</v>
-      </c>
-      <c r="D498" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E498" s="6"/>
-      <c r="F498" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A499" t="s">
-        <v>26</v>
-      </c>
-      <c r="B499" s="7">
-        <v>43712.625</v>
-      </c>
       <c r="C499" s="7">
-        <v>43712.673611111109</v>
+        <v>43712.701388888891</v>
       </c>
       <c r="D499" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F499" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F499" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B500" s="7">
-        <v>43712.618055555555</v>
+        <v>43611.392361111109</v>
       </c>
       <c r="C500" s="7">
-        <v>43712.701388888891</v>
+        <v>43611.517361111109</v>
       </c>
       <c r="D500" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F500" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E500" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F500" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B501" s="7">
-        <v>43611.392361111109</v>
+        <v>43611.875</v>
       </c>
       <c r="C501" s="7">
-        <v>43611.517361111109</v>
+        <v>43612.208333333336</v>
       </c>
       <c r="D501" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E501" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F501" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B502" s="7">
-        <v>43611.875</v>
+        <v>43712.611111111109</v>
       </c>
       <c r="C502" s="7">
-        <v>43612.208333333336</v>
+        <v>43712.75</v>
       </c>
       <c r="D502" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E502" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F502" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="F502" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B503" s="7">
-        <v>43712.611111111109</v>
+        <v>43601.413194444445</v>
       </c>
       <c r="C503" s="7">
-        <v>43712.75</v>
+        <v>43601.586805555555</v>
       </c>
       <c r="D503" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E503" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F503" t="s">
+      <c r="F503" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A504" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B504" s="7">
+        <v>43604.416666666664</v>
+      </c>
+      <c r="C504" s="7">
+        <v>43605.673611111109</v>
+      </c>
+      <c r="D504" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F504" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A505" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B505" s="7">
+        <v>43607.673611111109</v>
+      </c>
+      <c r="C505" s="7">
+        <v>43607.802083333336</v>
+      </c>
+      <c r="D505" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F505" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A506" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B506" s="7">
+        <v>43611.395833333336</v>
+      </c>
+      <c r="C506" s="7">
+        <v>43612.177083333336</v>
+      </c>
+      <c r="D506" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F506" s="6" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F503"/>
+  <autoFilter ref="A1:F506">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="SWT-055"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:F504">
     <sortCondition ref="A2:A504"/>
     <sortCondition ref="B2:B504"/>
@@ -10835,19 +10786,19 @@
   </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="255.77734375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="30"/>
+    <col min="1" max="1" width="14.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="255.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -10858,14 +10809,14 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
     </row>
-    <row r="3" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -10876,21 +10827,21 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
     </row>
-    <row r="6" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>6</v>
       </c>
@@ -10901,14 +10852,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
     </row>
-    <row r="8" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>28</v>
       </c>
@@ -10919,14 +10870,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
     </row>
-    <row r="10" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>48</v>
       </c>
@@ -10937,21 +10888,21 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
     </row>
-    <row r="12" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
     </row>
-    <row r="13" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>8</v>
       </c>
@@ -10962,7 +10913,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>9</v>
       </c>
@@ -10973,7 +10924,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>10</v>
       </c>
@@ -10984,14 +10935,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
     </row>
-    <row r="17" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>12</v>
       </c>
@@ -11002,21 +10953,21 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
     </row>
-    <row r="19" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
     </row>
-    <row r="20" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>13</v>
       </c>
@@ -11027,183 +10978,183 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
     </row>
-    <row r="22" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
     </row>
-    <row r="23" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
     </row>
-    <row r="24" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
     </row>
-    <row r="25" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
     </row>
-    <row r="26" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
     </row>
-    <row r="27" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
     </row>
-    <row r="28" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
     </row>
-    <row r="29" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
     </row>
-    <row r="30" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
     </row>
-    <row r="31" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
     </row>
-    <row r="32" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C34" s="29" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>45</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C37" s="29" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>25</v>
       </c>
@@ -11229,7 +11180,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
